--- a/RuleTemplate.xlsx
+++ b/RuleTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattias\source\repos\MadQualityPluginII\MadQualityPluginII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F333231-5397-480C-BA4C-3FCCBD4ED91F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107715DD-F916-49E8-8AF7-912253FB5B0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="330">
   <si>
     <t>Name</t>
   </si>
@@ -88,9 +88,6 @@
     <t>:header</t>
   </si>
   <si>
-    <t>h1:nth-child(2)</t>
-  </si>
-  <si>
     <t>ol + ol</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>b,i,u</t>
   </si>
   <si>
-    <t>p:not(:has(img))</t>
-  </si>
-  <si>
     <t>This sentence contains a duplicate word!</t>
   </si>
   <si>
@@ -619,9 +613,6 @@
     <t>\d{1,2} (Jan(uary)?|Feb(ruary)?|Mar(ch)?|Apr(il)?|May|Jun(e)?|Jul(y)?|Aug(ust)?|Sep(tember)?|Oct(ober)?|Nov(ember)?|Dec(ember)?) \d{4}</t>
   </si>
   <si>
-    <t>p,li:not(:has(p))</t>
-  </si>
-  <si>
     <t>Span wrapped in span</t>
   </si>
   <si>
@@ -670,9 +661,6 @@
     <t>[a-zA-Z]+\s(((?:centi\b|\bmilli)?meters)\b|\b((?:kilo)?grams)\b|\b((?:kilo)?meters)\b|\b((?:mega)?pixels)\b|\b(cm)\b|\b(inches)\b|\b(lb)\b|\b(miles)\b|\b(pounds)\b)</t>
   </si>
   <si>
-    <t>\w+\s{0,};\s{0,}\w+</t>
-  </si>
-  <si>
     <t xml:space="preserve">DIV tag without Class </t>
   </si>
   <si>
@@ -1031,6 +1019,15 @@
   </si>
   <si>
     <t>The Flesch Kincaid readability score is %s, but must be over 60.</t>
+  </si>
+  <si>
+    <t>\w+[^gtlt]\s{0,};\s{0,}\w+</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>h1:nth-of-type(2)</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1101,6 +1098,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1428,16 +1428,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941985CF-04CD-4A25-AEA0-9F14647804DD}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="125.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1483,28 +1483,28 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B2" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -1515,31 +1515,31 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -1550,31 +1550,31 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1585,31 +1585,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1620,31 +1620,31 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1655,31 +1655,31 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1690,31 +1690,31 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1725,22 +1725,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1760,31 +1760,31 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1795,31 +1795,31 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -1830,31 +1830,31 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1865,31 +1865,31 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -1900,31 +1900,31 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -1935,31 +1935,31 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -1970,16 +1970,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
@@ -1988,13 +1988,13 @@
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2005,22 +2005,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -2040,31 +2040,31 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B18" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -2075,22 +2075,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -2110,31 +2110,31 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -2145,16 +2145,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>7</v>
@@ -2163,13 +2163,13 @@
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -2180,16 +2180,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>7</v>
@@ -2198,13 +2198,13 @@
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -2215,22 +2215,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>11</v>
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -2250,22 +2250,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>13</v>
@@ -2274,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -2285,31 +2285,31 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -2320,22 +2320,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
@@ -2355,31 +2355,31 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -2390,31 +2390,31 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -2425,31 +2425,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -2460,31 +2460,31 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -2495,31 +2495,31 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -2530,31 +2530,31 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -2565,31 +2565,31 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>210</v>
+        <v>327</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -2600,31 +2600,31 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -2635,31 +2635,31 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="E35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -2670,31 +2670,31 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -2705,31 +2705,31 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -2740,31 +2740,31 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -2775,31 +2775,31 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -2810,31 +2810,31 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -2845,22 +2845,22 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>11</v>
@@ -2869,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -2880,31 +2880,31 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B42" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -2915,22 +2915,22 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>13</v>
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -2950,31 +2950,31 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B44" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H44" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -2985,31 +2985,31 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B45" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>20</v>
+        <v>328</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H45" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -3020,31 +3020,31 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B46" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H46" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -3055,25 +3055,25 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H47" s="1" t="b">
         <v>1</v>
@@ -3090,22 +3090,22 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B48" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>1</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B49" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="1" t="b">
@@ -3144,27 +3144,27 @@
         <v>1</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B50" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>16</v>
+      <c r="F50" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="H50" s="1" t="b">
         <v>1</v>
@@ -3178,22 +3178,22 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B51" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H51" s="1" t="b">
         <v>1</v>
@@ -3207,22 +3207,22 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B52" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H52" s="1" t="b">
         <v>1</v>
@@ -3236,22 +3236,22 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B53" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>1</v>
@@ -3265,22 +3265,22 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B54" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H54" s="1" t="b">
         <v>1</v>
@@ -3294,22 +3294,22 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B55" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H55" s="1" t="b">
         <v>1</v>
@@ -3323,22 +3323,22 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B56" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H56" s="1" t="b">
         <v>1</v>
@@ -3352,22 +3352,22 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B57" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H57" s="1" t="b">
         <v>1</v>
@@ -3381,22 +3381,22 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B58" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H58" s="1" t="b">
         <v>1</v>
@@ -3410,28 +3410,28 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J59" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>12</v>
@@ -3439,22 +3439,22 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B60" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H60" s="1" t="b">
         <v>1</v>
@@ -3468,22 +3468,22 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B61" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H61" s="1" t="b">
         <v>1</v>
@@ -3497,22 +3497,22 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B62" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H62" s="1" t="b">
         <v>1</v>
@@ -3526,22 +3526,22 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H63" s="1" t="b">
         <v>1</v>
@@ -3555,22 +3555,22 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H64" s="1" t="b">
         <v>1</v>
@@ -3584,22 +3584,22 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B65" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>1</v>
@@ -3613,22 +3613,22 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B66" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66" s="1" t="b">
         <v>1</v>
@@ -3642,22 +3642,22 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B67" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H67" s="1" t="b">
         <v>1</v>
@@ -3671,22 +3671,22 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B68" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H68" s="1" t="b">
         <v>1</v>
@@ -3700,22 +3700,22 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B69" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H69" s="1" t="b">
         <v>1</v>
@@ -3729,22 +3729,22 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B70" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H70" s="1" t="b">
         <v>1</v>
@@ -3758,22 +3758,22 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H71" s="1" t="b">
         <v>1</v>
@@ -3787,22 +3787,22 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B72" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H72" s="1" t="b">
         <v>1</v>
@@ -3816,22 +3816,22 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B73" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H73" s="1" t="b">
         <v>1</v>
@@ -3845,22 +3845,22 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B74" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H74" s="1" t="b">
         <v>1</v>
@@ -3874,22 +3874,22 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B75" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>1</v>
@@ -3903,22 +3903,22 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H76" s="1" t="b">
         <v>1</v>
@@ -3932,22 +3932,22 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H77" s="1" t="b">
         <v>1</v>
@@ -3961,22 +3961,22 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H78" s="1" t="b">
         <v>1</v>
@@ -3990,22 +3990,22 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B79" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H79" s="1" t="b">
         <v>1</v>
@@ -4019,22 +4019,22 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B80" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H80" s="1" t="b">
         <v>1</v>
@@ -4048,22 +4048,22 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B81" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H81" s="1" t="b">
         <v>1</v>
@@ -4077,22 +4077,22 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B82" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H82" s="1" t="b">
         <v>1</v>
@@ -4106,22 +4106,22 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B83" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H83" s="1" t="b">
         <v>1</v>
@@ -4135,22 +4135,22 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B84" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H84" s="1" t="b">
         <v>1</v>
@@ -4164,22 +4164,22 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B85" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>1</v>
@@ -4193,22 +4193,22 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B86" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H86" s="1" t="b">
         <v>1</v>
@@ -4222,31 +4222,31 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
@@ -4257,31 +4257,31 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B88" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H88" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J88" s="1">
         <v>1</v>
@@ -4292,31 +4292,31 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B89" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
@@ -4327,31 +4327,31 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B90" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="E90" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J90" s="1">
         <v>1</v>
@@ -4362,31 +4362,31 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H91" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J91" s="1">
         <v>1</v>
@@ -4397,31 +4397,31 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>193</v>
+        <v>325</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H92" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J92" s="1">
         <v>1</v>
@@ -4432,31 +4432,31 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H93" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J93" s="1">
         <v>1</v>
@@ -4467,31 +4467,31 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J94" s="1">
         <v>1</v>
@@ -4616,7 +4616,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" t="b">
         <v>1</v>
@@ -4627,7 +4627,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -4645,12 +4645,12 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/RuleTemplate.xlsx
+++ b/RuleTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattias\source\repos\MadQualityPluginII\MadQualityPluginII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107715DD-F916-49E8-8AF7-912253FB5B0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8750AF8-EC50-47C8-9587-958EE564E44C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="ZZ_DataTab_ZZ" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$1:$K$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$1:$K$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -589,9 +589,6 @@
     <t>\b(eg|e\.g\.)[\s]:for example,\b(ie|i\.e\.)[\s]:that is</t>
   </si>
   <si>
-    <t>\w+[^\.\:\?\!]$</t>
-  </si>
-  <si>
     <t>(\bwe\'(ve|re)\b)|(\bours\b)|(\bus\b)|(\blet's\b)|(\bwe\b)</t>
   </si>
   <si>
@@ -1028,6 +1025,9 @@
   </si>
   <si>
     <t>h1:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>[^\.\:\?\!]$</t>
   </si>
 </sst>
 </file>
@@ -1428,9 +1428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941985CF-04CD-4A25-AEA0-9F14647804DD}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1483,16 +1483,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
@@ -1530,7 +1530,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>21</v>
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
@@ -1565,7 +1565,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>21</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
@@ -1600,7 +1600,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>21</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
@@ -1629,13 +1629,13 @@
         <v>100</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>21</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
@@ -1670,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>21</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>21</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
@@ -1810,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>21</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>21</v>
@@ -1854,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B13" s="1" t="b">
         <v>1</v>
@@ -1880,7 +1880,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>21</v>
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>1</v>
@@ -1915,7 +1915,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>21</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>1</v>
@@ -1944,13 +1944,13 @@
         <v>118</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>21</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B16" s="1" t="b">
         <v>1</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B17" s="1" t="b">
         <v>1</v>
@@ -2020,7 +2020,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B18" s="1" t="b">
         <v>1</v>
@@ -2055,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>21</v>
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>1</v>
@@ -2090,7 +2090,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B20" s="1" t="b">
         <v>1</v>
@@ -2125,7 +2125,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>21</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B21" s="1" t="b">
         <v>1</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B22" s="1" t="b">
         <v>1</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B23" s="1" t="b">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>11</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="1" t="b">
         <v>1</v>
@@ -2265,7 +2265,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>13</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B25" s="1" t="b">
         <v>1</v>
@@ -2300,7 +2300,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>21</v>
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B26" s="1" t="b">
         <v>1</v>
@@ -2335,7 +2335,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B27" s="1" t="b">
         <v>1</v>
@@ -2370,7 +2370,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>21</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B28" s="1" t="b">
         <v>1</v>
@@ -2405,7 +2405,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>21</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B29" s="1" t="b">
         <v>1</v>
@@ -2440,7 +2440,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>21</v>
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B30" s="1" t="b">
         <v>1</v>
@@ -2475,7 +2475,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>21</v>
@@ -2484,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B31" s="1" t="b">
         <v>1</v>
@@ -2504,13 +2504,13 @@
         <v>121</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>21</v>
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B32" s="1" t="b">
         <v>1</v>
@@ -2545,7 +2545,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>21</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B33" s="1" t="b">
         <v>1</v>
@@ -2580,7 +2580,7 @@
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>21</v>
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B34" s="1" t="b">
         <v>1</v>
@@ -2615,7 +2615,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>21</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B35" s="1" t="b">
         <v>1</v>
@@ -2650,7 +2650,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>21</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B36" s="1" t="b">
         <v>1</v>
@@ -2685,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>21</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B37" s="1" t="b">
         <v>1</v>
@@ -2720,7 +2720,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>21</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B38" s="1" t="b">
         <v>1</v>
@@ -2755,7 +2755,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>21</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B39" s="1" t="b">
         <v>1</v>
@@ -2784,13 +2784,13 @@
         <v>170</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>21</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B40" s="1" t="b">
         <v>1</v>
@@ -2825,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>21</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B41" s="1" t="b">
         <v>1</v>
@@ -2860,7 +2860,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>11</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B42" s="1" t="b">
         <v>1</v>
@@ -2895,7 +2895,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>21</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B43" s="1" t="b">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>13</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B44" s="1" t="b">
         <v>1</v>
@@ -2965,7 +2965,7 @@
         <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>21</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B45" s="1" t="b">
         <v>1</v>
@@ -2997,10 +2997,10 @@
         <v>86</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>21</v>
@@ -3009,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>183</v>
+        <v>329</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B46" s="1" t="b">
         <v>1</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B47" s="1" t="b">
         <v>1</v>
@@ -3064,13 +3064,13 @@
         <v>49</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>49</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B48" s="1" t="b">
         <v>1</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B49" s="1" t="b">
         <v>1</v>
@@ -3134,7 +3134,7 @@
         <v>6</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="1" t="b">
@@ -3149,7 +3149,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B50" s="1" t="b">
         <v>1</v>
@@ -3164,7 +3164,7 @@
         <v>7</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H50" s="1" t="b">
         <v>1</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B51" s="1" t="b">
         <v>1</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B52" s="1" t="b">
         <v>1</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B53" s="1" t="b">
         <v>1</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B54" s="1" t="b">
         <v>1</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B55" s="1" t="b">
         <v>1</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B56" s="1" t="b">
         <v>1</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B57" s="1" t="b">
         <v>1</v>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B58" s="1" t="b">
         <v>1</v>
@@ -3410,13 +3410,13 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>90</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B60" s="1" t="b">
         <v>1</v>
@@ -3454,7 +3454,7 @@
         <v>7</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H60" s="1" t="b">
         <v>1</v>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B61" s="1" t="b">
         <v>1</v>
@@ -3483,7 +3483,7 @@
         <v>7</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H61" s="1" t="b">
         <v>1</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B62" s="1" t="b">
         <v>1</v>
@@ -3512,7 +3512,7 @@
         <v>7</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H62" s="1" t="b">
         <v>1</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B63" s="1" t="b">
         <v>1</v>
@@ -3541,7 +3541,7 @@
         <v>7</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H63" s="1" t="b">
         <v>1</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B64" s="1" t="b">
         <v>1</v>
@@ -3570,7 +3570,7 @@
         <v>7</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H64" s="1" t="b">
         <v>1</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B65" s="1" t="b">
         <v>1</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B66" s="1" t="b">
         <v>1</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B67" s="1" t="b">
         <v>1</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B68" s="1" t="b">
         <v>1</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B69" s="1" t="b">
         <v>1</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B70" s="1" t="b">
         <v>1</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B71" s="1" t="b">
         <v>1</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B72" s="1" t="b">
         <v>1</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B73" s="1" t="b">
         <v>1</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B74" s="1" t="b">
         <v>1</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B75" s="1" t="b">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B76" s="1" t="b">
         <v>1</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B77" s="1" t="b">
         <v>1</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B78" s="1" t="b">
         <v>1</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B79" s="1" t="b">
         <v>1</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B80" s="1" t="b">
         <v>1</v>
@@ -4048,7 +4048,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B81" s="1" t="b">
         <v>1</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B82" s="1" t="b">
         <v>1</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B83" s="1" t="b">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B84" s="1" t="b">
         <v>1</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B85" s="1" t="b">
         <v>1</v>
@@ -4193,22 +4193,22 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B86" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="H86" s="1" t="b">
         <v>1</v>
@@ -4222,22 +4222,22 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>21</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
@@ -4257,22 +4257,22 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B88" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="E88" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>21</v>
@@ -4281,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J88" s="1">
         <v>1</v>
@@ -4292,22 +4292,22 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B89" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="E89" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>21</v>
@@ -4316,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
@@ -4327,22 +4327,22 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B90" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>21</v>
@@ -4362,22 +4362,22 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B91" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>21</v>
@@ -4386,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J91" s="1">
         <v>1</v>
@@ -4397,22 +4397,22 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B92" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>21</v>
@@ -4432,22 +4432,22 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B93" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>21</v>
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J93" s="1">
         <v>1</v>
@@ -4467,22 +4467,22 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B94" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>21</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J94" s="1">
         <v>1</v>
@@ -4501,13 +4501,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K84" xr:uid="{A50919DD-FCD4-4CE1-AF55-E89DDE6AC166}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K94">
-      <sortCondition ref="A1:A84"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:K94" xr:uid="{A50919DD-FCD4-4CE1-AF55-E89DDE6AC166}"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RuleTemplate.xlsx
+++ b/RuleTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattias\source\repos\MadQualityPluginII\MadQualityPluginII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8750AF8-EC50-47C8-9587-958EE564E44C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9436AB8-C953-40F4-B468-5371AD33DF19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
   </bookViews>
@@ -1428,9 +1428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941985CF-04CD-4A25-AEA0-9F14647804DD}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>12</v>

--- a/RuleTemplate.xlsx
+++ b/RuleTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattias\source\repos\MadQualityPluginII\MadQualityPluginII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9436AB8-C953-40F4-B468-5371AD33DF19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0F004C-B068-4133-83B5-D7495D27E23C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
   </bookViews>
@@ -1430,7 +1430,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J94"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RuleTemplate.xlsx
+++ b/RuleTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattias\source\repos\MadQualityPluginII\MadQualityPluginII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0F004C-B068-4133-83B5-D7495D27E23C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8AF31B-9169-4669-AE9A-AEB5B5CA1995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="ZZ_DataTab_ZZ" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$1:$K$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$1:$K$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="334">
   <si>
     <t>Name</t>
   </si>
@@ -1028,6 +1028,18 @@
   </si>
   <si>
     <t>[^\.\:\?\!]$</t>
+  </si>
+  <si>
+    <t>Zero width space</t>
+  </si>
+  <si>
+    <t>\u200b</t>
+  </si>
+  <si>
+    <t>FN-20210422171705</t>
+  </si>
+  <si>
+    <t>File names must not contain a zero width space because it breaks hyperlinks.</t>
   </si>
 </sst>
 </file>
@@ -1426,11 +1438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941985CF-04CD-4A25-AEA0-9F14647804DD}">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,31 +1527,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>93</v>
+      <c r="C3" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>94</v>
+        <v>333</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>204</v>
+        <v>331</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -1550,16 +1559,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -1567,14 +1576,14 @@
       <c r="F4" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1585,16 +1594,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -1602,14 +1611,14 @@
       <c r="F5" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1620,16 +1629,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>187</v>
+        <v>98</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -1641,10 +1650,10 @@
         <v>21</v>
       </c>
       <c r="H6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1655,16 +1664,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -1676,10 +1685,10 @@
         <v>21</v>
       </c>
       <c r="H7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1690,16 +1699,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -1714,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1725,16 +1734,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -1743,13 +1752,13 @@
         <v>327</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1760,16 +1769,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -1778,13 +1787,13 @@
         <v>327</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1795,7 +1804,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
@@ -1804,7 +1813,7 @@
         <v>109</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
@@ -1816,10 +1825,10 @@
         <v>21</v>
       </c>
       <c r="H11" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -1830,16 +1839,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
@@ -1851,10 +1860,10 @@
         <v>21</v>
       </c>
       <c r="H12" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1865,16 +1874,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
@@ -1889,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -1900,16 +1909,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -1924,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -1935,16 +1944,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>184</v>
+        <v>96</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>7</v>
@@ -1959,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -1970,22 +1979,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>21</v>
@@ -1994,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2005,31 +2014,31 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>141</v>
+      <c r="C17" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>327</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -2040,16 +2049,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>126</v>
+      <c r="C18" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>7</v>
@@ -2058,13 +2067,13 @@
         <v>327</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -2075,16 +2084,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>180</v>
+      <c r="C19" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>7</v>
@@ -2093,13 +2102,13 @@
         <v>327</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -2110,16 +2119,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>118</v>
+      <c r="C20" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>7</v>
@@ -2128,13 +2137,13 @@
         <v>327</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -2145,22 +2154,22 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>21</v>
@@ -2169,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -2180,16 +2189,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>7</v>
@@ -2201,10 +2210,10 @@
         <v>21</v>
       </c>
       <c r="H22" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -2215,31 +2224,31 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>327</v>
+        <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>138</v>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -2250,16 +2259,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B24" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>140</v>
+      <c r="C24" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>7</v>
@@ -2268,13 +2277,13 @@
         <v>327</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H24" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>139</v>
+      <c r="I24" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -2285,16 +2294,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B25" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>142</v>
+      <c r="C25" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>7</v>
@@ -2303,13 +2312,13 @@
         <v>327</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -2320,16 +2329,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>7</v>
@@ -2338,13 +2347,13 @@
         <v>327</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
@@ -2355,16 +2364,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>7</v>
@@ -2373,13 +2382,13 @@
         <v>327</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H27" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -2390,16 +2399,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
@@ -2411,10 +2420,10 @@
         <v>21</v>
       </c>
       <c r="H28" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -2425,16 +2434,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>7</v>
@@ -2449,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -2460,16 +2469,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>7</v>
@@ -2484,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -2495,16 +2504,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>185</v>
+        <v>105</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>7</v>
@@ -2519,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -2530,16 +2539,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B32" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>154</v>
+      <c r="C32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>7</v>
@@ -2554,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -2565,16 +2574,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B33" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>156</v>
+      <c r="C33" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>7</v>
@@ -2589,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>326</v>
+        <v>153</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -2600,16 +2609,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>7</v>
@@ -2624,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>159</v>
+        <v>326</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -2635,7 +2644,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B35" s="1" t="b">
         <v>1</v>
@@ -2644,7 +2653,7 @@
         <v>158</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>7</v>
@@ -2659,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -2670,7 +2679,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B36" s="1" t="b">
         <v>1</v>
@@ -2679,7 +2688,7 @@
         <v>158</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>7</v>
@@ -2694,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -2705,16 +2714,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>7</v>
@@ -2729,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -2740,16 +2749,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>7</v>
@@ -2764,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -2775,16 +2784,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B39" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>186</v>
+      <c r="C39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>7</v>
@@ -2798,8 +2807,8 @@
       <c r="H39" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>169</v>
+      <c r="I39" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -2810,16 +2819,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B40" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>173</v>
+      <c r="C40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>7</v>
@@ -2833,8 +2842,8 @@
       <c r="H40" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>171</v>
+      <c r="I40" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -2845,16 +2854,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>7</v>
@@ -2863,13 +2872,13 @@
         <v>327</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -2880,7 +2889,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B42" s="1" t="b">
         <v>1</v>
@@ -2889,7 +2898,7 @@
         <v>158</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>7</v>
@@ -2898,13 +2907,13 @@
         <v>327</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -2915,16 +2924,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>7</v>
@@ -2933,13 +2942,13 @@
         <v>327</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -2950,31 +2959,31 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B44" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>72</v>
+      <c r="C44" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>327</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H44" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -2985,16 +2994,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B45" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>7</v>
@@ -3009,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>329</v>
+        <v>46</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -3055,31 +3064,25 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="B47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H47" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" s="1">
-        <v>60</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -3090,23 +3093,24 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B48" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="G48" s="3"/>
       <c r="H48" s="1" t="b">
         <v>1</v>
       </c>
@@ -3114,29 +3118,28 @@
         <v>1</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B49" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G49" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="H49" s="1" t="b">
         <v>1</v>
       </c>
@@ -3144,27 +3147,27 @@
         <v>1</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B50" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>328</v>
+      <c r="F50" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H50" s="1" t="b">
         <v>1</v>
@@ -3178,7 +3181,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B51" s="1" t="b">
         <v>1</v>
@@ -3193,7 +3196,7 @@
         <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H51" s="1" t="b">
         <v>1</v>
@@ -3207,22 +3210,22 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B52" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H52" s="1" t="b">
         <v>1</v>
@@ -3236,22 +3239,22 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B53" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>1</v>
@@ -3265,22 +3268,22 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B54" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H54" s="1" t="b">
         <v>1</v>
@@ -3294,22 +3297,22 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B55" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H55" s="1" t="b">
         <v>1</v>
@@ -3323,22 +3326,22 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B56" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H56" s="1" t="b">
         <v>1</v>
@@ -3352,22 +3355,22 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B57" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H57" s="1" t="b">
         <v>1</v>
@@ -3381,22 +3384,22 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B58" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>54</v>
+        <v>206</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H58" s="1" t="b">
         <v>1</v>
@@ -3410,22 +3413,22 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="H59" s="1" t="b">
         <v>1</v>
@@ -3439,7 +3442,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B60" s="1" t="b">
         <v>1</v>
@@ -3454,7 +3457,7 @@
         <v>7</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H60" s="1" t="b">
         <v>1</v>
@@ -3468,7 +3471,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B61" s="1" t="b">
         <v>1</v>
@@ -3483,7 +3486,7 @@
         <v>7</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H61" s="1" t="b">
         <v>1</v>
@@ -3497,7 +3500,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B62" s="1" t="b">
         <v>1</v>
@@ -3512,7 +3515,7 @@
         <v>7</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H62" s="1" t="b">
         <v>1</v>
@@ -3526,7 +3529,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B63" s="1" t="b">
         <v>1</v>
@@ -3541,7 +3544,7 @@
         <v>7</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H63" s="1" t="b">
         <v>1</v>
@@ -3555,22 +3558,22 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="H64" s="1" t="b">
         <v>1</v>
@@ -3584,22 +3587,22 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B65" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>1</v>
@@ -3613,7 +3616,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B66" s="1" t="b">
         <v>1</v>
@@ -3622,13 +3625,13 @@
         <v>77</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H66" s="1" t="b">
         <v>1</v>
@@ -3642,22 +3645,22 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B67" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H67" s="1" t="b">
         <v>1</v>
@@ -3671,22 +3674,22 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B68" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H68" s="1" t="b">
         <v>1</v>
@@ -3700,22 +3703,22 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B69" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="H69" s="1" t="b">
         <v>1</v>
@@ -3729,22 +3732,22 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B70" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H70" s="1" t="b">
         <v>1</v>
@@ -3758,22 +3761,22 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H71" s="1" t="b">
         <v>1</v>
@@ -3787,7 +3790,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B72" s="1" t="b">
         <v>1</v>
@@ -3802,7 +3805,7 @@
         <v>7</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H72" s="1" t="b">
         <v>1</v>
@@ -3816,7 +3819,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B73" s="1" t="b">
         <v>1</v>
@@ -3831,7 +3834,7 @@
         <v>7</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H73" s="1" t="b">
         <v>1</v>
@@ -3845,7 +3848,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B74" s="1" t="b">
         <v>1</v>
@@ -3860,7 +3863,7 @@
         <v>7</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H74" s="1" t="b">
         <v>1</v>
@@ -3874,7 +3877,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B75" s="1" t="b">
         <v>1</v>
@@ -3889,7 +3892,7 @@
         <v>7</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>1</v>
@@ -3903,7 +3906,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B76" s="1" t="b">
         <v>1</v>
@@ -3918,7 +3921,7 @@
         <v>7</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H76" s="1" t="b">
         <v>1</v>
@@ -3932,7 +3935,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B77" s="1" t="b">
         <v>1</v>
@@ -3947,7 +3950,7 @@
         <v>7</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H77" s="1" t="b">
         <v>1</v>
@@ -3961,7 +3964,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B78" s="1" t="b">
         <v>1</v>
@@ -3976,7 +3979,7 @@
         <v>7</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H78" s="1" t="b">
         <v>1</v>
@@ -3990,7 +3993,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B79" s="1" t="b">
         <v>1</v>
@@ -4005,7 +4008,7 @@
         <v>7</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H79" s="1" t="b">
         <v>1</v>
@@ -4019,7 +4022,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B80" s="1" t="b">
         <v>1</v>
@@ -4034,7 +4037,7 @@
         <v>7</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H80" s="1" t="b">
         <v>1</v>
@@ -4048,7 +4051,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B81" s="1" t="b">
         <v>1</v>
@@ -4063,7 +4066,7 @@
         <v>7</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H81" s="1" t="b">
         <v>1</v>
@@ -4077,7 +4080,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B82" s="1" t="b">
         <v>1</v>
@@ -4092,7 +4095,7 @@
         <v>7</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H82" s="1" t="b">
         <v>1</v>
@@ -4106,7 +4109,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B83" s="1" t="b">
         <v>1</v>
@@ -4121,7 +4124,7 @@
         <v>7</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H83" s="1" t="b">
         <v>1</v>
@@ -4135,7 +4138,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B84" s="1" t="b">
         <v>1</v>
@@ -4150,7 +4153,7 @@
         <v>7</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="H84" s="1" t="b">
         <v>1</v>
@@ -4164,22 +4167,22 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B85" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>1</v>
@@ -4193,25 +4196,31 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B86" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E86" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>191</v>
+        <v>327</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H86" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="J86" s="1">
         <v>1</v>
@@ -4222,16 +4231,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B87" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>7</v>
@@ -4243,10 +4252,10 @@
         <v>21</v>
       </c>
       <c r="H87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
@@ -4257,16 +4266,16 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B88" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>7</v>
@@ -4281,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J88" s="1">
         <v>1</v>
@@ -4292,16 +4301,16 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B89" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>7</v>
@@ -4316,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
@@ -4327,16 +4336,16 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>7</v>
@@ -4351,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="J90" s="1">
         <v>1</v>
@@ -4362,22 +4371,22 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B91" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>21</v>
@@ -4385,8 +4394,8 @@
       <c r="H91" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>218</v>
+      <c r="I91" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="J91" s="1">
         <v>1</v>
@@ -4397,22 +4406,22 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B92" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>21</v>
@@ -4420,8 +4429,8 @@
       <c r="H92" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I92" s="3" t="s">
-        <v>169</v>
+      <c r="I92" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="J92" s="1">
         <v>1</v>
@@ -4432,16 +4441,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B93" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>225</v>
+        <v>208</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>7</v>
@@ -4453,10 +4462,10 @@
         <v>21</v>
       </c>
       <c r="H93" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J93" s="1">
         <v>1</v>
@@ -4467,18 +4476,18 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="B94" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E94" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -4488,20 +4497,59 @@
         <v>21</v>
       </c>
       <c r="H94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J94" s="1">
+        <v>1</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B95" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J94" s="1">
-        <v>1</v>
-      </c>
-      <c r="K94" s="1" t="s">
+      <c r="C95" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H95" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" s="1">
+        <v>60</v>
+      </c>
+      <c r="J95" s="1">
+        <v>1</v>
+      </c>
+      <c r="K95" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K94" xr:uid="{A50919DD-FCD4-4CE1-AF55-E89DDE6AC166}"/>
+  <autoFilter ref="A1:K95" xr:uid="{A50919DD-FCD4-4CE1-AF55-E89DDE6AC166}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K95">
+      <sortCondition descending="1" ref="B1:B95"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>TRUE</formula>
@@ -4512,49 +4560,49 @@
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="You must enter a value" error="You must enter a value" sqref="A1:A1048576 C1:D1048576" xr:uid="{E602CB79-5724-456B-A221-D249AAA1E9AC}">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="You must enter a value" error="You must enter a value" sqref="C1:D1048576 A1:A1048576" xr:uid="{E602CB79-5724-456B-A221-D249AAA1E9AC}">
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{EA26E342-75A7-48B3-A42C-62E2CFCAE2B6}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{035DA60F-453B-48C8-A2B8-297CB440AC8D}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{B64A68BC-CF2A-4451-925B-CA6552EBC253}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{2A93221F-1638-4ECC-8D24-8E1BFCEAB2D3}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{56B91698-2EA9-438B-99D9-8C7B71FE6AB7}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{952AB7DC-4F1A-435F-BB09-1BF2B747833E}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{559C04AB-0F25-4A99-8990-C756F419EB58}"/>
-    <hyperlink ref="C10" r:id="rId8" location="numbers-in-dates" xr:uid="{F1C51ECF-0C1C-4C86-A5DE-04EB8F953845}"/>
-    <hyperlink ref="C11" r:id="rId9" location="numbers-in-dates" xr:uid="{1B949DAF-3250-4EE4-8D1E-5DB7FD1E7D12}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{A8378D11-9579-4ADA-8CC9-77602770DA99}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{F05CD4AF-71E6-4909-B302-6389EFA40919}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{94890238-61B9-4182-86AA-2436C91E0AD7}"/>
-    <hyperlink ref="C15" r:id="rId13" xr:uid="{1757118C-BE7B-4A03-8F3A-F06EB77B08BC}"/>
-    <hyperlink ref="C16" r:id="rId14" xr:uid="{AA2DE4F9-7EE2-4758-A2C6-7D2A90C9FF6F}"/>
-    <hyperlink ref="C18" r:id="rId15" xr:uid="{25B7FC0C-CEE1-45A9-B3B6-08AD8182A9D8}"/>
-    <hyperlink ref="C20" r:id="rId16" xr:uid="{869D1379-B47C-401B-A2D7-AB51DF7ECA04}"/>
-    <hyperlink ref="C21" r:id="rId17" xr:uid="{989F8BBD-1313-458E-9D38-43441D064B5E}"/>
-    <hyperlink ref="C22" r:id="rId18" location="be-careful-with-acronyms-in-titles-and-headings" xr:uid="{AD7597E2-E554-4E96-AF9E-2C807AE80400}"/>
-    <hyperlink ref="C23" r:id="rId19" xr:uid="{21DB0144-C5FD-478C-9290-FFFE51E67B82}"/>
-    <hyperlink ref="I23" r:id="rId20" xr:uid="{1CB13DD6-76C5-472E-8227-AFF9B1CE6CB3}"/>
-    <hyperlink ref="C25" r:id="rId21" location="pronouns-and-gender" xr:uid="{84ED7D64-0227-4BE4-A9FA-A6CFCBDD0BA0}"/>
-    <hyperlink ref="C26" r:id="rId22" xr:uid="{0E0E23A2-7EA3-43F8-947F-293115E80798}"/>
-    <hyperlink ref="C27" r:id="rId23" xr:uid="{28472EA9-7C3C-463F-89F9-66BBF150480F}"/>
-    <hyperlink ref="C28" r:id="rId24" xr:uid="{8A279A3D-261F-47E9-B024-7853A46614B4}"/>
-    <hyperlink ref="C29" r:id="rId25" location="avoid-first-person-plural" xr:uid="{B86A2674-0276-40F6-9194-E68EAB33E4EA}"/>
-    <hyperlink ref="C30" r:id="rId26" xr:uid="{C096B5C4-44B8-4817-B405-D4B63CFCB82B}"/>
-    <hyperlink ref="C31" r:id="rId27" xr:uid="{454E03CE-86D7-4CC5-B8EC-E4721B025F80}"/>
-    <hyperlink ref="C33" r:id="rId28" xr:uid="{BE9CE20B-33FD-4C4A-8717-B88D1F3A220F}"/>
-    <hyperlink ref="C34" r:id="rId29" xr:uid="{92C9E74C-AA5B-4747-B22B-E92C2ACD2F3B}"/>
-    <hyperlink ref="C35" r:id="rId30" xr:uid="{6E1887A8-D1E0-40E5-9EE6-371996BAA873}"/>
-    <hyperlink ref="C36" r:id="rId31" xr:uid="{37149DFC-5566-4704-AA97-4C19EB80A60D}"/>
-    <hyperlink ref="C37" r:id="rId32" xr:uid="{A7A42940-77BF-49F3-A66A-478EF5DEEECB}"/>
-    <hyperlink ref="C38" r:id="rId33" xr:uid="{ADCB8406-CBFF-47A2-8364-00312B6EB732}"/>
-    <hyperlink ref="C40" r:id="rId34" xr:uid="{C975BDAE-57C3-4B60-B13E-2F62F4159789}"/>
-    <hyperlink ref="C41" r:id="rId35" xr:uid="{0E220387-53C8-4888-BEAD-89E470E7574E}"/>
-    <hyperlink ref="C42" r:id="rId36" xr:uid="{973AE3ED-0C35-4BB8-8E8E-723687FBCA19}"/>
-    <hyperlink ref="C43" r:id="rId37" xr:uid="{02E0EB4F-0934-4976-8A69-B6EBAFA02593}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{EA26E342-75A7-48B3-A42C-62E2CFCAE2B6}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{035DA60F-453B-48C8-A2B8-297CB440AC8D}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{B64A68BC-CF2A-4451-925B-CA6552EBC253}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{2A93221F-1638-4ECC-8D24-8E1BFCEAB2D3}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{56B91698-2EA9-438B-99D9-8C7B71FE6AB7}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{952AB7DC-4F1A-435F-BB09-1BF2B747833E}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{559C04AB-0F25-4A99-8990-C756F419EB58}"/>
+    <hyperlink ref="C11" r:id="rId8" location="numbers-in-dates" xr:uid="{F1C51ECF-0C1C-4C86-A5DE-04EB8F953845}"/>
+    <hyperlink ref="C12" r:id="rId9" location="numbers-in-dates" xr:uid="{1B949DAF-3250-4EE4-8D1E-5DB7FD1E7D12}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{A8378D11-9579-4ADA-8CC9-77602770DA99}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{F05CD4AF-71E6-4909-B302-6389EFA40919}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{94890238-61B9-4182-86AA-2436C91E0AD7}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{1757118C-BE7B-4A03-8F3A-F06EB77B08BC}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{AA2DE4F9-7EE2-4758-A2C6-7D2A90C9FF6F}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{25B7FC0C-CEE1-45A9-B3B6-08AD8182A9D8}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{869D1379-B47C-401B-A2D7-AB51DF7ECA04}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{989F8BBD-1313-458E-9D38-43441D064B5E}"/>
+    <hyperlink ref="C23" r:id="rId18" location="be-careful-with-acronyms-in-titles-and-headings" xr:uid="{AD7597E2-E554-4E96-AF9E-2C807AE80400}"/>
+    <hyperlink ref="C24" r:id="rId19" xr:uid="{21DB0144-C5FD-478C-9290-FFFE51E67B82}"/>
+    <hyperlink ref="I24" r:id="rId20" xr:uid="{1CB13DD6-76C5-472E-8227-AFF9B1CE6CB3}"/>
+    <hyperlink ref="C26" r:id="rId21" location="pronouns-and-gender" xr:uid="{84ED7D64-0227-4BE4-A9FA-A6CFCBDD0BA0}"/>
+    <hyperlink ref="C27" r:id="rId22" xr:uid="{0E0E23A2-7EA3-43F8-947F-293115E80798}"/>
+    <hyperlink ref="C28" r:id="rId23" xr:uid="{28472EA9-7C3C-463F-89F9-66BBF150480F}"/>
+    <hyperlink ref="C29" r:id="rId24" xr:uid="{8A279A3D-261F-47E9-B024-7853A46614B4}"/>
+    <hyperlink ref="C30" r:id="rId25" location="avoid-first-person-plural" xr:uid="{B86A2674-0276-40F6-9194-E68EAB33E4EA}"/>
+    <hyperlink ref="C31" r:id="rId26" xr:uid="{C096B5C4-44B8-4817-B405-D4B63CFCB82B}"/>
+    <hyperlink ref="C32" r:id="rId27" xr:uid="{454E03CE-86D7-4CC5-B8EC-E4721B025F80}"/>
+    <hyperlink ref="C34" r:id="rId28" xr:uid="{BE9CE20B-33FD-4C4A-8717-B88D1F3A220F}"/>
+    <hyperlink ref="C35" r:id="rId29" xr:uid="{92C9E74C-AA5B-4747-B22B-E92C2ACD2F3B}"/>
+    <hyperlink ref="C36" r:id="rId30" xr:uid="{6E1887A8-D1E0-40E5-9EE6-371996BAA873}"/>
+    <hyperlink ref="C37" r:id="rId31" xr:uid="{37149DFC-5566-4704-AA97-4C19EB80A60D}"/>
+    <hyperlink ref="C38" r:id="rId32" xr:uid="{A7A42940-77BF-49F3-A66A-478EF5DEEECB}"/>
+    <hyperlink ref="C39" r:id="rId33" xr:uid="{ADCB8406-CBFF-47A2-8364-00312B6EB732}"/>
+    <hyperlink ref="C41" r:id="rId34" xr:uid="{C975BDAE-57C3-4B60-B13E-2F62F4159789}"/>
+    <hyperlink ref="C42" r:id="rId35" xr:uid="{0E220387-53C8-4888-BEAD-89E470E7574E}"/>
+    <hyperlink ref="C43" r:id="rId36" xr:uid="{973AE3ED-0C35-4BB8-8E8E-723687FBCA19}"/>
+    <hyperlink ref="C44" r:id="rId37" xr:uid="{02E0EB4F-0934-4976-8A69-B6EBAFA02593}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
@@ -4567,12 +4615,6 @@
           </x14:formula1>
           <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B7B4805-895C-4B4D-B437-049620AFDF29}">
-          <x14:formula1>
-            <xm:f>ZZ_DataTab_ZZ!$B$1:$B$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{75F371EF-B329-4C55-8F11-27BE2223C567}">
           <x14:formula1>
             <xm:f>ZZ_DataTab_ZZ!$C$1:$C$2</xm:f>
@@ -4584,6 +4626,12 @@
             <xm:f>ZZ_DataTab_ZZ!$C$1:$C$2</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B7B4805-895C-4B4D-B437-049620AFDF29}">
+          <x14:formula1>
+            <xm:f>ZZ_DataTab_ZZ!$B$1:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4599,7 +4647,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4641,12 +4689,12 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/RuleTemplate.xlsx
+++ b/RuleTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattias\source\repos\MadQualityPluginII\MadQualityPluginII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8AF31B-9169-4669-AE9A-AEB5B5CA1995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2269B12-B69D-4F64-B828-8D566B5604D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
   </bookViews>
@@ -1442,7 +1442,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,7 +1962,7 @@
         <v>327</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="b">
         <v>1</v>
@@ -4199,7 +4199,7 @@
         <v>311</v>
       </c>
       <c r="B86" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>211</v>
@@ -4234,7 +4234,7 @@
         <v>312</v>
       </c>
       <c r="B87" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>213</v>
@@ -4269,7 +4269,7 @@
         <v>313</v>
       </c>
       <c r="B88" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>215</v>
@@ -4304,7 +4304,7 @@
         <v>314</v>
       </c>
       <c r="B89" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>223</v>
@@ -4339,7 +4339,7 @@
         <v>315</v>
       </c>
       <c r="B90" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>217</v>
@@ -4374,7 +4374,7 @@
         <v>316</v>
       </c>
       <c r="B91" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>170</v>
@@ -4409,7 +4409,7 @@
         <v>317</v>
       </c>
       <c r="B92" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>222</v>
@@ -4444,7 +4444,7 @@
         <v>318</v>
       </c>
       <c r="B93" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>208</v>

--- a/RuleTemplate.xlsx
+++ b/RuleTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattias\source\repos\MadQualityPluginII\MadQualityPluginII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A718135-7D0C-487D-9469-37D435EFCA6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1563591-9AF3-4AD6-953C-7C4D672CBC4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="333">
   <si>
     <t>Name</t>
   </si>
@@ -94,9 +94,6 @@
     <t>b,i,u</t>
   </si>
   <si>
-    <t>This sentence contains a duplicate word!</t>
-  </si>
-  <si>
     <t>:header:has(br)</t>
   </si>
   <si>
@@ -1030,16 +1027,16 @@
     <t>A topic must have a &lt;h1&gt; element</t>
   </si>
   <si>
-    <t>h1</t>
-  </si>
-  <si>
-    <t>*.htm,*.html</t>
-  </si>
-  <si>
     <t>*.htm,*.html,*.flsnp</t>
   </si>
   <si>
     <t>RawRegex</t>
+  </si>
+  <si>
+    <t>This sentence contains a duplicate word: '%s'</t>
+  </si>
+  <si>
+    <t>body:has(h1)</t>
   </si>
 </sst>
 </file>
@@ -1441,8 +1438,8 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -1498,296 +1495,296 @@
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="J2" s="4">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="J3" s="4">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J4" s="4">
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J6" s="4">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J7" s="4">
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="J8" s="4">
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J9" s="4">
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>12</v>
@@ -1796,173 +1793,173 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J10" s="4">
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>12</v>
@@ -1971,62 +1968,62 @@
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>7</v>
@@ -2035,39 +2032,39 @@
         <v>14</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B18" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>12</v>
@@ -2076,68 +2073,68 @@
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J19" s="4">
         <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>12</v>
@@ -2146,62 +2143,62 @@
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J20" s="4">
         <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J21" s="4">
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>7</v>
@@ -2210,33 +2207,33 @@
         <v>14</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>7</v>
@@ -2245,39 +2242,39 @@
         <v>14</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J23" s="4">
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>11</v>
@@ -2286,33 +2283,33 @@
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J24" s="4">
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>12</v>
@@ -2321,68 +2318,68 @@
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J25" s="4">
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J26" s="4">
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>12</v>
@@ -2391,523 +2388,523 @@
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J27" s="4">
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J28" s="4">
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="J29" s="4">
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J30" s="4">
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J31" s="4">
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J32" s="4">
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J33" s="4">
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J34" s="4">
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="J35" s="4">
         <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J36" s="4">
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="J37" s="4">
         <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="J38" s="4">
         <v>1</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="J39" s="4">
         <v>1</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J40" s="4">
         <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="E41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J41" s="4">
         <v>1</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B42" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>11</v>
@@ -2916,68 +2913,68 @@
         <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J42" s="4">
         <v>1</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="J43" s="4">
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B44" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>12</v>
@@ -2986,141 +2983,141 @@
         <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J44" s="4">
         <v>1</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B45" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H45" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J45" s="4">
         <v>1</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B46" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H46" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J46" s="4">
         <v>1</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>18</v>
+        <v>331</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J47" s="4">
         <v>1</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>1</v>
@@ -3132,27 +3129,27 @@
         <v>1</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B49" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>1</v>
@@ -3161,27 +3158,27 @@
         <v>1</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B50" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H50" s="1" t="b">
         <v>1</v>
@@ -3190,27 +3187,27 @@
         <v>1</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B51" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H51" s="1" t="b">
         <v>1</v>
@@ -3219,27 +3216,27 @@
         <v>1</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B52" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H52" s="1" t="b">
         <v>1</v>
@@ -3248,27 +3245,27 @@
         <v>1</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B53" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>1</v>
@@ -3277,27 +3274,27 @@
         <v>1</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B54" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H54" s="1" t="b">
         <v>1</v>
@@ -3306,27 +3303,27 @@
         <v>1</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B55" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H55" s="1" t="b">
         <v>1</v>
@@ -3335,27 +3332,27 @@
         <v>1</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B56" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H56" s="1" t="b">
         <v>1</v>
@@ -3364,27 +3361,27 @@
         <v>1</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B57" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H57" s="1" t="b">
         <v>1</v>
@@ -3393,27 +3390,27 @@
         <v>1</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B58" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H58" s="1" t="b">
         <v>1</v>
@@ -3422,27 +3419,27 @@
         <v>1</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H59" s="1" t="b">
         <v>1</v>
@@ -3451,27 +3448,27 @@
         <v>1</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B60" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H60" s="1" t="b">
         <v>1</v>
@@ -3480,27 +3477,27 @@
         <v>1</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B61" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H61" s="1" t="b">
         <v>1</v>
@@ -3509,27 +3506,27 @@
         <v>1</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B62" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H62" s="1" t="b">
         <v>1</v>
@@ -3538,27 +3535,27 @@
         <v>1</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H63" s="1" t="b">
         <v>1</v>
@@ -3567,27 +3564,27 @@
         <v>1</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H64" s="1" t="b">
         <v>1</v>
@@ -3596,27 +3593,27 @@
         <v>1</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B65" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>1</v>
@@ -3625,21 +3622,21 @@
         <v>1</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B66" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>7</v>
@@ -3654,21 +3651,21 @@
         <v>1</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B67" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>7</v>
@@ -3683,27 +3680,27 @@
         <v>1</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B68" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H68" s="1" t="b">
         <v>1</v>
@@ -3712,27 +3709,27 @@
         <v>1</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B69" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H69" s="1" t="b">
         <v>1</v>
@@ -3741,21 +3738,21 @@
         <v>1</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B70" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>7</v>
@@ -3770,27 +3767,27 @@
         <v>1</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H71" s="1" t="b">
         <v>1</v>
@@ -3799,27 +3796,27 @@
         <v>1</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B72" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H72" s="1" t="b">
         <v>1</v>
@@ -3828,27 +3825,27 @@
         <v>1</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B73" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H73" s="1" t="b">
         <v>1</v>
@@ -3857,27 +3854,27 @@
         <v>1</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B74" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H74" s="1" t="b">
         <v>1</v>
@@ -3886,27 +3883,27 @@
         <v>1</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B75" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>1</v>
@@ -3915,27 +3912,27 @@
         <v>1</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H76" s="1" t="b">
         <v>1</v>
@@ -3944,27 +3941,27 @@
         <v>1</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77" s="1" t="b">
         <v>1</v>
@@ -3973,27 +3970,27 @@
         <v>1</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H78" s="1" t="b">
         <v>1</v>
@@ -4002,27 +3999,27 @@
         <v>1</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B79" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H79" s="1" t="b">
         <v>1</v>
@@ -4031,27 +4028,27 @@
         <v>1</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B80" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H80" s="1" t="b">
         <v>1</v>
@@ -4060,27 +4057,27 @@
         <v>1</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B81" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H81" s="1" t="b">
         <v>1</v>
@@ -4089,27 +4086,27 @@
         <v>1</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B82" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H82" s="1" t="b">
         <v>1</v>
@@ -4118,27 +4115,27 @@
         <v>1</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B83" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H83" s="1" t="b">
         <v>1</v>
@@ -4147,27 +4144,27 @@
         <v>1</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B84" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H84" s="1" t="b">
         <v>1</v>
@@ -4176,27 +4173,27 @@
         <v>1</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B85" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>1</v>
@@ -4205,28 +4202,28 @@
         <v>1</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B86" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="H86" s="1" t="b">
         <v>1</v>
       </c>
@@ -4234,310 +4231,310 @@
         <v>1</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J87" s="4">
         <v>1</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B88" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="E88" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H88" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J88" s="4">
         <v>1</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B89" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="E89" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H89" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J89" s="4">
         <v>1</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B90" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J90" s="4">
         <v>1</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="J91" s="4">
         <v>1</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H92" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J92" s="4">
         <v>1</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H93" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J93" s="4">
         <v>1</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J94" s="4">
         <v>1</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B95" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B95" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="D95" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H95" s="1" t="b">
         <v>1</v>
@@ -4546,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4665,7 +4662,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="b">
         <v>1</v>
@@ -4676,7 +4673,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -4694,17 +4691,17 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/RuleTemplate.xlsx
+++ b/RuleTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattias\source\repos\MadQualityPluginII\MadQualityPluginII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1563591-9AF3-4AD6-953C-7C4D672CBC4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B9AE69-3676-4C2C-A769-1777075D4949}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
   </bookViews>
@@ -1438,8 +1438,8 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1495,16 +1495,16 @@
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
@@ -1527,28 +1527,31 @@
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>317</v>
+        <v>214</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>315</v>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>318</v>
+        <v>85</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>316</v>
+        <v>191</v>
       </c>
       <c r="J3" s="4">
         <v>1</v>
@@ -1559,16 +1562,16 @@
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
@@ -1576,14 +1579,14 @@
       <c r="F4" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="J4" s="4">
         <v>1</v>
@@ -1594,16 +1597,16 @@
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
@@ -1611,14 +1614,14 @@
       <c r="F5" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
@@ -1629,16 +1632,16 @@
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
@@ -1650,10 +1653,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>319</v>
+        <v>182</v>
       </c>
       <c r="J6" s="4">
         <v>1</v>
@@ -1664,16 +1667,16 @@
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>174</v>
+        <v>92</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>7</v>
@@ -1685,10 +1688,10 @@
         <v>19</v>
       </c>
       <c r="H7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="J7" s="4">
         <v>1</v>
@@ -1699,16 +1702,16 @@
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>7</v>
@@ -1723,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
@@ -1734,16 +1737,16 @@
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>7</v>
@@ -1752,13 +1755,13 @@
         <v>312</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="J9" s="4">
         <v>1</v>
@@ -1769,16 +1772,16 @@
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>7</v>
@@ -1787,13 +1790,13 @@
         <v>312</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J10" s="4">
         <v>1</v>
@@ -1804,7 +1807,7 @@
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
@@ -1813,7 +1816,7 @@
         <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>7</v>
@@ -1825,10 +1828,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
@@ -1839,16 +1842,16 @@
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>7</v>
@@ -1860,10 +1863,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
@@ -1874,16 +1877,16 @@
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>7</v>
@@ -1898,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
@@ -1909,16 +1912,16 @@
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>7</v>
@@ -1927,13 +1930,13 @@
         <v>312</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
@@ -1944,16 +1947,16 @@
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>7</v>
@@ -1962,13 +1965,13 @@
         <v>312</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
@@ -1979,22 +1982,22 @@
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>171</v>
+        <v>111</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>312</v>
+        <v>14</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>19</v>
@@ -2003,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
@@ -2014,31 +2017,31 @@
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>111</v>
+      <c r="C17" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>321</v>
+        <v>113</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
@@ -2049,16 +2052,16 @@
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>129</v>
+      <c r="C18" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>7</v>
@@ -2067,13 +2070,13 @@
         <v>312</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
@@ -2084,16 +2087,16 @@
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>115</v>
+      <c r="C19" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>7</v>
@@ -2102,13 +2105,13 @@
         <v>312</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="J19" s="4">
         <v>1</v>
@@ -2119,16 +2122,16 @@
     </row>
     <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>167</v>
+      <c r="C20" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>7</v>
@@ -2137,13 +2140,13 @@
         <v>312</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="J20" s="4">
         <v>1</v>
@@ -2154,31 +2157,31 @@
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>312</v>
+        <v>14</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J21" s="4">
         <v>1</v>
@@ -2189,16 +2192,16 @@
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>7</v>
@@ -2213,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
@@ -2224,31 +2227,31 @@
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>124</v>
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="J23" s="4">
         <v>1</v>
@@ -2259,16 +2262,16 @@
     </row>
     <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>126</v>
+      <c r="C24" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>7</v>
@@ -2277,13 +2280,13 @@
         <v>312</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>127</v>
+      <c r="I24" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="J24" s="4">
         <v>1</v>
@@ -2294,16 +2297,16 @@
     </row>
     <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B25" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>128</v>
+      <c r="C25" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>7</v>
@@ -2312,13 +2315,13 @@
         <v>312</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="J25" s="4">
         <v>1</v>
@@ -2329,16 +2332,16 @@
     </row>
     <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>7</v>
@@ -2347,13 +2350,13 @@
         <v>312</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="J26" s="4">
         <v>1</v>
@@ -2364,16 +2367,16 @@
     </row>
     <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>7</v>
@@ -2382,13 +2385,13 @@
         <v>312</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H27" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>169</v>
+        <v>322</v>
       </c>
       <c r="J27" s="4">
         <v>1</v>
@@ -2399,16 +2402,16 @@
     </row>
     <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>7</v>
@@ -2420,10 +2423,10 @@
         <v>19</v>
       </c>
       <c r="H28" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>322</v>
+        <v>136</v>
       </c>
       <c r="J28" s="4">
         <v>1</v>
@@ -2434,16 +2437,16 @@
     </row>
     <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>7</v>
@@ -2458,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="J29" s="4">
         <v>1</v>
@@ -2469,16 +2472,16 @@
     </row>
     <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>7</v>
@@ -2493,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="J30" s="4">
         <v>1</v>
@@ -2504,16 +2507,16 @@
     </row>
     <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>139</v>
+        <v>111</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>7</v>
@@ -2528,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="J31" s="4">
         <v>1</v>
@@ -2539,16 +2542,16 @@
     </row>
     <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B32" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>172</v>
+      <c r="C32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>7</v>
@@ -2563,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="J32" s="4">
         <v>1</v>
@@ -2574,16 +2577,16 @@
     </row>
     <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B33" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>65</v>
+      <c r="C33" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>7</v>
@@ -2598,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>140</v>
+        <v>311</v>
       </c>
       <c r="J33" s="4">
         <v>1</v>
@@ -2609,16 +2612,16 @@
     </row>
     <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>7</v>
@@ -2633,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>311</v>
+        <v>146</v>
       </c>
       <c r="J34" s="4">
         <v>1</v>
@@ -2644,7 +2647,7 @@
     </row>
     <row r="35" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B35" s="1" t="b">
         <v>1</v>
@@ -2653,7 +2656,7 @@
         <v>145</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>7</v>
@@ -2668,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J35" s="4">
         <v>1</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B36" s="1" t="b">
         <v>1</v>
@@ -2688,7 +2691,7 @@
         <v>145</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>7</v>
@@ -2703,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J36" s="4">
         <v>1</v>
@@ -2714,16 +2717,16 @@
     </row>
     <row r="37" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>7</v>
@@ -2738,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J37" s="4">
         <v>1</v>
@@ -2749,16 +2752,16 @@
     </row>
     <row r="38" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>7</v>
@@ -2773,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J38" s="4">
         <v>1</v>
@@ -2784,16 +2787,16 @@
     </row>
     <row r="39" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B39" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>154</v>
+      <c r="C39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>7</v>
@@ -2807,8 +2810,8 @@
       <c r="H39" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>155</v>
+      <c r="I39" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="J39" s="4">
         <v>1</v>
@@ -2819,16 +2822,16 @@
     </row>
     <row r="40" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B40" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>173</v>
+      <c r="C40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>7</v>
@@ -2842,8 +2845,8 @@
       <c r="H40" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>156</v>
+      <c r="I40" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J40" s="4">
         <v>1</v>
@@ -2854,16 +2857,16 @@
     </row>
     <row r="41" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>7</v>
@@ -2872,13 +2875,13 @@
         <v>312</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J41" s="4">
         <v>1</v>
@@ -2889,7 +2892,7 @@
     </row>
     <row r="42" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B42" s="1" t="b">
         <v>1</v>
@@ -2898,7 +2901,7 @@
         <v>145</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>7</v>
@@ -2907,13 +2910,13 @@
         <v>312</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J42" s="4">
         <v>1</v>
@@ -2924,16 +2927,16 @@
     </row>
     <row r="43" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>7</v>
@@ -2942,13 +2945,13 @@
         <v>312</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J43" s="4">
         <v>1</v>
@@ -2959,16 +2962,16 @@
     </row>
     <row r="44" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B44" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>165</v>
+      <c r="C44" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>7</v>
@@ -2977,13 +2980,13 @@
         <v>312</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H44" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="J44" s="4">
         <v>1</v>
@@ -2994,22 +2997,22 @@
     </row>
     <row r="45" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B45" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>19</v>
@@ -3018,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J45" s="4">
         <v>1</v>
@@ -3029,31 +3032,25 @@
     </row>
     <row r="46" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B46" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H46" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="J46" s="4">
         <v>1</v>
@@ -3064,31 +3061,25 @@
     </row>
     <row r="47" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>331</v>
+        <v>54</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>19</v>
+      <c r="F47" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="H47" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="J47" s="4">
         <v>1</v>
@@ -3099,31 +3090,25 @@
     </row>
     <row r="48" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="B48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>310</v>
+        <v>70</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" s="1">
-        <v>60</v>
       </c>
       <c r="J48" s="4">
         <v>1</v>
@@ -3134,22 +3119,22 @@
     </row>
     <row r="49" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B49" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>1</v>
@@ -3163,22 +3148,22 @@
     </row>
     <row r="50" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B50" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>313</v>
+      <c r="F50" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H50" s="1" t="b">
         <v>1</v>
@@ -3192,22 +3177,22 @@
     </row>
     <row r="51" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B51" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H51" s="1" t="b">
         <v>1</v>
@@ -3221,22 +3206,22 @@
     </row>
     <row r="52" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B52" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>21</v>
+        <v>323</v>
       </c>
       <c r="H52" s="1" t="b">
         <v>1</v>
@@ -3250,22 +3235,22 @@
     </row>
     <row r="53" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B53" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>1</v>
@@ -3279,22 +3264,22 @@
     </row>
     <row r="54" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B54" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="H54" s="1" t="b">
         <v>1</v>
@@ -3308,22 +3293,22 @@
     </row>
     <row r="55" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B55" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>323</v>
+        <v>25</v>
       </c>
       <c r="H55" s="1" t="b">
         <v>1</v>
@@ -3337,22 +3322,22 @@
     </row>
     <row r="56" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B56" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H56" s="1" t="b">
         <v>1</v>
@@ -3366,22 +3351,22 @@
     </row>
     <row r="57" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B57" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>324</v>
+        <v>185</v>
       </c>
       <c r="H57" s="1" t="b">
         <v>1</v>
@@ -3395,22 +3380,22 @@
     </row>
     <row r="58" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B58" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="H58" s="1" t="b">
         <v>1</v>
@@ -3424,22 +3409,22 @@
     </row>
     <row r="59" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="H59" s="1" t="b">
         <v>1</v>
@@ -3453,7 +3438,7 @@
     </row>
     <row r="60" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B60" s="1" t="b">
         <v>1</v>
@@ -3468,7 +3453,7 @@
         <v>7</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H60" s="1" t="b">
         <v>1</v>
@@ -3482,7 +3467,7 @@
     </row>
     <row r="61" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B61" s="1" t="b">
         <v>1</v>
@@ -3497,7 +3482,7 @@
         <v>7</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H61" s="1" t="b">
         <v>1</v>
@@ -3511,22 +3496,22 @@
     </row>
     <row r="62" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B62" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="H62" s="1" t="b">
         <v>1</v>
@@ -3540,22 +3525,22 @@
     </row>
     <row r="63" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="H63" s="1" t="b">
         <v>1</v>
@@ -3569,22 +3554,22 @@
     </row>
     <row r="64" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="H64" s="1" t="b">
         <v>1</v>
@@ -3598,22 +3583,22 @@
     </row>
     <row r="65" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B65" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>1</v>
@@ -3627,22 +3612,22 @@
     </row>
     <row r="66" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B66" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="H66" s="1" t="b">
         <v>1</v>
@@ -3656,22 +3641,22 @@
     </row>
     <row r="67" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B67" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H67" s="1" t="b">
         <v>1</v>
@@ -3685,22 +3670,22 @@
     </row>
     <row r="68" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B68" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>27</v>
+        <v>326</v>
       </c>
       <c r="H68" s="1" t="b">
         <v>1</v>
@@ -3714,22 +3699,22 @@
     </row>
     <row r="69" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B69" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="H69" s="1" t="b">
         <v>1</v>
@@ -3743,22 +3728,22 @@
     </row>
     <row r="70" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B70" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="H70" s="1" t="b">
         <v>1</v>
@@ -3772,22 +3757,22 @@
     </row>
     <row r="71" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>326</v>
+        <v>29</v>
       </c>
       <c r="H71" s="1" t="b">
         <v>1</v>
@@ -3801,7 +3786,7 @@
     </row>
     <row r="72" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B72" s="1" t="b">
         <v>1</v>
@@ -3816,7 +3801,7 @@
         <v>7</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H72" s="1" t="b">
         <v>1</v>
@@ -3830,7 +3815,7 @@
     </row>
     <row r="73" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B73" s="1" t="b">
         <v>1</v>
@@ -3845,7 +3830,7 @@
         <v>7</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>325</v>
+        <v>31</v>
       </c>
       <c r="H73" s="1" t="b">
         <v>1</v>
@@ -3859,7 +3844,7 @@
     </row>
     <row r="74" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B74" s="1" t="b">
         <v>1</v>
@@ -3874,7 +3859,7 @@
         <v>7</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H74" s="1" t="b">
         <v>1</v>
@@ -3888,7 +3873,7 @@
     </row>
     <row r="75" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B75" s="1" t="b">
         <v>1</v>
@@ -3903,7 +3888,7 @@
         <v>7</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>1</v>
@@ -3917,7 +3902,7 @@
     </row>
     <row r="76" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B76" s="1" t="b">
         <v>1</v>
@@ -3932,7 +3917,7 @@
         <v>7</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H76" s="1" t="b">
         <v>1</v>
@@ -3946,7 +3931,7 @@
     </row>
     <row r="77" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B77" s="1" t="b">
         <v>1</v>
@@ -3961,7 +3946,7 @@
         <v>7</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H77" s="1" t="b">
         <v>1</v>
@@ -3975,7 +3960,7 @@
     </row>
     <row r="78" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B78" s="1" t="b">
         <v>1</v>
@@ -3990,7 +3975,7 @@
         <v>7</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H78" s="1" t="b">
         <v>1</v>
@@ -4004,7 +3989,7 @@
     </row>
     <row r="79" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B79" s="1" t="b">
         <v>1</v>
@@ -4019,7 +4004,7 @@
         <v>7</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H79" s="1" t="b">
         <v>1</v>
@@ -4033,7 +4018,7 @@
     </row>
     <row r="80" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B80" s="1" t="b">
         <v>1</v>
@@ -4048,7 +4033,7 @@
         <v>7</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H80" s="1" t="b">
         <v>1</v>
@@ -4062,7 +4047,7 @@
     </row>
     <row r="81" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B81" s="1" t="b">
         <v>1</v>
@@ -4077,7 +4062,7 @@
         <v>7</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H81" s="1" t="b">
         <v>1</v>
@@ -4091,7 +4076,7 @@
     </row>
     <row r="82" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B82" s="1" t="b">
         <v>1</v>
@@ -4106,7 +4091,7 @@
         <v>7</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="H82" s="1" t="b">
         <v>1</v>
@@ -4120,22 +4105,22 @@
     </row>
     <row r="83" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B83" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="H83" s="1" t="b">
         <v>1</v>
@@ -4149,22 +4134,25 @@
     </row>
     <row r="84" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="B84" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>64</v>
+        <v>328</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>75</v>
+        <v>328</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>39</v>
+        <v>332</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="H84" s="1" t="b">
         <v>1</v>
@@ -4178,25 +4166,28 @@
     </row>
     <row r="85" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B85" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>75</v>
+        <v>306</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>60</v>
+      <c r="G85" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="J85" s="4">
         <v>1</v>
@@ -4207,25 +4198,31 @@
     </row>
     <row r="86" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="B86" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>178</v>
+        <v>312</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H86" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="J86" s="4">
         <v>1</v>
@@ -4236,16 +4233,16 @@
     </row>
     <row r="87" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>197</v>
+        <v>310</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>7</v>
@@ -4254,13 +4251,13 @@
         <v>312</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H87" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>199</v>
+        <v>1</v>
+      </c>
+      <c r="I87" s="1">
+        <v>60</v>
       </c>
       <c r="J87" s="4">
         <v>1</v>
@@ -4271,16 +4268,16 @@
     </row>
     <row r="88" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B88" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>7</v>
@@ -4292,10 +4289,10 @@
         <v>19</v>
       </c>
       <c r="H88" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J88" s="4">
         <v>1</v>
@@ -4306,16 +4303,16 @@
     </row>
     <row r="89" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B89" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>7</v>
@@ -4330,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J89" s="4">
         <v>1</v>
@@ -4341,16 +4338,16 @@
     </row>
     <row r="90" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B90" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>7</v>
@@ -4365,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="J90" s="4">
         <v>1</v>
@@ -4376,16 +4373,16 @@
     </row>
     <row r="91" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>7</v>
@@ -4400,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="J91" s="4">
         <v>1</v>
@@ -4411,22 +4408,22 @@
     </row>
     <row r="92" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>19</v>
@@ -4434,8 +4431,8 @@
       <c r="H92" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I92" s="3" t="s">
-        <v>156</v>
+      <c r="I92" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="J92" s="4">
         <v>1</v>
@@ -4446,22 +4443,22 @@
     </row>
     <row r="93" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>19</v>
@@ -4469,8 +4466,8 @@
       <c r="H93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I93" s="1" t="s">
-        <v>208</v>
+      <c r="I93" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="J93" s="4">
         <v>1</v>
@@ -4481,16 +4478,16 @@
     </row>
     <row r="94" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>7</v>
@@ -4502,10 +4499,10 @@
         <v>19</v>
       </c>
       <c r="H94" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="J94" s="4">
         <v>1</v>
@@ -4516,28 +4513,31 @@
     </row>
     <row r="95" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="B95" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>328</v>
+        <v>195</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>328</v>
+        <v>197</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H95" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="J95" s="4">
         <v>1</v>
@@ -4548,8 +4548,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K94" xr:uid="{A50919DD-FCD4-4CE1-AF55-E89DDE6AC166}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K94">
-      <sortCondition ref="A1:A94"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K95">
+      <sortCondition descending="1" ref="B1:B94"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:B1048576">
@@ -4568,43 +4568,43 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{EA26E342-75A7-48B3-A42C-62E2CFCAE2B6}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{035DA60F-453B-48C8-A2B8-297CB440AC8D}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{B64A68BC-CF2A-4451-925B-CA6552EBC253}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{2A93221F-1638-4ECC-8D24-8E1BFCEAB2D3}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{56B91698-2EA9-438B-99D9-8C7B71FE6AB7}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{952AB7DC-4F1A-435F-BB09-1BF2B747833E}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{559C04AB-0F25-4A99-8990-C756F419EB58}"/>
-    <hyperlink ref="C11" r:id="rId8" location="numbers-in-dates" xr:uid="{F1C51ECF-0C1C-4C86-A5DE-04EB8F953845}"/>
-    <hyperlink ref="C12" r:id="rId9" location="numbers-in-dates" xr:uid="{1B949DAF-3250-4EE4-8D1E-5DB7FD1E7D12}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{A8378D11-9579-4ADA-8CC9-77602770DA99}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{F05CD4AF-71E6-4909-B302-6389EFA40919}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{94890238-61B9-4182-86AA-2436C91E0AD7}"/>
-    <hyperlink ref="C16" r:id="rId13" xr:uid="{1757118C-BE7B-4A03-8F3A-F06EB77B08BC}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{AA2DE4F9-7EE2-4758-A2C6-7D2A90C9FF6F}"/>
-    <hyperlink ref="C19" r:id="rId15" xr:uid="{25B7FC0C-CEE1-45A9-B3B6-08AD8182A9D8}"/>
-    <hyperlink ref="C21" r:id="rId16" xr:uid="{869D1379-B47C-401B-A2D7-AB51DF7ECA04}"/>
-    <hyperlink ref="C22" r:id="rId17" xr:uid="{989F8BBD-1313-458E-9D38-43441D064B5E}"/>
-    <hyperlink ref="C23" r:id="rId18" location="be-careful-with-acronyms-in-titles-and-headings" xr:uid="{AD7597E2-E554-4E96-AF9E-2C807AE80400}"/>
-    <hyperlink ref="C24" r:id="rId19" xr:uid="{21DB0144-C5FD-478C-9290-FFFE51E67B82}"/>
-    <hyperlink ref="I24" r:id="rId20" xr:uid="{1CB13DD6-76C5-472E-8227-AFF9B1CE6CB3}"/>
-    <hyperlink ref="C26" r:id="rId21" location="pronouns-and-gender" xr:uid="{84ED7D64-0227-4BE4-A9FA-A6CFCBDD0BA0}"/>
-    <hyperlink ref="C27" r:id="rId22" xr:uid="{0E0E23A2-7EA3-43F8-947F-293115E80798}"/>
-    <hyperlink ref="C28" r:id="rId23" xr:uid="{28472EA9-7C3C-463F-89F9-66BBF150480F}"/>
-    <hyperlink ref="C29" r:id="rId24" xr:uid="{8A279A3D-261F-47E9-B024-7853A46614B4}"/>
-    <hyperlink ref="C30" r:id="rId25" location="avoid-first-person-plural" xr:uid="{B86A2674-0276-40F6-9194-E68EAB33E4EA}"/>
-    <hyperlink ref="C31" r:id="rId26" xr:uid="{C096B5C4-44B8-4817-B405-D4B63CFCB82B}"/>
-    <hyperlink ref="C32" r:id="rId27" xr:uid="{454E03CE-86D7-4CC5-B8EC-E4721B025F80}"/>
-    <hyperlink ref="C34" r:id="rId28" xr:uid="{BE9CE20B-33FD-4C4A-8717-B88D1F3A220F}"/>
-    <hyperlink ref="C35" r:id="rId29" xr:uid="{92C9E74C-AA5B-4747-B22B-E92C2ACD2F3B}"/>
-    <hyperlink ref="C36" r:id="rId30" xr:uid="{6E1887A8-D1E0-40E5-9EE6-371996BAA873}"/>
-    <hyperlink ref="C37" r:id="rId31" xr:uid="{37149DFC-5566-4704-AA97-4C19EB80A60D}"/>
-    <hyperlink ref="C38" r:id="rId32" xr:uid="{A7A42940-77BF-49F3-A66A-478EF5DEEECB}"/>
-    <hyperlink ref="C39" r:id="rId33" xr:uid="{ADCB8406-CBFF-47A2-8364-00312B6EB732}"/>
-    <hyperlink ref="C41" r:id="rId34" xr:uid="{C975BDAE-57C3-4B60-B13E-2F62F4159789}"/>
-    <hyperlink ref="C42" r:id="rId35" xr:uid="{0E220387-53C8-4888-BEAD-89E470E7574E}"/>
-    <hyperlink ref="C43" r:id="rId36" xr:uid="{973AE3ED-0C35-4BB8-8E8E-723687FBCA19}"/>
-    <hyperlink ref="C44" r:id="rId37" xr:uid="{02E0EB4F-0934-4976-8A69-B6EBAFA02593}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{EA26E342-75A7-48B3-A42C-62E2CFCAE2B6}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{035DA60F-453B-48C8-A2B8-297CB440AC8D}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{B64A68BC-CF2A-4451-925B-CA6552EBC253}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{2A93221F-1638-4ECC-8D24-8E1BFCEAB2D3}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{56B91698-2EA9-438B-99D9-8C7B71FE6AB7}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{952AB7DC-4F1A-435F-BB09-1BF2B747833E}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{559C04AB-0F25-4A99-8990-C756F419EB58}"/>
+    <hyperlink ref="C10" r:id="rId8" location="numbers-in-dates" xr:uid="{F1C51ECF-0C1C-4C86-A5DE-04EB8F953845}"/>
+    <hyperlink ref="C11" r:id="rId9" location="numbers-in-dates" xr:uid="{1B949DAF-3250-4EE4-8D1E-5DB7FD1E7D12}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{A8378D11-9579-4ADA-8CC9-77602770DA99}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{F05CD4AF-71E6-4909-B302-6389EFA40919}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{94890238-61B9-4182-86AA-2436C91E0AD7}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{1757118C-BE7B-4A03-8F3A-F06EB77B08BC}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{AA2DE4F9-7EE2-4758-A2C6-7D2A90C9FF6F}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{25B7FC0C-CEE1-45A9-B3B6-08AD8182A9D8}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{869D1379-B47C-401B-A2D7-AB51DF7ECA04}"/>
+    <hyperlink ref="C21" r:id="rId17" xr:uid="{989F8BBD-1313-458E-9D38-43441D064B5E}"/>
+    <hyperlink ref="C22" r:id="rId18" location="be-careful-with-acronyms-in-titles-and-headings" xr:uid="{AD7597E2-E554-4E96-AF9E-2C807AE80400}"/>
+    <hyperlink ref="C23" r:id="rId19" xr:uid="{21DB0144-C5FD-478C-9290-FFFE51E67B82}"/>
+    <hyperlink ref="I23" r:id="rId20" xr:uid="{1CB13DD6-76C5-472E-8227-AFF9B1CE6CB3}"/>
+    <hyperlink ref="C25" r:id="rId21" location="pronouns-and-gender" xr:uid="{84ED7D64-0227-4BE4-A9FA-A6CFCBDD0BA0}"/>
+    <hyperlink ref="C26" r:id="rId22" xr:uid="{0E0E23A2-7EA3-43F8-947F-293115E80798}"/>
+    <hyperlink ref="C27" r:id="rId23" xr:uid="{28472EA9-7C3C-463F-89F9-66BBF150480F}"/>
+    <hyperlink ref="C28" r:id="rId24" xr:uid="{8A279A3D-261F-47E9-B024-7853A46614B4}"/>
+    <hyperlink ref="C29" r:id="rId25" location="avoid-first-person-plural" xr:uid="{B86A2674-0276-40F6-9194-E68EAB33E4EA}"/>
+    <hyperlink ref="C30" r:id="rId26" xr:uid="{C096B5C4-44B8-4817-B405-D4B63CFCB82B}"/>
+    <hyperlink ref="C31" r:id="rId27" xr:uid="{454E03CE-86D7-4CC5-B8EC-E4721B025F80}"/>
+    <hyperlink ref="C33" r:id="rId28" xr:uid="{BE9CE20B-33FD-4C4A-8717-B88D1F3A220F}"/>
+    <hyperlink ref="C34" r:id="rId29" xr:uid="{92C9E74C-AA5B-4747-B22B-E92C2ACD2F3B}"/>
+    <hyperlink ref="C35" r:id="rId30" xr:uid="{6E1887A8-D1E0-40E5-9EE6-371996BAA873}"/>
+    <hyperlink ref="C36" r:id="rId31" xr:uid="{37149DFC-5566-4704-AA97-4C19EB80A60D}"/>
+    <hyperlink ref="C37" r:id="rId32" xr:uid="{A7A42940-77BF-49F3-A66A-478EF5DEEECB}"/>
+    <hyperlink ref="C38" r:id="rId33" xr:uid="{ADCB8406-CBFF-47A2-8364-00312B6EB732}"/>
+    <hyperlink ref="C40" r:id="rId34" xr:uid="{C975BDAE-57C3-4B60-B13E-2F62F4159789}"/>
+    <hyperlink ref="C41" r:id="rId35" xr:uid="{0E220387-53C8-4888-BEAD-89E470E7574E}"/>
+    <hyperlink ref="C42" r:id="rId36" xr:uid="{973AE3ED-0C35-4BB8-8E8E-723687FBCA19}"/>
+    <hyperlink ref="C43" r:id="rId37" xr:uid="{02E0EB4F-0934-4976-8A69-B6EBAFA02593}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>

--- a/RuleTemplate.xlsx
+++ b/RuleTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattias\source\repos\MadQualityPluginII\MadQualityPluginII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B9AE69-3676-4C2C-A769-1777075D4949}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36533FB0-E583-4775-B489-D423AF116600}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
   </bookViews>
@@ -1438,15 +1438,15 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="67.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51.140625" style="1" bestFit="1" customWidth="1"/>

--- a/RuleTemplate.xlsx
+++ b/RuleTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattias\source\repos\MadQualityPluginII\MadQualityPluginII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36533FB0-E583-4775-B489-D423AF116600}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A9F059-5CC0-4FA4-ACF4-A77A7428FF6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="ZZ_DataTab_ZZ" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$1:$K$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$1:$K$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="436">
   <si>
     <t>Name</t>
   </si>
@@ -160,9 +160,6 @@
     <t>td:empty</t>
   </si>
   <si>
-    <t>\.(\s+){0,}\.</t>
-  </si>
-  <si>
     <t>\b(\w+)\s+\1\b</t>
   </si>
   <si>
@@ -298,9 +295,6 @@
     <t>Don't use language (such as '%s') that defines people by their disability.</t>
   </si>
   <si>
-    <t>Consider removing '%s'.</t>
-  </si>
-  <si>
     <t>https://docs.microsoft.com/en-us/style-guide/word-choice/use-simple-words-concise-sentences</t>
   </si>
   <si>
@@ -346,9 +340,6 @@
     <t>Don't use ordinal numbers for dates.</t>
   </si>
   <si>
-    <t>\b(?:Jan(?:uary)?|Feb(?:ruary)?|Mar(?:ch)?|Apr(?:il)?|May|Jun(?:e)?|Jul(?:y)?|Aug(?:ust)?|Sep(?:tember)?|Oct(?:ober)?|Nov(?:ember)?|Dec(?:ember)?)\b\s(\bfirst\b|\bsecond\b|\bthird\b|\bfourth\b|\bfifth\b|\bsixth\b|\bseventh\b|\beighth\b|\bninth\b|\btenth\b|\beleventh\b|\btwelfth\b|\bthirteenth\b|\bfourteenth\b|\bfifteenth\b|\bsixteenth\b|\bseventeenth\b|\beighteenth\b|\bnineteenth\b|\btwentieth\b|\btwenty\-first\b|\btwenty\-second\b|\btwenty\-third\b|\btwenty\-fourth\b|\btwenty\-fifth\b|\btwenty\-sixth\b|\btwenty\-seventh\b|\btwenty\-eighth\b|\btwenty\-ninth\b|\bthirtieth\b|\bthirty\-first\b|)[^\d]</t>
-  </si>
-  <si>
     <t>Use 'July 31, 2016' format, not '%s</t>
   </si>
   <si>
@@ -388,9 +379,6 @@
     <t>https://docs.microsoft.com/en-us/style-guide/a-z-word-list-term-collections/term-collections/units-of-measure-terms</t>
   </si>
   <si>
-    <t>Prefer '%t' over '%s'.</t>
-  </si>
-  <si>
     <t>\w+- and \w+-</t>
   </si>
   <si>
@@ -412,9 +400,6 @@
     <t>https://docs.microsoft.com/en-us/style-guide/acronyms#be-careful-with-acronyms-in-titles-and-headings</t>
   </si>
   <si>
-    <t>[A-Z]{2,4}</t>
-  </si>
-  <si>
     <t>For a general audience, use 'address' rather than 'URL'.</t>
   </si>
   <si>
@@ -466,9 +451,6 @@
     <t>Try to keep sentences short (&lt; 30 words).</t>
   </si>
   <si>
-    <t>Try to simplify this sentence.</t>
-  </si>
-  <si>
     <t>https://docs.microsoft.com/en-us/style-guide/punctuation/semicolons</t>
   </si>
   <si>
@@ -481,15 +463,6 @@
     <t>\d(AM|PM)\s?[-–]\s?.+(AM|PM)</t>
   </si>
   <si>
-    <t>In most cases, use 'from' or 'through' to describe a range of numbers.</t>
-  </si>
-  <si>
-    <t>Use an en dash in a range of numbers.</t>
-  </si>
-  <si>
-    <t>\b\d+\s?[-]\s?\d+\b</t>
-  </si>
-  <si>
     <t>\b\d+\s?[-–]\s?\d+\b</t>
   </si>
   <si>
@@ -502,9 +475,6 @@
     <t>["“][^"”“]+["”][.,]</t>
   </si>
   <si>
-    <t>Use a numeral plus the units.</t>
-  </si>
-  <si>
     <t>\b[a-zA-z]+\spercent\b</t>
   </si>
   <si>
@@ -544,9 +514,6 @@
     <t>Word choice</t>
   </si>
   <si>
-    <t>Avoid using hard-coded styles (b, i, u)</t>
-  </si>
-  <si>
     <t>\b(eg|e\.g\.)[\s]:for example,\b(ie|i\.e\.)[\s]:that is</t>
   </si>
   <si>
@@ -643,9 +610,6 @@
     <t>Clichés</t>
   </si>
   <si>
-    <t>Try to avoid using clichés like '%s'</t>
-  </si>
-  <si>
     <t>E-Prime</t>
   </si>
   <si>
@@ -679,9 +643,6 @@
     <t>"%s" is too wordy.</t>
   </si>
   <si>
-    <t>"%s" is repeated</t>
-  </si>
-  <si>
     <t>MS-20210413120528</t>
   </si>
   <si>
@@ -781,9 +742,6 @@
     <t>MS-20210413120615</t>
   </si>
   <si>
-    <t>MS-20210413120616</t>
-  </si>
-  <si>
     <t>MS-20210413120621</t>
   </si>
   <si>
@@ -982,9 +940,6 @@
     <t>h1:nth-of-type(2)</t>
   </si>
   <si>
-    <t>[^\.\:\?\!]$</t>
-  </si>
-  <si>
     <t>Zero width space</t>
   </si>
   <si>
@@ -1006,9 +961,6 @@
     <t>[a-z][.?!](?:\s|)</t>
   </si>
   <si>
-    <t>((|\s)I\s)|((^|\s)I,\s)|(\bI'd\b)|(\bI'll\b)|(\bI'm\b)|(\bI've\b)|(\bme\b)|(\bmy\b)|(\bmine\b)</t>
-  </si>
-  <si>
     <t>p:has(MadCap:dropDown)</t>
   </si>
   <si>
@@ -1037,6 +989,364 @@
   </si>
   <si>
     <t>body:has(h1)</t>
+  </si>
+  <si>
+    <t>*.htm,*.html</t>
+  </si>
+  <si>
+    <t>\w+[^\.]\.\.[^\.]</t>
+  </si>
+  <si>
+    <t>(\bI\b)|(\bI'd\b)|(\bI'll\b)|(\bI'm\b)|(\bI've\b)|(\bme\b)|(\bmy\b)|(\bmine\b)</t>
+  </si>
+  <si>
+    <t>G-20210510172651</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/abbreviations</t>
+  </si>
+  <si>
+    <t>Spell out '%s', if it's unfamiliar to the audience.</t>
+  </si>
+  <si>
+    <t>G-20210510173309</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/word-list</t>
+  </si>
+  <si>
+    <t>G-20210510173405</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/colons</t>
+  </si>
+  <si>
+    <t>"%s" should be in lowercase.</t>
+  </si>
+  <si>
+    <t>:\s[A-Z]</t>
+  </si>
+  <si>
+    <t>G-20210510173446</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/contractions</t>
+  </si>
+  <si>
+    <t>Feel free to use '%t' instead of '%s'.</t>
+  </si>
+  <si>
+    <t>G-20210510173616</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/dates-times</t>
+  </si>
+  <si>
+    <t>Use 'July 31, 2016' format, not '%s'.</t>
+  </si>
+  <si>
+    <t>(\d{1,2} (Jan(uary)?|Feb(ruary)?|Mar(ch)?|Apr(il)?|May|Jun(e)?|Jul(y)?|Aug(ust)?|Sep(tember)?|Oct(ober)?|Nov(ember)?|Dec(ember)?) \d{4})|(\d{1,2}(?:\.|\/)\d{1,2}(?:\.|\/)\d{4})</t>
+  </si>
+  <si>
+    <t>G-20210510174332</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/ellipses</t>
+  </si>
+  <si>
+    <t>G-20210511095737</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/dashes</t>
+  </si>
+  <si>
+    <t>Don't put a space before or after a dash.</t>
+  </si>
+  <si>
+    <t>\s[—–]\s</t>
+  </si>
+  <si>
+    <t>G-20210511100016</t>
+  </si>
+  <si>
+    <t>Use an em dash ('—') instead of '–'.</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>G-20210511100018</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/exclamation-points</t>
+  </si>
+  <si>
+    <t>Don't use exclamation points in text.</t>
+  </si>
+  <si>
+    <t>\w!(?:\s|$)</t>
+  </si>
+  <si>
+    <t>G-20210511100046</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/pronouns#personal-pronouns</t>
+  </si>
+  <si>
+    <t>Avoid first-person pronouns such as '%s'.</t>
+  </si>
+  <si>
+    <t>G-20210511100213</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/pronouns#gender-neutral-pronouns</t>
+  </si>
+  <si>
+    <t>Don't use '%s' as a gender-neutral pronoun.</t>
+  </si>
+  <si>
+    <t>G-20210511100249</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/inclusive-documentation</t>
+  </si>
+  <si>
+    <t>G-20210511100426</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/capitalization#capitalization-in-titles-and-headings</t>
+  </si>
+  <si>
+    <t>Don't put a period at the end of a heading.</t>
+  </si>
+  <si>
+    <t>[a-z0-9][.](?:\s|$)</t>
+  </si>
+  <si>
+    <t>G-20210515105153</t>
+  </si>
+  <si>
+    <t>G-20210515105301</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/hyphens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '%s' doesn't need a hyphen.</t>
+  </si>
+  <si>
+    <t>\w+ly-</t>
+  </si>
+  <si>
+    <t>G-20210515105259</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/plurals-parentheses</t>
+  </si>
+  <si>
+    <t>Don't use plurals in parentheses such as in '%s'.</t>
+  </si>
+  <si>
+    <t>\b\w+\(s\)</t>
+  </si>
+  <si>
+    <t>G-20210515105330</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/numbers</t>
+  </si>
+  <si>
+    <t>Spell out all ordinal numbers ('%s') in text.</t>
+  </si>
+  <si>
+    <t>\d+(?:st|nd|rd|th)</t>
+  </si>
+  <si>
+    <t>G-20210515105440</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/commas</t>
+  </si>
+  <si>
+    <t>(?:[^,]+,){1,}\s\w+\s(?:and|or)</t>
+  </si>
+  <si>
+    <t>G-20210515105504</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/parentheses</t>
+  </si>
+  <si>
+    <t>Use parentheses judiciously.</t>
+  </si>
+  <si>
+    <t>\(.+\)</t>
+  </si>
+  <si>
+    <t>G-20210515105559</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/voice</t>
+  </si>
+  <si>
+    <t>In general, use active voice instead of passive voice ('%s').</t>
+  </si>
+  <si>
+    <t>G-20210515105629</t>
+  </si>
+  <si>
+    <t>Don't use periods with acronyms or initialisms such as '%s'.</t>
+  </si>
+  <si>
+    <t>\b(?:[A-Z]\.){3,}</t>
+  </si>
+  <si>
+    <t>G-20210515105655</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/quotation-marks</t>
+  </si>
+  <si>
+    <t>Commas and periods go inside quotation marks.</t>
+  </si>
+  <si>
+    <t>G-20210515105722</t>
+  </si>
+  <si>
+    <t>Don't add words such as 'from' or 'between' to describe a range of numbers.</t>
+  </si>
+  <si>
+    <t>(?:from|between)\s\d+\s?-\s?\d+</t>
+  </si>
+  <si>
+    <t>G-20210515105748</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/semicolons</t>
+  </si>
+  <si>
+    <t>Use semicolons judiciously.</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>G-20210515105916</t>
+  </si>
+  <si>
+    <t>Don't use internet slang abbreviations such as '%s'.</t>
+  </si>
+  <si>
+    <t>tl;dr,ymmv,rtfm,imo,fwiw</t>
+  </si>
+  <si>
+    <t>G-20210515110045</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/sentence-spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '%s' should have one space.</t>
+  </si>
+  <si>
+    <t>(\w+\.\s{2,})|(\w+\.\S)</t>
+  </si>
+  <si>
+    <t>G-20210515110129</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/spelling</t>
+  </si>
+  <si>
+    <t>In general, use American spelling instead of '%s'.</t>
+  </si>
+  <si>
+    <t>((?:\w+)nised?)|((?:\w+)logue)</t>
+  </si>
+  <si>
+    <t>G-20210515110336</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/units-of-measure</t>
+  </si>
+  <si>
+    <t>Put a nonbreaking space between the number and the unit in '%s'.</t>
+  </si>
+  <si>
+    <t>(\d+(?:B|kB|MB|GB|TB))|(\d+(?:ns|ms|s|min|h|d))</t>
+  </si>
+  <si>
+    <t>G-20210515110338</t>
+  </si>
+  <si>
+    <t>G-20210515110438</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/style/tense</t>
+  </si>
+  <si>
+    <t>Avoid using '%s'.</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>G-20210515110437</t>
+  </si>
+  <si>
+    <t>(API Console|dev|developer) key:API key,(cell ?phone|smart ?phone):phone|mobile phone,(dev|developer|APIs) console:API console,(e-mail|Email|E-mail):email,(file ?path|path ?name):path,(kill|terminate|abort):stop|exit|cancel|end,(OAuth ?2|Oauth):OAuth 2.0,(ok|Okay):OK|okay,(WiFi|wifi):Wi-Fi,[.]+apk:APK,3\-D':3D,Google (I\-O|IO)':Google I/O,tap (&amp;|and) hold':touch &amp; hold,un(check|select)':clear,above:preceding,account name:username,action bar:app bar,admin:administrator,Ajax:AJAX,Android device:Android-powered device,android:Android,API explorer:APIs Explorer,application:app,approx\.:approximately,authN:authentication,authZ:authorization,autoupdate:automatically update,cellular data:mobile data,cellular network:mobile network,chapter:documents|pages|sections,check box:checkbox,check:select,CLI:command-line tool,click on:click|click in,Cloud:Google Cloud Platform|GCP,Container Engine:Kubernetes Engine,content type:media type,curated roles:predefined roles,data are:data is,Developers Console:Google API Console|API Console,disabledturn off|off,ephemeral IP address:ephemeral external IP address,fewer data:less data,file name:filename,firewalls:firewall rules,functionality:capability|feature,Google account:Google Account,Google accounts:Google Accounts,Googling:search with Google,grayed-out:unavailable,HTTPs:HTTPS,in order to:to,ingest:import|load,k8s:Kubernetes,long press:touch &amp; hold,network IP address:internal IP address,omnibox:address bar,open-source:open source,overview screen:recents screen,regex:regular expression,SHA1:SHA-1|HAS-SHA1,sign into:sign in to,sign-?on:single sign-on,static IP address:static external IP address,stylesheet:style sheet,synch:sync,tablename:table name,tablet:device,touch:tap,url:URL,vs\.:versus,World Wide Web:web</t>
+  </si>
+  <si>
+    <t>[^\.\d][^\.\:\?\!]$</t>
+  </si>
+  <si>
+    <t>\b(\w+)\s+\1[^\-\.\:]\b</t>
+  </si>
+  <si>
+    <t>(\b[Ww]e\'(ve|re)\b)|(\b[Oo]urs\b)|(\b[Uu]s\b)|(\b[Ll]et's\b)|(\b[Ww]e\b)</t>
+  </si>
+  <si>
+    <t>Consider removing '%s', or verifying it with the A-Z word list.</t>
+  </si>
+  <si>
+    <t>Don't use '%s'. For reference, see the A-Z word list.</t>
+  </si>
+  <si>
+    <t>\b(?:Jan(?:uary)?|Feb(?:ruary)?|Mar(?:ch)?|Apr(?:il)?|May|Jun(?:e)?|Jul(?:y)?|Aug(?:ust)?|Sep(?:tember)?|Oct(?:ober)?|Nov(?:ember)?|Dec(?:ember)?)\b\s(\bfirst\b|\bsecond\b|\bthird\b|\bfourth\b|\bfifth\b|\bsixth\b|\bseventh\b|\beighth\b|\bninth\b|\btenth\b|\beleventh\b|\btwelfth\b|\bthirteenth\b|\bfourteenth\b|\bfifteenth\b|\bsixteenth\b|\bseventeenth\b|\beighteenth\b|\bnineteenth\b|\btwentieth\b|\btwenty\-first\b|\btwenty\-second\b|\btwenty\-third\b|\btwenty\-fourth\b|\btwenty\-fifth\b|\btwenty\-sixth\b|\btwenty\-seventh\b|\btwenty\-eighth\b|\btwenty\-ninth\b|\bthirtieth\b|\bthirty\-first\b|\b\d{1,}(th|rd|st)\b)</t>
+  </si>
+  <si>
+    <t>Prefer '%t' over '%s'. For reference, see the A-Z word list.</t>
+  </si>
+  <si>
+    <t>[A-Z]{2,5}</t>
+  </si>
+  <si>
+    <t>(\.\.\.)|(\u2026)</t>
+  </si>
+  <si>
+    <t>In most cases, use 'from' or 'through' to describe a range of numbers, but use an en dash in a range of pages or where space is an issue, such as in tables and UI. For example, 2016–2020 and pages 112–120.
+Use to in a range of times. For example, 10:00 AM to 2:00 PM.</t>
+  </si>
+  <si>
+    <t>Consider using the Oxford comma in '%s'.</t>
+  </si>
+  <si>
+    <t>Use a numeral plus "percent".</t>
+  </si>
+  <si>
+    <t>Avoid using hard-coded styles (b, i, u).</t>
+  </si>
+  <si>
+    <t>Consider unbinding the span wrapped in a span.</t>
+  </si>
+  <si>
+    <t>Try to avoid using clichés like '%s'.</t>
+  </si>
+  <si>
+    <t>"%s" is repeated.</t>
+  </si>
+  <si>
+    <t>Try to simplify this sentence to avoid the semicolon.</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1112,12 +1422,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1435,26 +1767,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941985CF-04CD-4A25-AEA0-9F14647804DD}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="67.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="4"/>
-    <col min="8" max="8" width="18.140625" style="1"/>
-    <col min="9" max="9" width="66" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="4"/>
-    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="129.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="18.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1463,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -1495,54 +1827,54 @@
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>19</v>
@@ -1551,33 +1883,33 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="J3" s="4">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
+        <v>422</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>19</v>
@@ -1586,33 +1918,33 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="J4" s="4">
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
@@ -1621,33 +1953,33 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>19</v>
@@ -1656,68 +1988,68 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="J6" s="4">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="J7" s="4">
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>423</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>19</v>
@@ -1726,33 +2058,33 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>12</v>
@@ -1761,68 +2093,68 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J9" s="4">
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="J10" s="4">
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>19</v>
@@ -1831,33 +2163,33 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>102</v>
+        <v>424</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>19</v>
@@ -1866,33 +2198,33 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>19</v>
@@ -1901,33 +2233,33 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>12</v>
@@ -1936,33 +2268,33 @@
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>19</v>
@@ -1971,27 +2303,27 @@
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>7</v>
@@ -2006,33 +2338,33 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>12</v>
@@ -2041,33 +2373,33 @@
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B18" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>19</v>
@@ -2076,33 +2408,33 @@
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>425</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>12</v>
@@ -2111,33 +2443,33 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="J19" s="4">
         <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>19</v>
@@ -2146,27 +2478,27 @@
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J20" s="4">
         <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>7</v>
@@ -2181,27 +2513,27 @@
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J21" s="4">
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>7</v>
@@ -2216,33 +2548,33 @@
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>124</v>
+        <v>426</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>11</v>
@@ -2251,33 +2583,33 @@
         <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J23" s="4">
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>12</v>
@@ -2286,33 +2618,33 @@
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="J24" s="4">
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>19</v>
@@ -2321,33 +2653,33 @@
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="J25" s="4">
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>12</v>
@@ -2356,33 +2688,33 @@
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="J26" s="4">
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>19</v>
@@ -2391,33 +2723,33 @@
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J27" s="4">
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>19</v>
@@ -2426,68 +2758,68 @@
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>136</v>
+        <v>427</v>
       </c>
       <c r="J28" s="4">
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H29" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>170</v>
+        <v>421</v>
       </c>
       <c r="J29" s="4">
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>19</v>
@@ -2496,33 +2828,33 @@
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="J30" s="4">
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>19</v>
@@ -2531,33 +2863,33 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="J31" s="4">
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>19</v>
@@ -2566,33 +2898,33 @@
         <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J32" s="4">
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>142</v>
+        <v>435</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>19</v>
@@ -2601,33 +2933,33 @@
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="J33" s="4">
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>19</v>
@@ -2636,33 +2968,33 @@
         <v>1</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J34" s="4">
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>147</v>
+        <v>428</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>19</v>
@@ -2671,33 +3003,33 @@
         <v>1</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J35" s="4">
         <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>19</v>
@@ -2706,33 +3038,33 @@
         <v>1</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J36" s="4">
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>151</v>
+        <v>430</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>19</v>
@@ -2741,33 +3073,33 @@
         <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J37" s="4">
         <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B38" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>154</v>
+      <c r="C38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>19</v>
@@ -2775,34 +3107,34 @@
       <c r="H38" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>155</v>
+      <c r="I38" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="J38" s="4">
         <v>1</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B39" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>173</v>
+      <c r="C39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>19</v>
@@ -2810,174 +3142,174 @@
       <c r="H39" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>156</v>
+      <c r="I39" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="J39" s="4">
         <v>1</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J40" s="4">
         <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J41" s="4">
         <v>1</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B42" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J42" s="4">
         <v>1</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B43" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>165</v>
+      <c r="C43" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="J43" s="4">
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B44" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>19</v>
@@ -2986,53 +3318,47 @@
         <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>40</v>
+        <v>420</v>
       </c>
       <c r="J44" s="4">
         <v>1</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B45" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H45" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J45" s="4">
         <v>1</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B46" s="1" t="b">
         <v>1</v>
@@ -3041,13 +3367,13 @@
         <v>52</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>18</v>
+      <c r="F46" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="H46" s="1" t="b">
         <v>1</v>
@@ -3056,27 +3382,27 @@
         <v>1</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>313</v>
+      <c r="F47" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="H47" s="1" t="b">
         <v>1</v>
@@ -3085,27 +3411,27 @@
         <v>1</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B48" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>1</v>
@@ -3114,12 +3440,12 @@
         <v>1</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B49" s="1" t="b">
         <v>1</v>
@@ -3134,7 +3460,7 @@
         <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>1</v>
@@ -3143,27 +3469,27 @@
         <v>1</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B50" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H50" s="1" t="b">
         <v>1</v>
@@ -3172,27 +3498,27 @@
         <v>1</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B51" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>23</v>
+        <v>307</v>
       </c>
       <c r="H51" s="1" t="b">
         <v>1</v>
@@ -3201,27 +3527,27 @@
         <v>1</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B52" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>323</v>
+        <v>24</v>
       </c>
       <c r="H52" s="1" t="b">
         <v>1</v>
@@ -3230,27 +3556,27 @@
         <v>1</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B53" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>1</v>
@@ -3259,27 +3585,27 @@
         <v>1</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B54" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="H54" s="1" t="b">
         <v>1</v>
@@ -3288,27 +3614,27 @@
         <v>1</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B55" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H55" s="1" t="b">
         <v>1</v>
@@ -3317,27 +3643,27 @@
         <v>1</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B56" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="H56" s="1" t="b">
         <v>1</v>
@@ -3346,27 +3672,27 @@
         <v>1</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B57" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H57" s="1" t="b">
         <v>1</v>
@@ -3375,27 +3701,27 @@
         <v>1</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B58" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H58" s="1" t="b">
         <v>1</v>
@@ -3404,27 +3730,27 @@
         <v>1</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H59" s="1" t="b">
         <v>1</v>
@@ -3433,27 +3759,27 @@
         <v>1</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B60" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H60" s="1" t="b">
         <v>1</v>
@@ -3462,12 +3788,12 @@
         <v>1</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B61" s="1" t="b">
         <v>1</v>
@@ -3482,7 +3808,7 @@
         <v>7</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="H61" s="1" t="b">
         <v>1</v>
@@ -3491,12 +3817,12 @@
         <v>1</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B62" s="1" t="b">
         <v>1</v>
@@ -3505,13 +3831,13 @@
         <v>67</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H62" s="1" t="b">
         <v>1</v>
@@ -3520,18 +3846,18 @@
         <v>1</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>78</v>
@@ -3540,7 +3866,7 @@
         <v>7</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H63" s="1" t="b">
         <v>1</v>
@@ -3549,27 +3875,27 @@
         <v>1</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H64" s="1" t="b">
         <v>1</v>
@@ -3578,27 +3904,27 @@
         <v>1</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B65" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>1</v>
@@ -3607,27 +3933,27 @@
         <v>1</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="B66" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>50</v>
+        <v>431</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H66" s="1" t="b">
         <v>1</v>
@@ -3636,27 +3962,27 @@
         <v>1</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B67" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E67" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>17</v>
+        <v>310</v>
       </c>
       <c r="H67" s="1" t="b">
         <v>1</v>
@@ -3665,27 +3991,27 @@
         <v>1</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B68" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>326</v>
+        <v>28</v>
       </c>
       <c r="H68" s="1" t="b">
         <v>1</v>
@@ -3694,27 +4020,27 @@
         <v>1</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B69" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>28</v>
+        <v>309</v>
       </c>
       <c r="H69" s="1" t="b">
         <v>1</v>
@@ -3723,27 +4049,27 @@
         <v>1</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B70" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>325</v>
+        <v>29</v>
       </c>
       <c r="H70" s="1" t="b">
         <v>1</v>
@@ -3752,27 +4078,27 @@
         <v>1</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H71" s="1" t="b">
         <v>1</v>
@@ -3781,27 +4107,27 @@
         <v>1</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B72" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H72" s="1" t="b">
         <v>1</v>
@@ -3810,27 +4136,27 @@
         <v>1</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B73" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H73" s="1" t="b">
         <v>1</v>
@@ -3839,27 +4165,27 @@
         <v>1</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B74" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H74" s="1" t="b">
         <v>1</v>
@@ -3868,27 +4194,27 @@
         <v>1</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B75" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>1</v>
@@ -3897,27 +4223,27 @@
         <v>1</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H76" s="1" t="b">
         <v>1</v>
@@ -3926,27 +4252,27 @@
         <v>1</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H77" s="1" t="b">
         <v>1</v>
@@ -3955,27 +4281,27 @@
         <v>1</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H78" s="1" t="b">
         <v>1</v>
@@ -3984,27 +4310,27 @@
         <v>1</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B79" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H79" s="1" t="b">
         <v>1</v>
@@ -4013,27 +4339,27 @@
         <v>1</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B80" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H80" s="1" t="b">
         <v>1</v>
@@ -4042,27 +4368,27 @@
         <v>1</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B81" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="H81" s="1" t="b">
         <v>1</v>
@@ -4071,27 +4397,27 @@
         <v>1</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B82" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>75</v>
+        <v>432</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="H82" s="1" t="b">
         <v>1</v>
@@ -4100,27 +4426,30 @@
         <v>1</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B83" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>178</v>
+        <v>316</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="H83" s="1" t="b">
         <v>1</v>
@@ -4129,196 +4458,199 @@
         <v>1</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="B84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>332</v>
+        <v>7</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H84" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="I84" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="J84" s="4">
         <v>1</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="B85" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>305</v>
+        <v>61</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="F85" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="G85" s="4" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>307</v>
+        <v>419</v>
       </c>
       <c r="J85" s="4">
         <v>1</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="B86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H86" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>314</v>
+      <c r="I86" s="1">
+        <v>60</v>
       </c>
       <c r="J86" s="4">
         <v>1</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="B87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>310</v>
+        <v>186</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H87" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I87" s="1">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="J87" s="4">
         <v>1</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B88" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>197</v>
+        <v>433</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H88" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J88" s="4">
         <v>1</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B89" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>19</v>
@@ -4327,33 +4659,33 @@
         <v>1</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="J89" s="4">
         <v>1</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B90" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>19</v>
@@ -4362,33 +4694,33 @@
         <v>1</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="J90" s="4">
         <v>1</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>19</v>
@@ -4397,33 +4729,33 @@
         <v>1</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="J91" s="4">
         <v>1</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>19</v>
@@ -4431,34 +4763,34 @@
       <c r="H92" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>205</v>
+      <c r="I92" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="J92" s="4">
         <v>1</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>19</v>
@@ -4466,105 +4798,1160 @@
       <c r="H93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I93" s="3" t="s">
-        <v>156</v>
+      <c r="I93" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="J93" s="4">
         <v>1</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>211</v>
+        <v>184</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H94" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="J94" s="4">
         <v>1</v>
       </c>
       <c r="K94" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B95" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J95" s="8">
+        <v>1</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B96" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J96" s="8">
+        <v>1</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B97" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J97" s="8">
+        <v>1</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B95" s="1" t="b">
+      <c r="B98" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H95" s="1" t="b">
+      <c r="C98" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J98" s="8">
+        <v>1</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B99" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I95" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J95" s="4">
-        <v>1</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>329</v>
+      <c r="C99" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="J99" s="8">
+        <v>1</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B100" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J100" s="8">
+        <v>1</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B101" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="J101" s="8">
+        <v>1</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B102" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="J102" s="8">
+        <v>1</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B103" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="J103" s="8">
+        <v>1</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B104" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="J104" s="8">
+        <v>1</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B105" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J105" s="8">
+        <v>1</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B106" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="J106" s="8">
+        <v>1</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B107" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="J107" s="8">
+        <v>1</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B108" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="J108" s="8">
+        <v>1</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B109" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="J109" s="8">
+        <v>1</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B110" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="J110" s="8">
+        <v>1</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B111" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="J111" s="8">
+        <v>1</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B112" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="J112" s="8">
+        <v>1</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B113" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="J113" s="8">
+        <v>1</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B114" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J114" s="8">
+        <v>1</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B115" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="J115" s="8">
+        <v>1</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B116" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J116" s="8">
+        <v>1</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B117" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="J117" s="8">
+        <v>1</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B118" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="J118" s="8">
+        <v>1</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B119" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="J119" s="8">
+        <v>1</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B120" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="J120" s="8">
+        <v>1</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B121" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="J121" s="8">
+        <v>1</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B122" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H122" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="J122" s="8">
+        <v>1</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B123" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H123" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J123" s="8">
+        <v>1</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B124" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="J124" s="8">
+        <v>1</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B125" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="J125" s="8">
+        <v>1</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K94" xr:uid="{A50919DD-FCD4-4CE1-AF55-E89DDE6AC166}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K95">
-      <sortCondition descending="1" ref="B1:B94"/>
+  <autoFilter ref="A1:K93" xr:uid="{A50919DD-FCD4-4CE1-AF55-E89DDE6AC166}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K94">
+      <sortCondition descending="1" ref="B1:B93"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="B126:B1048576 B1:B94">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:B125">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="You must enter a value" error="You must enter a value" sqref="C126:D1048576 C95 C97:C125 D95:D125 A1:A1048576 C1:D94" xr:uid="{E602CB79-5724-456B-A221-D249AAA1E9AC}">
+      <formula1>1</formula1>
+      <formula2>999</formula2>
+    </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{D8512882-7D88-43CB-98C8-E9DE51C6E062}">
       <formula1>0</formula1>
       <formula2>100</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="You must enter a value" error="You must enter a value" sqref="A1:A1048576 C1:D1048576" xr:uid="{E602CB79-5724-456B-A221-D249AAA1E9AC}">
-      <formula1>1</formula1>
-      <formula2>999</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -4598,16 +5985,46 @@
     <hyperlink ref="C33" r:id="rId28" xr:uid="{BE9CE20B-33FD-4C4A-8717-B88D1F3A220F}"/>
     <hyperlink ref="C34" r:id="rId29" xr:uid="{92C9E74C-AA5B-4747-B22B-E92C2ACD2F3B}"/>
     <hyperlink ref="C35" r:id="rId30" xr:uid="{6E1887A8-D1E0-40E5-9EE6-371996BAA873}"/>
-    <hyperlink ref="C36" r:id="rId31" xr:uid="{37149DFC-5566-4704-AA97-4C19EB80A60D}"/>
-    <hyperlink ref="C37" r:id="rId32" xr:uid="{A7A42940-77BF-49F3-A66A-478EF5DEEECB}"/>
-    <hyperlink ref="C38" r:id="rId33" xr:uid="{ADCB8406-CBFF-47A2-8364-00312B6EB732}"/>
-    <hyperlink ref="C40" r:id="rId34" xr:uid="{C975BDAE-57C3-4B60-B13E-2F62F4159789}"/>
-    <hyperlink ref="C41" r:id="rId35" xr:uid="{0E220387-53C8-4888-BEAD-89E470E7574E}"/>
-    <hyperlink ref="C42" r:id="rId36" xr:uid="{973AE3ED-0C35-4BB8-8E8E-723687FBCA19}"/>
-    <hyperlink ref="C43" r:id="rId37" xr:uid="{02E0EB4F-0934-4976-8A69-B6EBAFA02593}"/>
+    <hyperlink ref="C36" r:id="rId31" xr:uid="{A7A42940-77BF-49F3-A66A-478EF5DEEECB}"/>
+    <hyperlink ref="C37" r:id="rId32" xr:uid="{ADCB8406-CBFF-47A2-8364-00312B6EB732}"/>
+    <hyperlink ref="C39" r:id="rId33" xr:uid="{C975BDAE-57C3-4B60-B13E-2F62F4159789}"/>
+    <hyperlink ref="C40" r:id="rId34" xr:uid="{0E220387-53C8-4888-BEAD-89E470E7574E}"/>
+    <hyperlink ref="C41" r:id="rId35" xr:uid="{973AE3ED-0C35-4BB8-8E8E-723687FBCA19}"/>
+    <hyperlink ref="C42" r:id="rId36" xr:uid="{02E0EB4F-0934-4976-8A69-B6EBAFA02593}"/>
+    <hyperlink ref="C95" r:id="rId37" xr:uid="{DF9E5098-51A5-4A86-A656-43862C7DD345}"/>
+    <hyperlink ref="C96" r:id="rId38" xr:uid="{562CF00C-49FE-4B91-AA35-BFC1F02D0D6E}"/>
+    <hyperlink ref="C97" r:id="rId39" xr:uid="{5589AC70-D06D-4D0D-9019-1DBA89D166DB}"/>
+    <hyperlink ref="C98" r:id="rId40" xr:uid="{4394BB96-CA0D-43DE-B12B-11CF78684889}"/>
+    <hyperlink ref="C99" r:id="rId41" xr:uid="{7A64A3B5-A69D-47B4-9DF0-301AB2C033C5}"/>
+    <hyperlink ref="C100" r:id="rId42" xr:uid="{6138EEDD-3B8D-4775-9E97-B14873A46ECE}"/>
+    <hyperlink ref="C101" r:id="rId43" xr:uid="{F155CBB7-7990-4926-BB6B-FF1EEFE8386F}"/>
+    <hyperlink ref="C102" r:id="rId44" xr:uid="{52B11E06-95B1-4C56-903D-46E32790C226}"/>
+    <hyperlink ref="C103" r:id="rId45" xr:uid="{02DE2BD1-12D9-4B1E-8B0A-0A76D04BD975}"/>
+    <hyperlink ref="C104" r:id="rId46" location="personal-pronouns" xr:uid="{24E34ED3-4F9B-4F88-9EC6-0D0C1BD684E7}"/>
+    <hyperlink ref="C105" r:id="rId47" location="gender-neutral-pronouns" xr:uid="{903EC1F2-90C7-4551-8284-4F53378FDD4E}"/>
+    <hyperlink ref="C106" r:id="rId48" xr:uid="{B054F7D2-580E-43B8-BF16-F20C203A4AB2}"/>
+    <hyperlink ref="C107" r:id="rId49" location="capitalization-in-titles-and-headings" xr:uid="{3A12DFFF-74E0-4769-AE48-7BE5BA73F3E6}"/>
+    <hyperlink ref="C108" r:id="rId50" xr:uid="{19257B57-EC2F-453D-8431-6ACA0604A957}"/>
+    <hyperlink ref="C109" r:id="rId51" xr:uid="{423A9C4D-AA10-4561-A808-3089F98FB220}"/>
+    <hyperlink ref="C110" r:id="rId52" xr:uid="{0DA2AD55-F3C9-4438-A5E0-023A02F1015A}"/>
+    <hyperlink ref="C111" r:id="rId53" xr:uid="{5B91347E-B7E4-4609-B89E-21B9220F9360}"/>
+    <hyperlink ref="C112" r:id="rId54" xr:uid="{C8DA4500-526A-463D-80A6-FBBADBE572AF}"/>
+    <hyperlink ref="C113" r:id="rId55" xr:uid="{68BDD820-6B7B-4ECD-ABF1-851ECF991901}"/>
+    <hyperlink ref="C114" r:id="rId56" xr:uid="{09DB8584-EFA5-492E-ADB4-609BF413A321}"/>
+    <hyperlink ref="C115" r:id="rId57" xr:uid="{D4316F6C-8585-4085-A6BE-9595280DA9CF}"/>
+    <hyperlink ref="C116" r:id="rId58" xr:uid="{77618834-A7D9-4373-86C0-65E51614698E}"/>
+    <hyperlink ref="C117" r:id="rId59" xr:uid="{C5AF0139-4760-4BED-9283-EE3869EE17F5}"/>
+    <hyperlink ref="C118" r:id="rId60" xr:uid="{9E18EE0A-C609-42E3-8AC1-60C5FADACC5C}"/>
+    <hyperlink ref="C119" r:id="rId61" xr:uid="{FEA3C470-1675-4BAF-9B3F-73EC1CA29071}"/>
+    <hyperlink ref="C120" r:id="rId62" xr:uid="{1181755C-4452-4C39-8F86-E74FE1D04765}"/>
+    <hyperlink ref="C121" r:id="rId63" xr:uid="{685EAA51-EA4D-42FC-A78E-8D0A255872B1}"/>
+    <hyperlink ref="C122" r:id="rId64" xr:uid="{7A8A8480-C8FE-489A-9DF4-3BDF4B39EC68}"/>
+    <hyperlink ref="C123" r:id="rId65" location="personal-pronouns" xr:uid="{8B0681F0-1C65-4CDC-B687-FEA676E637C3}"/>
+    <hyperlink ref="C124" r:id="rId66" xr:uid="{9D2EE16B-F950-4AA2-9649-FBED53885A37}"/>
+    <hyperlink ref="C125" r:id="rId67" xr:uid="{A80ACF06-384E-41A1-95D3-008316BCC780}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -4615,25 +6032,25 @@
           <x14:formula1>
             <xm:f>ZZ_DataTab_ZZ!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>E126:E1048576 E1:E94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{75F371EF-B329-4C55-8F11-27BE2223C567}">
           <x14:formula1>
             <xm:f>ZZ_DataTab_ZZ!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H1048576 B1:B1048576</xm:sqref>
+          <xm:sqref>B126:B1048576 H126:H1048576 H1:H94 B1:B94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="You must enter a value" error="You must enter a value" xr:uid="{13B3F03C-2DB1-4009-AD31-9F5CAFDCEF61}">
           <x14:formula1>
             <xm:f>ZZ_DataTab_ZZ!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
+          <xm:sqref>B126:B1048576 B1:B94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B7B4805-895C-4B4D-B437-049620AFDF29}">
           <x14:formula1>
             <xm:f>ZZ_DataTab_ZZ!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>G126:G1048576 G1:G94</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4662,7 +6079,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="b">
         <v>1</v>
@@ -4691,17 +6108,17 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/RuleTemplate.xlsx
+++ b/RuleTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattias\source\repos\MadQualityPluginII\MadQualityPluginII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A9F059-5CC0-4FA4-ACF4-A77A7428FF6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C75221-6283-4322-BCB5-8F74ED598229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="436">
   <si>
     <t>Name</t>
   </si>
@@ -583,9 +583,6 @@
     <t>\ba victim of\b|\bable-bodied\b|\baffected by\b|\ban epileptic\b|\bcrippled\b|\bdisabled\b|\bdumb\b|\bhandicapped\b|\bhandicaps\b|\bhealthy\b|\blame\b|\bmaimed\b|\bmissing a limb\b|\bmute\b|\bnormal\b|\bsight-impaired\b|\bstricken with\b|\bsuffers from\b|\bvision-impaired\b</t>
   </si>
   <si>
-    <t>[a-zA-Z]+\s(((?:centi\b|\bmilli)?meters)\b|\b((?:kilo)?grams)\b|\b((?:kilo)?meters)\b|\b((?:mega)?pixels)\b|\b(cm)\b|\b(inches)\b|\b(lb)\b|\b(miles)\b|\b(pounds)\b)</t>
-  </si>
-  <si>
     <t xml:space="preserve">DIV tag without Class </t>
   </si>
   <si>
@@ -1298,9 +1295,6 @@
   </si>
   <si>
     <t>[^\.\d][^\.\:\?\!]$</t>
-  </si>
-  <si>
-    <t>\b(\w+)\s+\1[^\-\.\:]\b</t>
   </si>
   <si>
     <t>(\b[Ww]e\'(ve|re)\b)|(\b[Oo]urs\b)|(\b[Uu]s\b)|(\b[Ll]et's\b)|(\b[Ww]e\b)</t>
@@ -1347,6 +1341,12 @@
   </si>
   <si>
     <t>Try to simplify this sentence to avoid the semicolon.</t>
+  </si>
+  <si>
+    <t>[a-zA-Z]+\s(((?:\bcenti|milli)?meters)\b|\b((?:kilo)?grams)\b|\b((?:kilo)?meters)\b|\b((?:mega)?pixels)\b|\b(cm)\b|\b(inches)\b|\b(lb)\b|\b(miles)\b|\b(pounds)\b)</t>
+  </si>
+  <si>
+    <t>RegexInline</t>
   </si>
 </sst>
 </file>
@@ -1770,8 +1770,8 @@
   <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1827,16 +1827,16 @@
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -1848,18 +1848,18 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>19</v>
@@ -1889,12 +1889,12 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
@@ -1903,13 +1903,13 @@
         <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>19</v>
@@ -1924,12 +1924,12 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
@@ -1953,18 +1953,18 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
@@ -1979,7 +1979,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>19</v>
@@ -1994,12 +1994,12 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
@@ -2014,7 +2014,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
@@ -2029,12 +2029,12 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>1</v>
@@ -2043,13 +2043,13 @@
         <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>19</v>
@@ -2064,12 +2064,12 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
@@ -2084,7 +2084,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>12</v>
@@ -2099,12 +2099,12 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
@@ -2119,7 +2119,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>19</v>
@@ -2134,12 +2134,12 @@
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
@@ -2154,7 +2154,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>19</v>
@@ -2163,18 +2163,18 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>1</v>
@@ -2189,7 +2189,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>19</v>
@@ -2204,12 +2204,12 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" s="1" t="b">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>19</v>
@@ -2239,12 +2239,12 @@
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>1</v>
@@ -2259,7 +2259,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>12</v>
@@ -2274,12 +2274,12 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>1</v>
@@ -2294,7 +2294,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>19</v>
@@ -2309,12 +2309,12 @@
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B16" s="1" t="b">
         <v>1</v>
@@ -2338,18 +2338,18 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B17" s="1" t="b">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>12</v>
@@ -2379,12 +2379,12 @@
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B18" s="1" t="b">
         <v>1</v>
@@ -2399,7 +2399,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>19</v>
@@ -2408,18 +2408,18 @@
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>181</v>
+        <v>434</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>1</v>
@@ -2428,13 +2428,13 @@
         <v>157</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>12</v>
@@ -2449,12 +2449,12 @@
         <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B20" s="1" t="b">
         <v>1</v>
@@ -2469,7 +2469,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>19</v>
@@ -2484,12 +2484,12 @@
         <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" s="1" t="b">
         <v>1</v>
@@ -2519,12 +2519,12 @@
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" s="1" t="b">
         <v>1</v>
@@ -2548,18 +2548,18 @@
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B23" s="1" t="b">
         <v>1</v>
@@ -2574,7 +2574,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>11</v>
@@ -2589,12 +2589,12 @@
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" s="1" t="b">
         <v>1</v>
@@ -2609,7 +2609,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>12</v>
@@ -2618,18 +2618,18 @@
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J24" s="4">
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" s="1" t="b">
         <v>1</v>
@@ -2644,7 +2644,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>19</v>
@@ -2659,12 +2659,12 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="1" t="b">
         <v>1</v>
@@ -2679,7 +2679,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>12</v>
@@ -2694,12 +2694,12 @@
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" s="1" t="b">
         <v>1</v>
@@ -2714,7 +2714,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>19</v>
@@ -2723,18 +2723,18 @@
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J27" s="4">
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="1" t="b">
         <v>1</v>
@@ -2749,7 +2749,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>19</v>
@@ -2758,18 +2758,18 @@
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J28" s="4">
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B29" s="1" t="b">
         <v>1</v>
@@ -2784,7 +2784,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>19</v>
@@ -2793,18 +2793,18 @@
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J29" s="4">
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" s="1" t="b">
         <v>1</v>
@@ -2819,7 +2819,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>19</v>
@@ -2834,12 +2834,12 @@
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B31" s="1" t="b">
         <v>1</v>
@@ -2854,7 +2854,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>19</v>
@@ -2863,18 +2863,18 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J31" s="4">
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B32" s="1" t="b">
         <v>1</v>
@@ -2889,7 +2889,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>19</v>
@@ -2904,12 +2904,12 @@
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B33" s="1" t="b">
         <v>1</v>
@@ -2918,13 +2918,13 @@
         <v>137</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>19</v>
@@ -2933,18 +2933,18 @@
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J33" s="4">
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B34" s="1" t="b">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>19</v>
@@ -2974,12 +2974,12 @@
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B35" s="1" t="b">
         <v>1</v>
@@ -2988,13 +2988,13 @@
         <v>139</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>19</v>
@@ -3009,12 +3009,12 @@
         <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B36" s="1" t="b">
         <v>1</v>
@@ -3029,7 +3029,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>19</v>
@@ -3044,12 +3044,12 @@
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B37" s="1" t="b">
         <v>1</v>
@@ -3058,13 +3058,13 @@
         <v>139</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>19</v>
@@ -3079,12 +3079,12 @@
         <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B38" s="1" t="b">
         <v>1</v>
@@ -3099,7 +3099,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>19</v>
@@ -3114,12 +3114,12 @@
         <v>1</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B39" s="1" t="b">
         <v>1</v>
@@ -3128,13 +3128,13 @@
         <v>149</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>19</v>
@@ -3149,12 +3149,12 @@
         <v>1</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B40" s="1" t="b">
         <v>1</v>
@@ -3169,7 +3169,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>11</v>
@@ -3184,12 +3184,12 @@
         <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B41" s="1" t="b">
         <v>1</v>
@@ -3204,7 +3204,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>19</v>
@@ -3219,12 +3219,12 @@
         <v>1</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B42" s="1" t="b">
         <v>1</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>12</v>
@@ -3254,12 +3254,12 @@
         <v>1</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B43" s="1" t="b">
         <v>1</v>
@@ -3274,7 +3274,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>19</v>
@@ -3283,18 +3283,18 @@
         <v>1</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J43" s="4">
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B44" s="1" t="b">
         <v>1</v>
@@ -3303,7 +3303,7 @@
         <v>60</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>7</v>
@@ -3318,18 +3318,18 @@
         <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="J44" s="4">
         <v>1</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B45" s="1" t="b">
         <v>1</v>
@@ -3353,12 +3353,12 @@
         <v>1</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B46" s="1" t="b">
         <v>1</v>
@@ -3373,7 +3373,7 @@
         <v>7</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H46" s="1" t="b">
         <v>1</v>
@@ -3382,12 +3382,12 @@
         <v>1</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B47" s="1" t="b">
         <v>1</v>
@@ -3411,12 +3411,12 @@
         <v>1</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B48" s="1" t="b">
         <v>1</v>
@@ -3440,12 +3440,12 @@
         <v>1</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B49" s="1" t="b">
         <v>1</v>
@@ -3469,12 +3469,12 @@
         <v>1</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B50" s="1" t="b">
         <v>1</v>
@@ -3498,12 +3498,12 @@
         <v>1</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B51" s="1" t="b">
         <v>1</v>
@@ -3518,7 +3518,7 @@
         <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H51" s="1" t="b">
         <v>1</v>
@@ -3527,12 +3527,12 @@
         <v>1</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B52" s="1" t="b">
         <v>1</v>
@@ -3556,12 +3556,12 @@
         <v>1</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B53" s="1" t="b">
         <v>1</v>
@@ -3576,7 +3576,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>1</v>
@@ -3585,12 +3585,12 @@
         <v>1</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B54" s="1" t="b">
         <v>1</v>
@@ -3614,18 +3614,18 @@
         <v>1</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B55" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>80</v>
@@ -3643,12 +3643,12 @@
         <v>1</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B56" s="1" t="b">
         <v>1</v>
@@ -3672,12 +3672,12 @@
         <v>1</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B57" s="1" t="b">
         <v>1</v>
@@ -3701,12 +3701,12 @@
         <v>1</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B58" s="1" t="b">
         <v>1</v>
@@ -3730,12 +3730,12 @@
         <v>1</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B59" s="1" t="b">
         <v>1</v>
@@ -3759,12 +3759,12 @@
         <v>1</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B60" s="1" t="b">
         <v>1</v>
@@ -3788,12 +3788,12 @@
         <v>1</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B61" s="1" t="b">
         <v>1</v>
@@ -3817,12 +3817,12 @@
         <v>1</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B62" s="1" t="b">
         <v>1</v>
@@ -3846,12 +3846,12 @@
         <v>1</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B63" s="1" t="b">
         <v>1</v>
@@ -3875,12 +3875,12 @@
         <v>1</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B64" s="1" t="b">
         <v>1</v>
@@ -3904,12 +3904,12 @@
         <v>1</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B65" s="1" t="b">
         <v>1</v>
@@ -3933,12 +3933,12 @@
         <v>1</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B66" s="1" t="b">
         <v>1</v>
@@ -3947,7 +3947,7 @@
         <v>57</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>7</v>
@@ -3962,12 +3962,12 @@
         <v>1</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B67" s="1" t="b">
         <v>1</v>
@@ -3982,7 +3982,7 @@
         <v>7</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H67" s="1" t="b">
         <v>1</v>
@@ -3991,12 +3991,12 @@
         <v>1</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B68" s="1" t="b">
         <v>1</v>
@@ -4020,12 +4020,12 @@
         <v>1</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B69" s="1" t="b">
         <v>1</v>
@@ -4040,7 +4040,7 @@
         <v>7</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H69" s="1" t="b">
         <v>1</v>
@@ -4049,12 +4049,12 @@
         <v>1</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B70" s="1" t="b">
         <v>1</v>
@@ -4078,12 +4078,12 @@
         <v>1</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B71" s="1" t="b">
         <v>1</v>
@@ -4107,12 +4107,12 @@
         <v>1</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B72" s="1" t="b">
         <v>1</v>
@@ -4136,12 +4136,12 @@
         <v>1</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B73" s="1" t="b">
         <v>1</v>
@@ -4165,12 +4165,12 @@
         <v>1</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B74" s="1" t="b">
         <v>1</v>
@@ -4194,12 +4194,12 @@
         <v>1</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B75" s="1" t="b">
         <v>1</v>
@@ -4223,12 +4223,12 @@
         <v>1</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B76" s="1" t="b">
         <v>1</v>
@@ -4252,12 +4252,12 @@
         <v>1</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B77" s="1" t="b">
         <v>1</v>
@@ -4281,12 +4281,12 @@
         <v>1</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B78" s="1" t="b">
         <v>1</v>
@@ -4310,12 +4310,12 @@
         <v>1</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B79" s="1" t="b">
         <v>1</v>
@@ -4339,12 +4339,12 @@
         <v>1</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B80" s="1" t="b">
         <v>1</v>
@@ -4368,12 +4368,12 @@
         <v>1</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B81" s="1" t="b">
         <v>1</v>
@@ -4397,12 +4397,12 @@
         <v>1</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B82" s="1" t="b">
         <v>1</v>
@@ -4411,7 +4411,7 @@
         <v>166</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>7</v>
@@ -4426,27 +4426,27 @@
         <v>1</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B83" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="D83" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>41</v>
@@ -4458,21 +4458,21 @@
         <v>1</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B84" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>7</v>
@@ -4484,18 +4484,18 @@
         <v>1</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J84" s="4">
         <v>1</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B85" s="1" t="b">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>7</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>19</v>
@@ -4519,18 +4519,18 @@
         <v>1</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J85" s="4">
         <v>1</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B86" s="1" t="b">
         <v>0</v>
@@ -4539,13 +4539,13 @@
         <v>42</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>42</v>
@@ -4560,27 +4560,27 @@
         <v>1</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>19</v>
@@ -4589,33 +4589,33 @@
         <v>0</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J87" s="4">
         <v>1</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B88" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>19</v>
@@ -4624,33 +4624,33 @@
         <v>1</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J88" s="4">
         <v>1</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B89" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="E89" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>19</v>
@@ -4659,33 +4659,33 @@
         <v>1</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J89" s="4">
         <v>1</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B90" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>19</v>
@@ -4700,47 +4700,47 @@
         <v>1</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="J91" s="4">
         <v>1</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B92" s="1" t="b">
         <v>0</v>
@@ -4755,7 +4755,7 @@
         <v>7</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>19</v>
@@ -4770,27 +4770,27 @@
         <v>1</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>19</v>
@@ -4799,33 +4799,33 @@
         <v>1</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J93" s="4">
         <v>1</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>19</v>
@@ -4834,33 +4834,33 @@
         <v>0</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J94" s="4">
         <v>1</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B95" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C95" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="E95" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>19</v>
@@ -4875,18 +4875,18 @@
         <v>1</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B96" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>86</v>
@@ -4895,7 +4895,7 @@
         <v>7</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>19</v>
@@ -4904,33 +4904,33 @@
         <v>1</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J96" s="8">
         <v>1</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B97" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C97" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D97" s="10" t="s">
-        <v>327</v>
-      </c>
       <c r="E97" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G97" s="11" t="s">
         <v>19</v>
@@ -4939,33 +4939,33 @@
         <v>0</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J97" s="8">
         <v>1</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B98" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C98" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="E98" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>12</v>
@@ -4980,53 +4980,53 @@
         <v>1</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B99" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C99" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D99" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="E99" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E99" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>335</v>
-      </c>
       <c r="J99" s="8">
         <v>1</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B100" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>129</v>
@@ -5035,7 +5035,7 @@
         <v>7</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>19</v>
@@ -5050,132 +5050,132 @@
         <v>1</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B101" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C101" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="E101" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E101" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>341</v>
-      </c>
       <c r="J101" s="8">
         <v>1</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B102" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D102" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="E102" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>344</v>
-      </c>
       <c r="J102" s="8">
         <v>1</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B103" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C103" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="E103" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E103" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="J103" s="8">
         <v>1</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B104" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C104" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>351</v>
-      </c>
       <c r="E104" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>19</v>
@@ -5184,33 +5184,33 @@
         <v>1</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J104" s="8">
         <v>1</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B105" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C105" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>354</v>
-      </c>
       <c r="E105" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>19</v>
@@ -5225,18 +5225,18 @@
         <v>1</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B106" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>95</v>
@@ -5245,7 +5245,7 @@
         <v>7</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>12</v>
@@ -5254,27 +5254,27 @@
         <v>1</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J106" s="8">
         <v>1</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B107" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C107" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>7</v>
@@ -5289,24 +5289,24 @@
         <v>1</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J107" s="8">
         <v>1</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B108" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>109</v>
@@ -5315,7 +5315,7 @@
         <v>7</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>12</v>
@@ -5330,123 +5330,123 @@
         <v>1</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B109" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C109" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="E109" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="E109" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H109" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="J109" s="8">
         <v>1</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B110" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C110" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="E110" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E110" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>369</v>
-      </c>
       <c r="J110" s="8">
         <v>1</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B111" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C111" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="E111" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="E111" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H111" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>373</v>
-      </c>
       <c r="J111" s="8">
         <v>1</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B112" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>150</v>
@@ -5455,7 +5455,7 @@
         <v>7</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>19</v>
@@ -5464,68 +5464,68 @@
         <v>1</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J112" s="8">
         <v>1</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B113" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C113" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="E113" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="E113" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H113" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>380</v>
-      </c>
       <c r="J113" s="8">
         <v>1</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B114" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C114" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="E114" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>19</v>
@@ -5540,62 +5540,62 @@
         <v>1</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B115" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D115" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E115" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H115" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>386</v>
-      </c>
       <c r="J115" s="8">
         <v>1</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B116" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C116" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D116" s="6" t="s">
-        <v>389</v>
-      </c>
       <c r="E116" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>19</v>
@@ -5610,97 +5610,97 @@
         <v>1</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B117" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D117" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="E117" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H117" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>392</v>
-      </c>
       <c r="J117" s="8">
         <v>1</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B118" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C118" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="E118" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="E118" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H118" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>396</v>
-      </c>
       <c r="J118" s="8">
         <v>1</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B119" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>12</v>
@@ -5709,129 +5709,129 @@
         <v>1</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J119" s="8">
         <v>1</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B120" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C120" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="E120" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="E120" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H120" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>403</v>
-      </c>
       <c r="J120" s="8">
         <v>1</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B121" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C121" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="E121" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="E121" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I121" s="6" t="s">
-        <v>407</v>
-      </c>
       <c r="J121" s="8">
         <v>1</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B122" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C122" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="E122" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H122" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="E122" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H122" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I122" s="6" t="s">
-        <v>411</v>
-      </c>
       <c r="J122" s="8">
         <v>1</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B123" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>133</v>
@@ -5840,7 +5840,7 @@
         <v>7</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G123" s="8" t="s">
         <v>19</v>
@@ -5855,27 +5855,27 @@
         <v>1</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B124" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C124" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D124" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="E124" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>11</v>
@@ -5884,24 +5884,24 @@
         <v>1</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J124" s="8">
         <v>1</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B125" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>109</v>
@@ -5910,7 +5910,7 @@
         <v>7</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>12</v>
@@ -5919,13 +5919,13 @@
         <v>1</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J125" s="8">
         <v>1</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -6027,7 +6027,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{0CB53E57-49ED-4054-A1EA-F9FEC9A763E9}">
           <x14:formula1>
             <xm:f>ZZ_DataTab_ZZ!$A$1:$A$2</xm:f>
@@ -6050,7 +6050,13 @@
           <x14:formula1>
             <xm:f>ZZ_DataTab_ZZ!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G126:G1048576 G1:G94</xm:sqref>
+          <xm:sqref>G1 G859:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7DD83A69-48FE-4200-9977-B732BAFDD123}">
+          <x14:formula1>
+            <xm:f>ZZ_DataTab_ZZ!$B$1:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G858</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6063,7 +6069,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -6118,7 +6124,12 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/RuleTemplate.xlsx
+++ b/RuleTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattias\source\repos\MadQualityPluginII\MadQualityPluginII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C75221-6283-4322-BCB5-8F74ED598229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F45CD55-3C7C-4261-9D34-2A5119A52B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -586,9 +586,6 @@
     <t xml:space="preserve">DIV tag without Class </t>
   </si>
   <si>
-    <t>\w+[.?!]\s{2,}\w+</t>
-  </si>
-  <si>
     <t>There Is</t>
   </si>
   <si>
@@ -1347,6 +1344,9 @@
   </si>
   <si>
     <t>RegexInline</t>
+  </si>
+  <si>
+    <t>(\w+[\.\?\!\:\;][^\s]\w+)|(\w+[\.\?\!\:\;]\s{2,}\w+)</t>
   </si>
 </sst>
 </file>
@@ -1769,9 +1769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941985CF-04CD-4A25-AEA0-9F14647804DD}">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1827,16 +1827,16 @@
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -1848,18 +1848,18 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>19</v>
@@ -1889,12 +1889,12 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
@@ -1903,13 +1903,13 @@
         <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>19</v>
@@ -1924,12 +1924,12 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
@@ -1953,18 +1953,18 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
@@ -1979,7 +1979,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>19</v>
@@ -1994,12 +1994,12 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
@@ -2014,7 +2014,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
@@ -2029,12 +2029,12 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>1</v>
@@ -2043,13 +2043,13 @@
         <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>19</v>
@@ -2064,12 +2064,12 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
@@ -2084,7 +2084,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>12</v>
@@ -2099,12 +2099,12 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
@@ -2119,7 +2119,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>19</v>
@@ -2134,12 +2134,12 @@
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
@@ -2154,7 +2154,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>19</v>
@@ -2163,18 +2163,18 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>1</v>
@@ -2189,7 +2189,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>19</v>
@@ -2204,12 +2204,12 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13" s="1" t="b">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>19</v>
@@ -2239,12 +2239,12 @@
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>1</v>
@@ -2259,7 +2259,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>12</v>
@@ -2274,12 +2274,12 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>1</v>
@@ -2294,7 +2294,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>19</v>
@@ -2309,12 +2309,12 @@
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" s="1" t="b">
         <v>1</v>
@@ -2338,18 +2338,18 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="1" t="b">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>12</v>
@@ -2379,12 +2379,12 @@
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" s="1" t="b">
         <v>1</v>
@@ -2399,7 +2399,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>19</v>
@@ -2408,18 +2408,18 @@
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>1</v>
@@ -2428,13 +2428,13 @@
         <v>157</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>12</v>
@@ -2449,12 +2449,12 @@
         <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B20" s="1" t="b">
         <v>1</v>
@@ -2469,7 +2469,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>19</v>
@@ -2484,12 +2484,12 @@
         <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B21" s="1" t="b">
         <v>1</v>
@@ -2519,12 +2519,12 @@
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B22" s="1" t="b">
         <v>1</v>
@@ -2548,18 +2548,18 @@
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B23" s="1" t="b">
         <v>1</v>
@@ -2574,7 +2574,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>11</v>
@@ -2589,12 +2589,12 @@
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B24" s="1" t="b">
         <v>1</v>
@@ -2609,7 +2609,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>12</v>
@@ -2618,18 +2618,18 @@
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J24" s="4">
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" s="1" t="b">
         <v>1</v>
@@ -2644,7 +2644,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>19</v>
@@ -2659,12 +2659,12 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B26" s="1" t="b">
         <v>1</v>
@@ -2679,7 +2679,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>12</v>
@@ -2694,12 +2694,12 @@
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" s="1" t="b">
         <v>1</v>
@@ -2714,7 +2714,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>19</v>
@@ -2723,18 +2723,18 @@
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J27" s="4">
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B28" s="1" t="b">
         <v>1</v>
@@ -2749,7 +2749,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>19</v>
@@ -2758,18 +2758,18 @@
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J28" s="4">
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B29" s="1" t="b">
         <v>1</v>
@@ -2784,7 +2784,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>19</v>
@@ -2793,18 +2793,18 @@
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J29" s="4">
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" s="1" t="b">
         <v>1</v>
@@ -2819,7 +2819,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>19</v>
@@ -2834,12 +2834,12 @@
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B31" s="1" t="b">
         <v>1</v>
@@ -2854,7 +2854,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>19</v>
@@ -2863,18 +2863,18 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>182</v>
+        <v>435</v>
       </c>
       <c r="J31" s="4">
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B32" s="1" t="b">
         <v>1</v>
@@ -2889,7 +2889,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>19</v>
@@ -2904,12 +2904,12 @@
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" s="1" t="b">
         <v>1</v>
@@ -2918,13 +2918,13 @@
         <v>137</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>19</v>
@@ -2933,18 +2933,18 @@
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J33" s="4">
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B34" s="1" t="b">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>19</v>
@@ -2974,12 +2974,12 @@
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B35" s="1" t="b">
         <v>1</v>
@@ -2988,13 +2988,13 @@
         <v>139</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>19</v>
@@ -3009,12 +3009,12 @@
         <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B36" s="1" t="b">
         <v>1</v>
@@ -3029,7 +3029,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>19</v>
@@ -3044,12 +3044,12 @@
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B37" s="1" t="b">
         <v>1</v>
@@ -3058,13 +3058,13 @@
         <v>139</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>19</v>
@@ -3079,12 +3079,12 @@
         <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B38" s="1" t="b">
         <v>1</v>
@@ -3099,7 +3099,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>19</v>
@@ -3114,12 +3114,12 @@
         <v>1</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B39" s="1" t="b">
         <v>1</v>
@@ -3128,13 +3128,13 @@
         <v>149</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>19</v>
@@ -3149,12 +3149,12 @@
         <v>1</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B40" s="1" t="b">
         <v>1</v>
@@ -3169,7 +3169,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>11</v>
@@ -3184,12 +3184,12 @@
         <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B41" s="1" t="b">
         <v>1</v>
@@ -3204,7 +3204,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>19</v>
@@ -3219,12 +3219,12 @@
         <v>1</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B42" s="1" t="b">
         <v>1</v>
@@ -3239,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>12</v>
@@ -3254,12 +3254,12 @@
         <v>1</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B43" s="1" t="b">
         <v>1</v>
@@ -3274,7 +3274,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>19</v>
@@ -3283,18 +3283,18 @@
         <v>1</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J43" s="4">
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B44" s="1" t="b">
         <v>1</v>
@@ -3303,7 +3303,7 @@
         <v>60</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>7</v>
@@ -3324,12 +3324,12 @@
         <v>1</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B45" s="1" t="b">
         <v>1</v>
@@ -3353,12 +3353,12 @@
         <v>1</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B46" s="1" t="b">
         <v>1</v>
@@ -3373,7 +3373,7 @@
         <v>7</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H46" s="1" t="b">
         <v>1</v>
@@ -3382,12 +3382,12 @@
         <v>1</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B47" s="1" t="b">
         <v>1</v>
@@ -3411,12 +3411,12 @@
         <v>1</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B48" s="1" t="b">
         <v>1</v>
@@ -3440,12 +3440,12 @@
         <v>1</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B49" s="1" t="b">
         <v>1</v>
@@ -3469,12 +3469,12 @@
         <v>1</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B50" s="1" t="b">
         <v>1</v>
@@ -3498,12 +3498,12 @@
         <v>1</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B51" s="1" t="b">
         <v>1</v>
@@ -3518,7 +3518,7 @@
         <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H51" s="1" t="b">
         <v>1</v>
@@ -3527,12 +3527,12 @@
         <v>1</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B52" s="1" t="b">
         <v>1</v>
@@ -3556,12 +3556,12 @@
         <v>1</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B53" s="1" t="b">
         <v>1</v>
@@ -3576,7 +3576,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>1</v>
@@ -3585,12 +3585,12 @@
         <v>1</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B54" s="1" t="b">
         <v>1</v>
@@ -3614,12 +3614,12 @@
         <v>1</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B55" s="1" t="b">
         <v>1</v>
@@ -3643,12 +3643,12 @@
         <v>1</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B56" s="1" t="b">
         <v>1</v>
@@ -3672,12 +3672,12 @@
         <v>1</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B57" s="1" t="b">
         <v>1</v>
@@ -3701,12 +3701,12 @@
         <v>1</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B58" s="1" t="b">
         <v>1</v>
@@ -3730,12 +3730,12 @@
         <v>1</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B59" s="1" t="b">
         <v>1</v>
@@ -3759,12 +3759,12 @@
         <v>1</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B60" s="1" t="b">
         <v>1</v>
@@ -3788,12 +3788,12 @@
         <v>1</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B61" s="1" t="b">
         <v>1</v>
@@ -3817,12 +3817,12 @@
         <v>1</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B62" s="1" t="b">
         <v>1</v>
@@ -3846,12 +3846,12 @@
         <v>1</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B63" s="1" t="b">
         <v>1</v>
@@ -3875,12 +3875,12 @@
         <v>1</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B64" s="1" t="b">
         <v>1</v>
@@ -3904,12 +3904,12 @@
         <v>1</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B65" s="1" t="b">
         <v>1</v>
@@ -3933,12 +3933,12 @@
         <v>1</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B66" s="1" t="b">
         <v>1</v>
@@ -3947,7 +3947,7 @@
         <v>57</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>7</v>
@@ -3962,12 +3962,12 @@
         <v>1</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B67" s="1" t="b">
         <v>1</v>
@@ -3982,7 +3982,7 @@
         <v>7</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H67" s="1" t="b">
         <v>1</v>
@@ -3991,12 +3991,12 @@
         <v>1</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B68" s="1" t="b">
         <v>1</v>
@@ -4020,12 +4020,12 @@
         <v>1</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B69" s="1" t="b">
         <v>1</v>
@@ -4040,7 +4040,7 @@
         <v>7</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H69" s="1" t="b">
         <v>1</v>
@@ -4049,12 +4049,12 @@
         <v>1</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B70" s="1" t="b">
         <v>1</v>
@@ -4078,12 +4078,12 @@
         <v>1</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B71" s="1" t="b">
         <v>1</v>
@@ -4107,12 +4107,12 @@
         <v>1</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B72" s="1" t="b">
         <v>1</v>
@@ -4136,12 +4136,12 @@
         <v>1</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B73" s="1" t="b">
         <v>1</v>
@@ -4165,12 +4165,12 @@
         <v>1</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B74" s="1" t="b">
         <v>1</v>
@@ -4194,12 +4194,12 @@
         <v>1</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B75" s="1" t="b">
         <v>1</v>
@@ -4223,12 +4223,12 @@
         <v>1</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B76" s="1" t="b">
         <v>1</v>
@@ -4252,12 +4252,12 @@
         <v>1</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B77" s="1" t="b">
         <v>1</v>
@@ -4281,12 +4281,12 @@
         <v>1</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B78" s="1" t="b">
         <v>1</v>
@@ -4310,12 +4310,12 @@
         <v>1</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B79" s="1" t="b">
         <v>1</v>
@@ -4339,12 +4339,12 @@
         <v>1</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B80" s="1" t="b">
         <v>1</v>
@@ -4368,12 +4368,12 @@
         <v>1</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B81" s="1" t="b">
         <v>1</v>
@@ -4397,12 +4397,12 @@
         <v>1</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B82" s="1" t="b">
         <v>1</v>
@@ -4411,7 +4411,7 @@
         <v>166</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>7</v>
@@ -4426,27 +4426,27 @@
         <v>1</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B83" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="D83" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>41</v>
@@ -4458,21 +4458,21 @@
         <v>1</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B84" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>7</v>
@@ -4484,18 +4484,18 @@
         <v>1</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J84" s="4">
         <v>1</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B85" s="1" t="b">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>7</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>19</v>
@@ -4519,18 +4519,18 @@
         <v>1</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J85" s="4">
         <v>1</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B86" s="1" t="b">
         <v>0</v>
@@ -4539,13 +4539,13 @@
         <v>42</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>42</v>
@@ -4560,27 +4560,27 @@
         <v>1</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>19</v>
@@ -4589,33 +4589,33 @@
         <v>0</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J87" s="4">
         <v>1</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B88" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>19</v>
@@ -4624,33 +4624,33 @@
         <v>1</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J88" s="4">
         <v>1</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B89" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E89" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>19</v>
@@ -4659,33 +4659,33 @@
         <v>1</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J89" s="4">
         <v>1</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B90" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>19</v>
@@ -4700,47 +4700,47 @@
         <v>1</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="J91" s="4">
         <v>1</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B92" s="1" t="b">
         <v>0</v>
@@ -4755,7 +4755,7 @@
         <v>7</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>19</v>
@@ -4770,27 +4770,27 @@
         <v>1</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>19</v>
@@ -4799,33 +4799,33 @@
         <v>1</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J93" s="4">
         <v>1</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>19</v>
@@ -4834,33 +4834,33 @@
         <v>0</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J94" s="4">
         <v>1</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B95" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C95" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>321</v>
-      </c>
       <c r="E95" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>19</v>
@@ -4875,18 +4875,18 @@
         <v>1</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B96" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>86</v>
@@ -4895,7 +4895,7 @@
         <v>7</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>19</v>
@@ -4904,33 +4904,33 @@
         <v>1</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J96" s="8">
         <v>1</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B97" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C97" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="D97" s="10" t="s">
-        <v>326</v>
-      </c>
       <c r="E97" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G97" s="11" t="s">
         <v>19</v>
@@ -4939,33 +4939,33 @@
         <v>0</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J97" s="8">
         <v>1</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B98" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C98" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>330</v>
-      </c>
       <c r="E98" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>12</v>
@@ -4980,53 +4980,53 @@
         <v>1</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B99" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C99" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D99" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="E99" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="E99" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>334</v>
-      </c>
       <c r="J99" s="8">
         <v>1</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B100" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>129</v>
@@ -5035,7 +5035,7 @@
         <v>7</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>19</v>
@@ -5050,132 +5050,132 @@
         <v>1</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B101" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C101" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="E101" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="E101" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>340</v>
-      </c>
       <c r="J101" s="8">
         <v>1</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B102" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D102" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E102" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="J102" s="8">
         <v>1</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B103" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C103" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="E103" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="E103" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>347</v>
-      </c>
       <c r="J103" s="8">
         <v>1</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B104" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C104" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>350</v>
-      </c>
       <c r="E104" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>19</v>
@@ -5184,33 +5184,33 @@
         <v>1</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J104" s="8">
         <v>1</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B105" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C105" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>353</v>
-      </c>
       <c r="E105" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>19</v>
@@ -5225,18 +5225,18 @@
         <v>1</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B106" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>95</v>
@@ -5245,7 +5245,7 @@
         <v>7</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>12</v>
@@ -5254,27 +5254,27 @@
         <v>1</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J106" s="8">
         <v>1</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B107" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C107" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>358</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>7</v>
@@ -5289,24 +5289,24 @@
         <v>1</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J107" s="8">
         <v>1</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B108" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>109</v>
@@ -5315,7 +5315,7 @@
         <v>7</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>12</v>
@@ -5330,123 +5330,123 @@
         <v>1</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B109" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C109" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="E109" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="E109" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H109" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>364</v>
-      </c>
       <c r="J109" s="8">
         <v>1</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B110" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C110" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="E110" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="E110" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>368</v>
-      </c>
       <c r="J110" s="8">
         <v>1</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B111" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C111" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="E111" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="E111" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H111" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>372</v>
-      </c>
       <c r="J111" s="8">
         <v>1</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B112" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>150</v>
@@ -5455,7 +5455,7 @@
         <v>7</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>19</v>
@@ -5464,68 +5464,68 @@
         <v>1</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J112" s="8">
         <v>1</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B113" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C113" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="E113" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="E113" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H113" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>379</v>
-      </c>
       <c r="J113" s="8">
         <v>1</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B114" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C114" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>382</v>
-      </c>
       <c r="E114" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>19</v>
@@ -5540,62 +5540,62 @@
         <v>1</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B115" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D115" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="E115" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H115" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>385</v>
-      </c>
       <c r="J115" s="8">
         <v>1</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B116" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C116" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="D116" s="6" t="s">
-        <v>388</v>
-      </c>
       <c r="E116" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>19</v>
@@ -5610,97 +5610,97 @@
         <v>1</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B117" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D117" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E117" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H117" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>391</v>
-      </c>
       <c r="J117" s="8">
         <v>1</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B118" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C118" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="E118" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="E118" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H118" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>395</v>
-      </c>
       <c r="J118" s="8">
         <v>1</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B119" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>12</v>
@@ -5709,129 +5709,129 @@
         <v>1</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J119" s="8">
         <v>1</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B120" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C120" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="E120" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="E120" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H120" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>402</v>
-      </c>
       <c r="J120" s="8">
         <v>1</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B121" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C121" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="E121" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="E121" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I121" s="6" t="s">
-        <v>406</v>
-      </c>
       <c r="J121" s="8">
         <v>1</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B122" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C122" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="E122" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H122" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="E122" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H122" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I122" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="J122" s="8">
         <v>1</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B123" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>133</v>
@@ -5840,7 +5840,7 @@
         <v>7</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G123" s="8" t="s">
         <v>19</v>
@@ -5855,27 +5855,27 @@
         <v>1</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B124" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C124" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="D124" s="6" t="s">
-        <v>414</v>
-      </c>
       <c r="E124" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>11</v>
@@ -5884,24 +5884,24 @@
         <v>1</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J124" s="8">
         <v>1</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B125" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>109</v>
@@ -5910,7 +5910,7 @@
         <v>7</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>12</v>
@@ -5919,13 +5919,13 @@
         <v>1</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J125" s="8">
         <v>1</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -6124,12 +6124,12 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/RuleTemplate.xlsx
+++ b/RuleTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattias\source\repos\MadQualityPluginII\MadQualityPluginII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F45CD55-3C7C-4261-9D34-2A5119A52B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797D66A0-2DA3-4439-9DB1-BFFB9EEE9697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="440">
   <si>
     <t>Name</t>
   </si>
@@ -1347,6 +1347,18 @@
   </si>
   <si>
     <t>(\w+[\.\?\!\:\;][^\s]\w+)|(\w+[\.\?\!\:\;]\s{2,}\w+)</t>
+  </si>
+  <si>
+    <t>WCAG-2.0-1.1</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/WAI/WCAG21/quickref/#non-text-content</t>
+  </si>
+  <si>
+    <t>Images should have a descriptive ALT text</t>
+  </si>
+  <si>
+    <t>img:not([alt])</t>
   </si>
 </sst>
 </file>
@@ -1767,11 +1779,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941985CF-04CD-4A25-AEA0-9F14647804DD}">
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5925,6 +5937,38 @@
         <v>1</v>
       </c>
       <c r="K125" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B126" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H126" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="4">
+        <v>1</v>
+      </c>
+      <c r="K126" s="6" t="s">
         <v>311</v>
       </c>
     </row>
@@ -6022,9 +6066,10 @@
     <hyperlink ref="C123" r:id="rId65" location="personal-pronouns" xr:uid="{8B0681F0-1C65-4CDC-B687-FEA676E637C3}"/>
     <hyperlink ref="C124" r:id="rId66" xr:uid="{9D2EE16B-F950-4AA2-9649-FBED53885A37}"/>
     <hyperlink ref="C125" r:id="rId67" xr:uid="{A80ACF06-384E-41A1-95D3-008316BCC780}"/>
+    <hyperlink ref="C126" r:id="rId68" location="non-text-content" xr:uid="{6D5F6AB9-0987-4D01-B525-8FC05A832BD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId69"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">

--- a/RuleTemplate.xlsx
+++ b/RuleTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattias\source\repos\MadQualityPluginII\MadQualityPluginII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797D66A0-2DA3-4439-9DB1-BFFB9EEE9697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A861D73-BA0D-4845-98F3-3F2A0A70A239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
   </bookViews>
@@ -1291,9 +1291,6 @@
     <t>(API Console|dev|developer) key:API key,(cell ?phone|smart ?phone):phone|mobile phone,(dev|developer|APIs) console:API console,(e-mail|Email|E-mail):email,(file ?path|path ?name):path,(kill|terminate|abort):stop|exit|cancel|end,(OAuth ?2|Oauth):OAuth 2.0,(ok|Okay):OK|okay,(WiFi|wifi):Wi-Fi,[.]+apk:APK,3\-D':3D,Google (I\-O|IO)':Google I/O,tap (&amp;|and) hold':touch &amp; hold,un(check|select)':clear,above:preceding,account name:username,action bar:app bar,admin:administrator,Ajax:AJAX,Android device:Android-powered device,android:Android,API explorer:APIs Explorer,application:app,approx\.:approximately,authN:authentication,authZ:authorization,autoupdate:automatically update,cellular data:mobile data,cellular network:mobile network,chapter:documents|pages|sections,check box:checkbox,check:select,CLI:command-line tool,click on:click|click in,Cloud:Google Cloud Platform|GCP,Container Engine:Kubernetes Engine,content type:media type,curated roles:predefined roles,data are:data is,Developers Console:Google API Console|API Console,disabledturn off|off,ephemeral IP address:ephemeral external IP address,fewer data:less data,file name:filename,firewalls:firewall rules,functionality:capability|feature,Google account:Google Account,Google accounts:Google Accounts,Googling:search with Google,grayed-out:unavailable,HTTPs:HTTPS,in order to:to,ingest:import|load,k8s:Kubernetes,long press:touch &amp; hold,network IP address:internal IP address,omnibox:address bar,open-source:open source,overview screen:recents screen,regex:regular expression,SHA1:SHA-1|HAS-SHA1,sign into:sign in to,sign-?on:single sign-on,static IP address:static external IP address,stylesheet:style sheet,synch:sync,tablename:table name,tablet:device,touch:tap,url:URL,vs\.:versus,World Wide Web:web</t>
   </si>
   <si>
-    <t>[^\.\d][^\.\:\?\!]$</t>
-  </si>
-  <si>
     <t>(\b[Ww]e\'(ve|re)\b)|(\b[Oo]urs\b)|(\b[Uu]s\b)|(\b[Ll]et's\b)|(\b[Ww]e\b)</t>
   </si>
   <si>
@@ -1359,6 +1356,9 @@
   </si>
   <si>
     <t>img:not([alt])</t>
+  </si>
+  <si>
+    <t>[^\d\.][^\!\.\:\?]\s{0,}[^\!\.\:\?]$</t>
   </si>
 </sst>
 </file>
@@ -1781,9 +1781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941985CF-04CD-4A25-AEA0-9F14647804DD}">
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1915,7 +1915,7 @@
         <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
@@ -2055,7 +2055,7 @@
         <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>7</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
@@ -2440,7 +2440,7 @@
         <v>157</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>7</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J28" s="4">
         <v>1</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J29" s="4">
         <v>1</v>
@@ -2875,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J31" s="4">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>137</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>7</v>
@@ -3000,7 +3000,7 @@
         <v>139</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>7</v>
@@ -3070,7 +3070,7 @@
         <v>139</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>7</v>
@@ -3140,7 +3140,7 @@
         <v>149</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>7</v>
@@ -3959,7 +3959,7 @@
         <v>57</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>7</v>
@@ -4423,7 +4423,7 @@
         <v>166</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>7</v>
@@ -4531,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="J85" s="4">
         <v>1</v>
@@ -4621,7 +4621,7 @@
         <v>187</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>7</v>
@@ -4691,7 +4691,7 @@
         <v>196</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>7</v>
@@ -5942,22 +5942,22 @@
     </row>
     <row r="126" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B126" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C126" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>41</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/RuleTemplate.xlsx
+++ b/RuleTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattias\source\repos\MadQualityPluginII\MadQualityPluginII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A861D73-BA0D-4845-98F3-3F2A0A70A239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8F4148-F9ED-4A9D-BA00-4EB989BCDEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
   </bookViews>
@@ -523,9 +523,6 @@
     <t>"%s" doesn't need a hyphen.</t>
   </si>
   <si>
-    <t>"%s" should have just one space.</t>
-  </si>
-  <si>
     <t>"%s" looks like passive voice.</t>
   </si>
   <si>
@@ -1359,6 +1356,9 @@
   </si>
   <si>
     <t>[^\d\.][^\!\.\:\?]\s{0,}[^\!\.\:\?]$</t>
+  </si>
+  <si>
+    <t>"%s" should probably have a single space.</t>
   </si>
 </sst>
 </file>
@@ -1781,9 +1781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941985CF-04CD-4A25-AEA0-9F14647804DD}">
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I86" sqref="I86"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -1839,16 +1839,16 @@
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -1860,18 +1860,18 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
@@ -1886,7 +1886,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>19</v>
@@ -1895,18 +1895,18 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J3" s="4">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
@@ -1915,13 +1915,13 @@
         <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>19</v>
@@ -1930,18 +1930,18 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J4" s="4">
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
@@ -1956,7 +1956,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
@@ -1965,18 +1965,18 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
@@ -1985,13 +1985,13 @@
         <v>88</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>19</v>
@@ -2000,18 +2000,18 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J6" s="4">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
@@ -2026,7 +2026,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
@@ -2041,12 +2041,12 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>1</v>
@@ -2055,13 +2055,13 @@
         <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>19</v>
@@ -2070,18 +2070,18 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>12</v>
@@ -2111,12 +2111,12 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
@@ -2131,7 +2131,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>19</v>
@@ -2146,12 +2146,12 @@
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
@@ -2166,7 +2166,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>19</v>
@@ -2175,18 +2175,18 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>1</v>
@@ -2201,7 +2201,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>19</v>
@@ -2210,18 +2210,18 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="1" t="b">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>19</v>
@@ -2245,18 +2245,18 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>1</v>
@@ -2271,7 +2271,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>12</v>
@@ -2286,12 +2286,12 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>1</v>
@@ -2306,7 +2306,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>19</v>
@@ -2321,12 +2321,12 @@
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="1" t="b">
         <v>1</v>
@@ -2350,18 +2350,18 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B17" s="1" t="b">
         <v>1</v>
@@ -2376,7 +2376,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>12</v>
@@ -2391,12 +2391,12 @@
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B18" s="1" t="b">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>19</v>
@@ -2420,18 +2420,18 @@
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>1</v>
@@ -2440,13 +2440,13 @@
         <v>157</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>12</v>
@@ -2455,18 +2455,18 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J19" s="4">
         <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" s="1" t="b">
         <v>1</v>
@@ -2481,7 +2481,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>19</v>
@@ -2496,12 +2496,12 @@
         <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" s="1" t="b">
         <v>1</v>
@@ -2531,12 +2531,12 @@
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="1" t="b">
         <v>1</v>
@@ -2560,18 +2560,18 @@
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B23" s="1" t="b">
         <v>1</v>
@@ -2586,7 +2586,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>11</v>
@@ -2601,12 +2601,12 @@
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" s="1" t="b">
         <v>1</v>
@@ -2621,7 +2621,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>12</v>
@@ -2630,18 +2630,18 @@
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J24" s="4">
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B25" s="1" t="b">
         <v>1</v>
@@ -2656,7 +2656,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>19</v>
@@ -2665,18 +2665,18 @@
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J25" s="4">
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B26" s="1" t="b">
         <v>1</v>
@@ -2691,7 +2691,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>12</v>
@@ -2706,12 +2706,12 @@
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B27" s="1" t="b">
         <v>1</v>
@@ -2726,7 +2726,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>19</v>
@@ -2735,18 +2735,18 @@
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J27" s="4">
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" s="1" t="b">
         <v>1</v>
@@ -2761,7 +2761,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>19</v>
@@ -2770,18 +2770,18 @@
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J28" s="4">
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B29" s="1" t="b">
         <v>1</v>
@@ -2796,7 +2796,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>19</v>
@@ -2805,18 +2805,18 @@
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J29" s="4">
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" s="1" t="b">
         <v>1</v>
@@ -2831,7 +2831,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>19</v>
@@ -2840,18 +2840,18 @@
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J30" s="4">
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B31" s="1" t="b">
         <v>1</v>
@@ -2860,13 +2860,13 @@
         <v>108</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>161</v>
+        <v>439</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>19</v>
@@ -2875,18 +2875,18 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J31" s="4">
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B32" s="1" t="b">
         <v>1</v>
@@ -2901,7 +2901,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>19</v>
@@ -2916,12 +2916,12 @@
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B33" s="1" t="b">
         <v>1</v>
@@ -2930,13 +2930,13 @@
         <v>137</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>19</v>
@@ -2945,18 +2945,18 @@
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J33" s="4">
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B34" s="1" t="b">
         <v>1</v>
@@ -2971,7 +2971,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>19</v>
@@ -2986,12 +2986,12 @@
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B35" s="1" t="b">
         <v>1</v>
@@ -3000,13 +3000,13 @@
         <v>139</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>19</v>
@@ -3021,12 +3021,12 @@
         <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B36" s="1" t="b">
         <v>1</v>
@@ -3041,7 +3041,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>19</v>
@@ -3056,12 +3056,12 @@
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B37" s="1" t="b">
         <v>1</v>
@@ -3070,13 +3070,13 @@
         <v>139</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>19</v>
@@ -3091,12 +3091,12 @@
         <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B38" s="1" t="b">
         <v>1</v>
@@ -3105,13 +3105,13 @@
         <v>147</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>19</v>
@@ -3126,12 +3126,12 @@
         <v>1</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B39" s="1" t="b">
         <v>1</v>
@@ -3140,13 +3140,13 @@
         <v>149</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>19</v>
@@ -3161,12 +3161,12 @@
         <v>1</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B40" s="1" t="b">
         <v>1</v>
@@ -3181,7 +3181,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>11</v>
@@ -3196,12 +3196,12 @@
         <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B41" s="1" t="b">
         <v>1</v>
@@ -3216,7 +3216,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>19</v>
@@ -3231,12 +3231,12 @@
         <v>1</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B42" s="1" t="b">
         <v>1</v>
@@ -3251,7 +3251,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>12</v>
@@ -3266,12 +3266,12 @@
         <v>1</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B43" s="1" t="b">
         <v>1</v>
@@ -3286,7 +3286,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>19</v>
@@ -3295,18 +3295,18 @@
         <v>1</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J43" s="4">
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B44" s="1" t="b">
         <v>1</v>
@@ -3315,7 +3315,7 @@
         <v>60</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>7</v>
@@ -3336,12 +3336,12 @@
         <v>1</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B45" s="1" t="b">
         <v>1</v>
@@ -3365,12 +3365,12 @@
         <v>1</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B46" s="1" t="b">
         <v>1</v>
@@ -3385,7 +3385,7 @@
         <v>7</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H46" s="1" t="b">
         <v>1</v>
@@ -3394,12 +3394,12 @@
         <v>1</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B47" s="1" t="b">
         <v>1</v>
@@ -3423,12 +3423,12 @@
         <v>1</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B48" s="1" t="b">
         <v>1</v>
@@ -3452,12 +3452,12 @@
         <v>1</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B49" s="1" t="b">
         <v>1</v>
@@ -3481,12 +3481,12 @@
         <v>1</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B50" s="1" t="b">
         <v>1</v>
@@ -3510,12 +3510,12 @@
         <v>1</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B51" s="1" t="b">
         <v>1</v>
@@ -3530,7 +3530,7 @@
         <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H51" s="1" t="b">
         <v>1</v>
@@ -3539,12 +3539,12 @@
         <v>1</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B52" s="1" t="b">
         <v>1</v>
@@ -3568,12 +3568,12 @@
         <v>1</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B53" s="1" t="b">
         <v>1</v>
@@ -3588,7 +3588,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>1</v>
@@ -3597,12 +3597,12 @@
         <v>1</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B54" s="1" t="b">
         <v>1</v>
@@ -3626,18 +3626,18 @@
         <v>1</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B55" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>80</v>
@@ -3655,12 +3655,12 @@
         <v>1</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B56" s="1" t="b">
         <v>1</v>
@@ -3675,7 +3675,7 @@
         <v>7</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H56" s="1" t="b">
         <v>1</v>
@@ -3684,12 +3684,12 @@
         <v>1</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B57" s="1" t="b">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>7</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H57" s="1" t="b">
         <v>1</v>
@@ -3713,12 +3713,12 @@
         <v>1</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B58" s="1" t="b">
         <v>1</v>
@@ -3733,7 +3733,7 @@
         <v>7</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H58" s="1" t="b">
         <v>1</v>
@@ -3742,12 +3742,12 @@
         <v>1</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B59" s="1" t="b">
         <v>1</v>
@@ -3762,7 +3762,7 @@
         <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H59" s="1" t="b">
         <v>1</v>
@@ -3771,12 +3771,12 @@
         <v>1</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B60" s="1" t="b">
         <v>1</v>
@@ -3791,7 +3791,7 @@
         <v>7</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H60" s="1" t="b">
         <v>1</v>
@@ -3800,12 +3800,12 @@
         <v>1</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B61" s="1" t="b">
         <v>1</v>
@@ -3829,12 +3829,12 @@
         <v>1</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B62" s="1" t="b">
         <v>1</v>
@@ -3858,12 +3858,12 @@
         <v>1</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B63" s="1" t="b">
         <v>1</v>
@@ -3887,12 +3887,12 @@
         <v>1</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B64" s="1" t="b">
         <v>1</v>
@@ -3916,12 +3916,12 @@
         <v>1</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B65" s="1" t="b">
         <v>1</v>
@@ -3945,12 +3945,12 @@
         <v>1</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B66" s="1" t="b">
         <v>1</v>
@@ -3959,7 +3959,7 @@
         <v>57</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>7</v>
@@ -3974,12 +3974,12 @@
         <v>1</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B67" s="1" t="b">
         <v>1</v>
@@ -3994,7 +3994,7 @@
         <v>7</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H67" s="1" t="b">
         <v>1</v>
@@ -4003,12 +4003,12 @@
         <v>1</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B68" s="1" t="b">
         <v>1</v>
@@ -4032,12 +4032,12 @@
         <v>1</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B69" s="1" t="b">
         <v>1</v>
@@ -4052,7 +4052,7 @@
         <v>7</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H69" s="1" t="b">
         <v>1</v>
@@ -4061,12 +4061,12 @@
         <v>1</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B70" s="1" t="b">
         <v>1</v>
@@ -4090,12 +4090,12 @@
         <v>1</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B71" s="1" t="b">
         <v>1</v>
@@ -4119,12 +4119,12 @@
         <v>1</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B72" s="1" t="b">
         <v>1</v>
@@ -4148,12 +4148,12 @@
         <v>1</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B73" s="1" t="b">
         <v>1</v>
@@ -4177,12 +4177,12 @@
         <v>1</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B74" s="1" t="b">
         <v>1</v>
@@ -4206,12 +4206,12 @@
         <v>1</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B75" s="1" t="b">
         <v>1</v>
@@ -4235,12 +4235,12 @@
         <v>1</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B76" s="1" t="b">
         <v>1</v>
@@ -4264,12 +4264,12 @@
         <v>1</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B77" s="1" t="b">
         <v>1</v>
@@ -4293,12 +4293,12 @@
         <v>1</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B78" s="1" t="b">
         <v>1</v>
@@ -4322,12 +4322,12 @@
         <v>1</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B79" s="1" t="b">
         <v>1</v>
@@ -4351,12 +4351,12 @@
         <v>1</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B80" s="1" t="b">
         <v>1</v>
@@ -4380,12 +4380,12 @@
         <v>1</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B81" s="1" t="b">
         <v>1</v>
@@ -4409,28 +4409,28 @@
         <v>1</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B82" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H82" s="1" t="b">
         <v>1</v>
       </c>
@@ -4438,27 +4438,27 @@
         <v>1</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B83" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="D83" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>41</v>
@@ -4470,21 +4470,21 @@
         <v>1</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B84" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>7</v>
@@ -4496,18 +4496,18 @@
         <v>1</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J84" s="4">
         <v>1</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B85" s="1" t="b">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         <v>7</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>19</v>
@@ -4531,18 +4531,18 @@
         <v>1</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J85" s="4">
         <v>1</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B86" s="1" t="b">
         <v>0</v>
@@ -4551,13 +4551,13 @@
         <v>42</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>42</v>
@@ -4572,27 +4572,27 @@
         <v>1</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>19</v>
@@ -4601,33 +4601,33 @@
         <v>0</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J87" s="4">
         <v>1</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B88" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>19</v>
@@ -4636,33 +4636,33 @@
         <v>1</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J88" s="4">
         <v>1</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B89" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="E89" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>19</v>
@@ -4671,33 +4671,33 @@
         <v>1</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J89" s="4">
         <v>1</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B90" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>19</v>
@@ -4712,47 +4712,47 @@
         <v>1</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="J91" s="4">
         <v>1</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B92" s="1" t="b">
         <v>0</v>
@@ -4761,13 +4761,13 @@
         <v>147</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>19</v>
@@ -4782,27 +4782,27 @@
         <v>1</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>19</v>
@@ -4811,33 +4811,33 @@
         <v>1</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J93" s="4">
         <v>1</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>19</v>
@@ -4846,33 +4846,33 @@
         <v>0</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J94" s="4">
         <v>1</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B95" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C95" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="E95" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>19</v>
@@ -4881,24 +4881,24 @@
         <v>0</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J95" s="8">
         <v>1</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B96" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>86</v>
@@ -4907,7 +4907,7 @@
         <v>7</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>19</v>
@@ -4916,33 +4916,33 @@
         <v>1</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J96" s="8">
         <v>1</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B97" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C97" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="D97" s="10" t="s">
-        <v>325</v>
-      </c>
       <c r="E97" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G97" s="11" t="s">
         <v>19</v>
@@ -4951,33 +4951,33 @@
         <v>0</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J97" s="8">
         <v>1</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B98" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C98" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="E98" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>12</v>
@@ -4992,53 +4992,53 @@
         <v>1</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B99" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C99" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D99" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="E99" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="E99" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>333</v>
-      </c>
       <c r="J99" s="8">
         <v>1</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B100" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>129</v>
@@ -5047,7 +5047,7 @@
         <v>7</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>19</v>
@@ -5062,132 +5062,132 @@
         <v>1</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B101" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C101" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="E101" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E101" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="J101" s="8">
         <v>1</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B102" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D102" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E102" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="J102" s="8">
         <v>1</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B103" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C103" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="E103" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="E103" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>346</v>
-      </c>
       <c r="J103" s="8">
         <v>1</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B104" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C104" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="E104" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>19</v>
@@ -5196,33 +5196,33 @@
         <v>1</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J104" s="8">
         <v>1</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B105" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C105" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>352</v>
-      </c>
       <c r="E105" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>19</v>
@@ -5231,24 +5231,24 @@
         <v>1</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J105" s="8">
         <v>1</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B106" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>95</v>
@@ -5257,7 +5257,7 @@
         <v>7</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>12</v>
@@ -5266,27 +5266,27 @@
         <v>1</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J106" s="8">
         <v>1</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B107" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C107" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>356</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>357</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>7</v>
@@ -5301,24 +5301,24 @@
         <v>1</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J107" s="8">
         <v>1</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B108" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>109</v>
@@ -5327,7 +5327,7 @@
         <v>7</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>12</v>
@@ -5342,123 +5342,123 @@
         <v>1</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B109" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C109" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="E109" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="E109" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H109" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="J109" s="8">
         <v>1</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B110" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C110" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="E110" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="E110" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>367</v>
-      </c>
       <c r="J110" s="8">
         <v>1</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B111" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C111" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="E111" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="E111" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H111" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>371</v>
-      </c>
       <c r="J111" s="8">
         <v>1</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B112" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>150</v>
@@ -5467,7 +5467,7 @@
         <v>7</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>19</v>
@@ -5476,68 +5476,68 @@
         <v>1</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J112" s="8">
         <v>1</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B113" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C113" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="E113" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="E113" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H113" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>378</v>
-      </c>
       <c r="J113" s="8">
         <v>1</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B114" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C114" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>381</v>
-      </c>
       <c r="E114" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>19</v>
@@ -5552,62 +5552,62 @@
         <v>1</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B115" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D115" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="E115" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H115" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>384</v>
-      </c>
       <c r="J115" s="8">
         <v>1</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B116" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C116" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D116" s="6" t="s">
-        <v>387</v>
-      </c>
       <c r="E116" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>19</v>
@@ -5622,97 +5622,97 @@
         <v>1</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B117" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D117" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="E117" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H117" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>390</v>
-      </c>
       <c r="J117" s="8">
         <v>1</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B118" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C118" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="E118" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="E118" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H118" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="J118" s="8">
         <v>1</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B119" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>12</v>
@@ -5721,129 +5721,129 @@
         <v>1</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J119" s="8">
         <v>1</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B120" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C120" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="E120" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="E120" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H120" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>401</v>
-      </c>
       <c r="J120" s="8">
         <v>1</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B121" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C121" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="E121" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E121" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I121" s="6" t="s">
-        <v>405</v>
-      </c>
       <c r="J121" s="8">
         <v>1</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B122" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C122" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="E122" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H122" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="E122" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H122" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I122" s="6" t="s">
-        <v>409</v>
-      </c>
       <c r="J122" s="8">
         <v>1</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B123" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>133</v>
@@ -5852,7 +5852,7 @@
         <v>7</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G123" s="8" t="s">
         <v>19</v>
@@ -5867,27 +5867,27 @@
         <v>1</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B124" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C124" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D124" s="6" t="s">
-        <v>413</v>
-      </c>
       <c r="E124" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>11</v>
@@ -5896,24 +5896,24 @@
         <v>1</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J124" s="8">
         <v>1</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B125" s="6" t="b">
         <v>0</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>109</v>
@@ -5922,7 +5922,7 @@
         <v>7</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>12</v>
@@ -5931,33 +5931,33 @@
         <v>1</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J125" s="8">
         <v>1</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B126" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C126" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>41</v>
@@ -5969,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -6169,12 +6169,12 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/RuleTemplate.xlsx
+++ b/RuleTemplate.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattias\source\repos\MadQualityPluginII\MadQualityPluginII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8F4148-F9ED-4A9D-BA00-4EB989BCDEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFBC737-CF8B-4062-887C-8CFE85EF832C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1F120B87-80F8-426D-9C5F-E175BD65AB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
     <sheet name="ZZ_DataTab_ZZ" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$1:$K$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$1:$L$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="441">
   <si>
     <t>Name</t>
   </si>
@@ -1359,6 +1359,9 @@
   </si>
   <si>
     <t>"%s" should probably have a single space.</t>
+  </si>
+  <si>
+    <t>IgnoreContext</t>
   </si>
 </sst>
 </file>
@@ -1411,31 +1414,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1443,7 +1425,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
@@ -1454,14 +1442,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1779,11 +1760,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941985CF-04CD-4A25-AEA0-9F14647804DD}">
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1794,50 +1775,54 @@
     <col min="4" max="4" width="129.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="18.140625" style="1"/>
+    <col min="7" max="7" width="52.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="18.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>299</v>
       </c>
@@ -1853,23 +1838,23 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>198</v>
       </c>
@@ -1888,23 +1873,23 @@
       <c r="F3" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>199</v>
       </c>
@@ -1923,23 +1908,23 @@
       <c r="F4" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>200</v>
       </c>
@@ -1958,23 +1943,23 @@
       <c r="F5" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>201</v>
       </c>
@@ -1993,23 +1978,23 @@
       <c r="F6" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="1" t="b">
+      <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>202</v>
       </c>
@@ -2028,23 +2013,23 @@
       <c r="F7" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>203</v>
       </c>
@@ -2063,23 +2048,23 @@
       <c r="F8" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>204</v>
       </c>
@@ -2098,23 +2083,23 @@
       <c r="F9" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>205</v>
       </c>
@@ -2133,23 +2118,23 @@
       <c r="F10" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>206</v>
       </c>
@@ -2168,23 +2153,23 @@
       <c r="F11" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="1" t="b">
+      <c r="H11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>207</v>
       </c>
@@ -2203,23 +2188,23 @@
       <c r="F12" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>208</v>
       </c>
@@ -2238,23 +2223,23 @@
       <c r="F13" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="H13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>209</v>
       </c>
@@ -2273,23 +2258,23 @@
       <c r="F14" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>210</v>
       </c>
@@ -2308,23 +2293,23 @@
       <c r="F15" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>211</v>
       </c>
@@ -2343,23 +2328,23 @@
       <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="H16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="J16" s="4">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>212</v>
       </c>
@@ -2378,23 +2363,23 @@
       <c r="F17" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>213</v>
       </c>
@@ -2413,23 +2398,23 @@
       <c r="F18" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="H18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>214</v>
       </c>
@@ -2448,23 +2433,23 @@
       <c r="F19" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>215</v>
       </c>
@@ -2483,23 +2468,23 @@
       <c r="F20" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="H20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J20" s="4">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>216</v>
       </c>
@@ -2518,23 +2503,23 @@
       <c r="F21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="1" t="b">
+      <c r="H21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J21" s="4">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>217</v>
       </c>
@@ -2553,23 +2538,23 @@
       <c r="F22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="1" t="b">
+      <c r="H22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="J22" s="4">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>218</v>
       </c>
@@ -2588,23 +2573,23 @@
       <c r="F23" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J23" s="4">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>219</v>
       </c>
@@ -2623,23 +2608,23 @@
       <c r="F24" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="4">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>220</v>
       </c>
@@ -2658,23 +2643,23 @@
       <c r="F25" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="H25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J25" s="4">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>221</v>
       </c>
@@ -2693,23 +2678,23 @@
       <c r="F26" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J26" s="4">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>222</v>
       </c>
@@ -2728,23 +2713,23 @@
       <c r="F27" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="1" t="b">
+      <c r="H27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="J27" s="4">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="4">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>223</v>
       </c>
@@ -2763,23 +2748,23 @@
       <c r="F28" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="H28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="J28" s="4">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="4">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>224</v>
       </c>
@@ -2798,23 +2783,23 @@
       <c r="F29" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="1" t="b">
+      <c r="H29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="J29" s="4">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="4">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>225</v>
       </c>
@@ -2833,23 +2818,23 @@
       <c r="F30" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="H30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J30" s="4">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="4">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>226</v>
       </c>
@@ -2868,23 +2853,23 @@
       <c r="F31" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="H31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="J31" s="4">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="4">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>227</v>
       </c>
@@ -2903,23 +2888,23 @@
       <c r="F32" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="H32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J32" s="4">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="4">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>228</v>
       </c>
@@ -2938,23 +2923,23 @@
       <c r="F33" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="H33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="J33" s="4">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>229</v>
       </c>
@@ -2973,23 +2958,23 @@
       <c r="F34" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1" t="s">
+      <c r="H34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J34" s="4">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>230</v>
       </c>
@@ -3008,23 +2993,23 @@
       <c r="F35" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1" t="s">
+      <c r="H35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J35" s="4">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>231</v>
       </c>
@@ -3043,23 +3028,23 @@
       <c r="F36" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1" t="s">
+      <c r="H36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J36" s="4">
-        <v>1</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="4">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>232</v>
       </c>
@@ -3078,23 +3063,23 @@
       <c r="F37" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="H37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J37" s="4">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="4">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>233</v>
       </c>
@@ -3113,23 +3098,23 @@
       <c r="F38" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="3" t="s">
+      <c r="H38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J38" s="4">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>234</v>
       </c>
@@ -3148,23 +3133,23 @@
       <c r="F39" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" s="1" t="s">
+      <c r="H39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J39" s="4">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="4">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>235</v>
       </c>
@@ -3183,23 +3168,23 @@
       <c r="F40" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J40" s="4">
-        <v>1</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="4">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>236</v>
       </c>
@@ -3218,23 +3203,23 @@
       <c r="F41" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" s="1" t="s">
+      <c r="H41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J41" s="4">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>237</v>
       </c>
@@ -3253,23 +3238,23 @@
       <c r="F42" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J42" s="4">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="4">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>238</v>
       </c>
@@ -3288,23 +3273,23 @@
       <c r="F43" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" s="1" t="s">
+      <c r="H43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J43" s="4">
-        <v>1</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="4">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>240</v>
       </c>
@@ -3323,23 +3308,23 @@
       <c r="F44" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" s="1" t="s">
+      <c r="H44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J44" s="4">
-        <v>1</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="4">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>241</v>
       </c>
@@ -3358,17 +3343,17 @@
       <c r="F45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" s="4">
-        <v>1</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" s="4">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>242</v>
       </c>
@@ -3384,20 +3369,20 @@
       <c r="E46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H46" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" s="4">
-        <v>1</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>243</v>
       </c>
@@ -3416,17 +3401,17 @@
       <c r="F47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" s="4">
-        <v>1</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>244</v>
       </c>
@@ -3445,17 +3430,17 @@
       <c r="F48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" s="4">
-        <v>1</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>245</v>
       </c>
@@ -3474,17 +3459,17 @@
       <c r="F49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" s="4">
-        <v>1</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>246</v>
       </c>
@@ -3503,17 +3488,17 @@
       <c r="F50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" s="4">
-        <v>1</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>247</v>
       </c>
@@ -3532,17 +3517,17 @@
       <c r="F51" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H51" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" s="4">
-        <v>1</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>248</v>
       </c>
@@ -3561,17 +3546,17 @@
       <c r="F52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" s="4">
-        <v>1</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" s="4">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>249</v>
       </c>
@@ -3590,17 +3575,17 @@
       <c r="F53" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="H53" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" s="4">
-        <v>1</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" s="4">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>250</v>
       </c>
@@ -3619,17 +3604,17 @@
       <c r="F54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H54" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" s="4">
-        <v>1</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" s="4">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>251</v>
       </c>
@@ -3648,17 +3633,17 @@
       <c r="F55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H55" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" s="4">
-        <v>1</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" s="4">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>252</v>
       </c>
@@ -3677,17 +3662,17 @@
       <c r="F56" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H56" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" s="4">
-        <v>1</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>253</v>
       </c>
@@ -3706,17 +3691,17 @@
       <c r="F57" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H57" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" s="4">
-        <v>1</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>254</v>
       </c>
@@ -3735,17 +3720,17 @@
       <c r="F58" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H58" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" s="4">
-        <v>1</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>255</v>
       </c>
@@ -3764,17 +3749,17 @@
       <c r="F59" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H59" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" s="4">
-        <v>1</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>256</v>
       </c>
@@ -3793,17 +3778,17 @@
       <c r="F60" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H60" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" s="4">
-        <v>1</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>257</v>
       </c>
@@ -3822,17 +3807,17 @@
       <c r="F61" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H61" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" s="4">
-        <v>1</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" s="4">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>258</v>
       </c>
@@ -3851,17 +3836,17 @@
       <c r="F62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" s="4">
-        <v>1</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>259</v>
       </c>
@@ -3880,17 +3865,17 @@
       <c r="F63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H63" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" s="4">
-        <v>1</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>260</v>
       </c>
@@ -3909,17 +3894,17 @@
       <c r="F64" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" s="4">
-        <v>1</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" s="4">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>261</v>
       </c>
@@ -3938,17 +3923,17 @@
       <c r="F65" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H65" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" s="4">
-        <v>1</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" s="4">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>262</v>
       </c>
@@ -3967,17 +3952,17 @@
       <c r="F66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" s="4">
-        <v>1</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66" s="4">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>263</v>
       </c>
@@ -3996,17 +3981,17 @@
       <c r="F67" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H67" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" s="4">
-        <v>1</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K67" s="4">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>264</v>
       </c>
@@ -4025,17 +4010,17 @@
       <c r="F68" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" s="4">
-        <v>1</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68" s="4">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>265</v>
       </c>
@@ -4054,17 +4039,17 @@
       <c r="F69" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" s="4">
-        <v>1</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K69" s="4">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>266</v>
       </c>
@@ -4083,17 +4068,17 @@
       <c r="F70" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" s="4">
-        <v>1</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K70" s="4">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>267</v>
       </c>
@@ -4112,17 +4097,17 @@
       <c r="F71" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H71" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" s="4">
-        <v>1</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K71" s="4">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>268</v>
       </c>
@@ -4141,17 +4126,17 @@
       <c r="F72" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H72" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J72" s="4">
-        <v>1</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K72" s="4">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>269</v>
       </c>
@@ -4170,17 +4155,17 @@
       <c r="F73" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H73" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73" s="4">
-        <v>1</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>270</v>
       </c>
@@ -4199,17 +4184,17 @@
       <c r="F74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H74" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J74" s="4">
-        <v>1</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K74" s="4">
+        <v>1</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>271</v>
       </c>
@@ -4228,17 +4213,17 @@
       <c r="F75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H75" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" s="4">
-        <v>1</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4">
+        <v>1</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>272</v>
       </c>
@@ -4257,17 +4242,17 @@
       <c r="F76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H76" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" s="4">
-        <v>1</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" s="4">
+        <v>1</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>273</v>
       </c>
@@ -4286,17 +4271,17 @@
       <c r="F77" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H77" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" s="4">
-        <v>1</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77" s="4">
+        <v>1</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>274</v>
       </c>
@@ -4315,17 +4300,17 @@
       <c r="F78" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H78" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" s="4">
-        <v>1</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K78" s="4">
+        <v>1</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>275</v>
       </c>
@@ -4344,17 +4329,17 @@
       <c r="F79" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H79" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" s="4">
-        <v>1</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79" s="4">
+        <v>1</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>276</v>
       </c>
@@ -4373,17 +4358,17 @@
       <c r="F80" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H80" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" s="4">
-        <v>1</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>277</v>
       </c>
@@ -4402,17 +4387,17 @@
       <c r="F81" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H81" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" s="4">
-        <v>1</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K81" s="4">
+        <v>1</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>278</v>
       </c>
@@ -4431,17 +4416,17 @@
       <c r="F82" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H82" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" s="4">
-        <v>1</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K82" s="4">
+        <v>1</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>308</v>
       </c>
@@ -4460,20 +4445,20 @@
       <c r="F83" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="H83" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H83" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" s="4">
-        <v>1</v>
-      </c>
-      <c r="K83" s="1" t="s">
+      <c r="I83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1</v>
+      </c>
+      <c r="L83" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>287</v>
       </c>
@@ -4489,23 +4474,23 @@
       <c r="E84" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="H84" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H84" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I84" s="1" t="s">
+      <c r="I84" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="J84" s="4">
-        <v>1</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K84" s="4">
+        <v>1</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>239</v>
       </c>
@@ -4524,23 +4509,23 @@
       <c r="F85" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" s="1" t="s">
+      <c r="H85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="J85" s="4">
-        <v>1</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K85" s="4">
+        <v>1</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>291</v>
       </c>
@@ -4559,23 +4544,23 @@
       <c r="F86" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="H86" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H86" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" s="1">
+      <c r="I86" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1">
         <v>60</v>
       </c>
-      <c r="J86" s="4">
-        <v>1</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K86" s="4">
+        <v>1</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>279</v>
       </c>
@@ -4594,23 +4579,23 @@
       <c r="F87" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H87" s="1" t="b">
+      <c r="H87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="J87" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J87" s="4">
-        <v>1</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K87" s="4">
+        <v>1</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>280</v>
       </c>
@@ -4629,23 +4614,23 @@
       <c r="F88" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H88" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" s="1" t="s">
+      <c r="H88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J88" s="4">
-        <v>1</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K88" s="4">
+        <v>1</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>281</v>
       </c>
@@ -4664,23 +4649,23 @@
       <c r="F89" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" s="1" t="s">
+      <c r="H89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J89" s="4">
-        <v>1</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K89" s="4">
+        <v>1</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>282</v>
       </c>
@@ -4699,23 +4684,23 @@
       <c r="F90" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G90" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I90" s="1" t="s">
+      <c r="H90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J90" s="4">
-        <v>1</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K90" s="4">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>283</v>
       </c>
@@ -4734,23 +4719,23 @@
       <c r="F91" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I91" s="1" t="s">
+      <c r="H91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J91" s="4">
-        <v>1</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K91" s="4">
+        <v>1</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>284</v>
       </c>
@@ -4769,23 +4754,23 @@
       <c r="F92" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G92" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" s="3" t="s">
+      <c r="H92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J92" s="4">
-        <v>1</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K92" s="4">
+        <v>1</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>285</v>
       </c>
@@ -4804,23 +4789,23 @@
       <c r="F93" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" s="1" t="s">
+      <c r="H93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J93" s="4">
-        <v>1</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K93" s="4">
+        <v>1</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>286</v>
       </c>
@@ -4839,1115 +4824,1115 @@
       <c r="F94" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" s="1" t="b">
+      <c r="H94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="J94" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J94" s="4">
-        <v>1</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
+      <c r="K94" s="4">
+        <v>1</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B95" s="6" t="b">
+      <c r="B95" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E95" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H95" s="6" t="b">
+      <c r="E95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I95" s="6" t="s">
+      <c r="J95" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J95" s="8">
-        <v>1</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+      <c r="K95" s="4">
+        <v>1</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B96" s="6" t="b">
+      <c r="B96" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E96" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H96" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I96" s="6" t="s">
+      <c r="E96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J96" s="8">
-        <v>1</v>
-      </c>
-      <c r="K96" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="K96" s="4">
+        <v>1</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B97" s="6" t="b">
+      <c r="B97" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E97" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97" s="6" t="b">
+      <c r="E97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I97" s="6" t="s">
+      <c r="J97" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J97" s="8">
-        <v>1</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+      <c r="K97" s="4">
+        <v>1</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B98" s="6" t="b">
+      <c r="B98" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E98" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G98" s="8" t="s">
+      <c r="E98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H98" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H98" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" s="6" t="s">
+      <c r="I98" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J98" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J98" s="8">
-        <v>1</v>
-      </c>
-      <c r="K98" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+      <c r="K98" s="4">
+        <v>1</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B99" s="6" t="b">
+      <c r="B99" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="E99" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" s="6" t="s">
+      <c r="E99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="J99" s="8">
-        <v>1</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
+      <c r="K99" s="4">
+        <v>1</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B100" s="6" t="b">
+      <c r="B100" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E100" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" s="6" t="s">
+      <c r="E100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J100" s="8">
-        <v>1</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="K100" s="4">
+        <v>1</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B101" s="6" t="b">
+      <c r="B101" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E101" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" s="6" t="s">
+      <c r="E101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="J101" s="8">
-        <v>1</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+      <c r="K101" s="4">
+        <v>1</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B102" s="6" t="b">
+      <c r="B102" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E102" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I102" s="6" t="s">
+      <c r="E102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J102" s="8">
-        <v>1</v>
-      </c>
-      <c r="K102" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
+      <c r="K102" s="4">
+        <v>1</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B103" s="6" t="b">
+      <c r="B103" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E103" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I103" s="6" t="s">
+      <c r="E103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="J103" s="8">
-        <v>1</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
+      <c r="K103" s="4">
+        <v>1</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B104" s="6" t="b">
+      <c r="B104" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E104" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H104" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I104" s="6" t="s">
+      <c r="E104" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="J104" s="8">
-        <v>1</v>
-      </c>
-      <c r="K104" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+      <c r="K104" s="4">
+        <v>1</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B105" s="6" t="b">
+      <c r="B105" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E105" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H105" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I105" s="6" t="s">
+      <c r="E105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J105" s="8">
-        <v>1</v>
-      </c>
-      <c r="K105" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
+      <c r="K105" s="4">
+        <v>1</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B106" s="6" t="b">
+      <c r="B106" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E106" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G106" s="8" t="s">
+      <c r="E106" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H106" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H106" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I106" s="6" t="s">
+      <c r="I106" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="J106" s="8">
-        <v>1</v>
-      </c>
-      <c r="K106" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
+      <c r="K106" s="4">
+        <v>1</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B107" s="6" t="b">
+      <c r="B107" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E107" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" s="6" t="s">
+      <c r="E107" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G107" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H107" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I107" s="6" t="s">
+      <c r="H107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J107" s="8">
-        <v>1</v>
-      </c>
-      <c r="K107" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
+      <c r="K107" s="4">
+        <v>1</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B108" s="6" t="b">
+      <c r="B108" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E108" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G108" s="8" t="s">
+      <c r="E108" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H108" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H108" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I108" s="6" t="s">
+      <c r="I108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J108" s="8">
-        <v>1</v>
-      </c>
-      <c r="K108" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="K108" s="4">
+        <v>1</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B109" s="6" t="b">
+      <c r="B109" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E109" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H109" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I109" s="6" t="s">
+      <c r="E109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J109" s="8">
-        <v>1</v>
-      </c>
-      <c r="K109" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
+      <c r="K109" s="4">
+        <v>1</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B110" s="6" t="b">
+      <c r="B110" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E110" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I110" s="6" t="s">
+      <c r="E110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="J110" s="8">
-        <v>1</v>
-      </c>
-      <c r="K110" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
+      <c r="K110" s="4">
+        <v>1</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B111" s="6" t="b">
+      <c r="B111" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E111" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H111" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I111" s="6" t="s">
+      <c r="E111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="J111" s="8">
-        <v>1</v>
-      </c>
-      <c r="K111" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
+      <c r="K111" s="4">
+        <v>1</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B112" s="6" t="b">
+      <c r="B112" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E112" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H112" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I112" s="6" t="s">
+      <c r="E112" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="J112" s="8">
-        <v>1</v>
-      </c>
-      <c r="K112" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
+      <c r="K112" s="4">
+        <v>1</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B113" s="6" t="b">
+      <c r="B113" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E113" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H113" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I113" s="6" t="s">
+      <c r="E113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="J113" s="8">
-        <v>1</v>
-      </c>
-      <c r="K113" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
+      <c r="K113" s="4">
+        <v>1</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B114" s="6" t="b">
+      <c r="B114" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E114" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H114" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I114" s="10" t="s">
+      <c r="E114" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J114" s="8">
-        <v>1</v>
-      </c>
-      <c r="K114" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
+      <c r="K114" s="4">
+        <v>1</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B115" s="6" t="b">
+      <c r="B115" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E115" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H115" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I115" s="9" t="s">
+      <c r="E115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="J115" s="8">
-        <v>1</v>
-      </c>
-      <c r="K115" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
+      <c r="K115" s="4">
+        <v>1</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B116" s="6" t="b">
+      <c r="B116" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E116" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H116" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I116" s="6" t="s">
+      <c r="E116" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J116" s="8">
-        <v>1</v>
-      </c>
-      <c r="K116" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
+      <c r="K116" s="4">
+        <v>1</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B117" s="6" t="b">
+      <c r="B117" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E117" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H117" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I117" s="6" t="s">
+      <c r="E117" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="J117" s="8">
-        <v>1</v>
-      </c>
-      <c r="K117" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
+      <c r="K117" s="4">
+        <v>1</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B118" s="6" t="b">
+      <c r="B118" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E118" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H118" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I118" s="6" t="s">
+      <c r="E118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="J118" s="8">
-        <v>1</v>
-      </c>
-      <c r="K118" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
+      <c r="K118" s="4">
+        <v>1</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B119" s="6" t="b">
+      <c r="B119" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D119" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E119" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G119" s="8" t="s">
+      <c r="E119" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H119" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H119" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I119" s="6" t="s">
+      <c r="I119" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="J119" s="8">
-        <v>1</v>
-      </c>
-      <c r="K119" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
+      <c r="K119" s="4">
+        <v>1</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B120" s="6" t="b">
+      <c r="B120" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E120" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H120" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I120" s="6" t="s">
+      <c r="E120" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="J120" s="8">
-        <v>1</v>
-      </c>
-      <c r="K120" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
+      <c r="K120" s="4">
+        <v>1</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B121" s="6" t="b">
+      <c r="B121" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E121" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I121" s="6" t="s">
+      <c r="E121" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="J121" s="8">
-        <v>1</v>
-      </c>
-      <c r="K121" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
+      <c r="K121" s="4">
+        <v>1</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B122" s="6" t="b">
+      <c r="B122" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E122" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H122" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I122" s="6" t="s">
+      <c r="E122" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J122" s="8">
-        <v>1</v>
-      </c>
-      <c r="K122" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
+      <c r="K122" s="4">
+        <v>1</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B123" s="6" t="b">
+      <c r="B123" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E123" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H123" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I123" s="6" t="s">
+      <c r="E123" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J123" s="8">
-        <v>1</v>
-      </c>
-      <c r="K123" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
+      <c r="K123" s="4">
+        <v>1</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B124" s="6" t="b">
+      <c r="B124" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E124" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G124" s="8" t="s">
+      <c r="E124" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H124" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H124" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I124" s="6" t="s">
+      <c r="I124" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="J124" s="8">
-        <v>1</v>
-      </c>
-      <c r="K124" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
+      <c r="K124" s="4">
+        <v>1</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B125" s="6" t="b">
+      <c r="B125" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E125" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G125" s="8" t="s">
+      <c r="E125" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H125" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H125" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I125" s="6" t="s">
+      <c r="I125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="J125" s="8">
-        <v>1</v>
-      </c>
-      <c r="K125" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K125" s="4">
+        <v>1</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>434</v>
       </c>
       <c r="B126" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="2" t="s">
         <v>435</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -5959,31 +5944,26 @@
       <c r="F126" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G126" s="4" t="s">
+      <c r="H126" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H126" s="1" t="b">
+      <c r="I126" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J126" s="4">
-        <v>1</v>
-      </c>
-      <c r="K126" s="6" t="s">
+      <c r="K126" s="4">
+        <v>1</v>
+      </c>
+      <c r="L126" s="1" t="s">
         <v>310</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K93" xr:uid="{A50919DD-FCD4-4CE1-AF55-E89DDE6AC166}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K94">
+  <autoFilter ref="A1:L93" xr:uid="{A50919DD-FCD4-4CE1-AF55-E89DDE6AC166}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L94">
       <sortCondition descending="1" ref="B1:B93"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B126:B1048576 B1:B94">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B125">
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -5993,7 +5973,7 @@
       <formula1>1</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{D8512882-7D88-43CB-98C8-E9DE51C6E062}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{D8512882-7D88-43CB-98C8-E9DE51C6E062}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -6018,7 +5998,7 @@
     <hyperlink ref="C21" r:id="rId17" xr:uid="{989F8BBD-1313-458E-9D38-43441D064B5E}"/>
     <hyperlink ref="C22" r:id="rId18" location="be-careful-with-acronyms-in-titles-and-headings" xr:uid="{AD7597E2-E554-4E96-AF9E-2C807AE80400}"/>
     <hyperlink ref="C23" r:id="rId19" xr:uid="{21DB0144-C5FD-478C-9290-FFFE51E67B82}"/>
-    <hyperlink ref="I23" r:id="rId20" xr:uid="{1CB13DD6-76C5-472E-8227-AFF9B1CE6CB3}"/>
+    <hyperlink ref="J23" r:id="rId20" xr:uid="{1CB13DD6-76C5-472E-8227-AFF9B1CE6CB3}"/>
     <hyperlink ref="C25" r:id="rId21" location="pronouns-and-gender" xr:uid="{84ED7D64-0227-4BE4-A9FA-A6CFCBDD0BA0}"/>
     <hyperlink ref="C26" r:id="rId22" xr:uid="{0E0E23A2-7EA3-43F8-947F-293115E80798}"/>
     <hyperlink ref="C27" r:id="rId23" xr:uid="{28472EA9-7C3C-463F-89F9-66BBF150480F}"/>
@@ -6083,7 +6063,7 @@
           <x14:formula1>
             <xm:f>ZZ_DataTab_ZZ!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B126:B1048576 H126:H1048576 H1:H94 B1:B94</xm:sqref>
+          <xm:sqref>B126:B1048576 I126:I1048576 I1:I94 B1:B94</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="You must enter a value" error="You must enter a value" xr:uid="{13B3F03C-2DB1-4009-AD31-9F5CAFDCEF61}">
           <x14:formula1>
@@ -6095,13 +6075,13 @@
           <x14:formula1>
             <xm:f>ZZ_DataTab_ZZ!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G1 G859:G1048576</xm:sqref>
+          <xm:sqref>H1 H859:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7DD83A69-48FE-4200-9977-B732BAFDD123}">
           <x14:formula1>
             <xm:f>ZZ_DataTab_ZZ!$B$1:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G858</xm:sqref>
+          <xm:sqref>H2:H858</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
